--- a/compras/gerar_relatorio_fornecedores_2024.xlsx
+++ b/compras/gerar_relatorio_fornecedores_2024.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA PARQUE - 2024</t>
   </si>
@@ -111,6 +111,9 @@
     <t>Marcos Padovan Informatica Me</t>
   </si>
   <si>
+    <t>Neppe Materiais Eletricos</t>
+  </si>
+  <si>
     <t>Rpg Venda Atacadista Ltda</t>
   </si>
   <si>
@@ -159,12 +162,18 @@
     <t>Mm Service</t>
   </si>
   <si>
+    <t>Smart Id-com E Serv De Informatica</t>
+  </si>
+  <si>
     <t>V. Paula Souza Marcondes Comercio</t>
   </si>
   <si>
     <t>TOTAL MATERIAIS DE ESCRITORIO:</t>
   </si>
   <si>
+    <t>Adapt Hospitalra Dist Medicamentos Ltda</t>
+  </si>
+  <si>
     <t>Agf Express Materiais Medicos Ltda</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>Orthopedic Prod Cirurgicos</t>
   </si>
   <si>
+    <t>R.goncalves Suprimentos Medicos Ltda</t>
+  </si>
+  <si>
     <t>Rafael Silva Santos</t>
   </si>
   <si>
@@ -289,6 +301,12 @@
   </si>
   <si>
     <t>TOTAL ESTOJO DE OCULOS:</t>
+  </si>
+  <si>
+    <t>Daff Industrial Ltda</t>
+  </si>
+  <si>
+    <t>TOTAL LENCO MAGICO:</t>
   </si>
   <si>
     <t>RELATORIO RESUMO GERAL ÓTICA PRESTIGIO - 2024</t>
@@ -733,10 +751,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -909,7 +927,7 @@
         <v>2160.32</v>
       </c>
       <c r="H7" s="5">
-        <v>1200.9</v>
+        <v>1651.42</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -930,7 +948,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
-        <v>120.0</v>
+        <v>180.0</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -955,7 +973,7 @@
         <v>2302.02</v>
       </c>
       <c r="H9" s="5">
-        <v>999.84</v>
+        <v>1812.35</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -980,7 +998,7 @@
         <v>6746.59</v>
       </c>
       <c r="H10" s="7">
-        <v>3784.06</v>
+        <v>4956.59</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -988,7 +1006,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="8">
-        <v>22453.1</v>
+        <v>23625.63</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1174,11 +1192,11 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <v>26.9</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <v>419.69</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1194,7 +1212,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
-        <v>49.1</v>
+        <v>26.9</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1211,18 +1229,12 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5">
-        <v>498.0</v>
-      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="5">
-        <v>704.0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1532.0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>150.0</v>
-      </c>
+        <v>49.1</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1230,51 +1242,57 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <v>498.0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>704.0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1532.0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>150.0</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
         <v>633.79</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>980.0</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>1532.0</v>
       </c>
-      <c r="H22" s="7">
-        <v>150.0</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8">
-        <v>3295.79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>219.99</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="H23" s="7">
+        <v>569.69</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8">
+        <v>3715.48</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
@@ -1283,12 +1301,12 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>219.99</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5">
-        <v>155.0</v>
-      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1306,7 +1324,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5">
-        <v>28.9</v>
+        <v>155.0</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1322,11 +1340,11 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <v>614.0</v>
-      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5">
+        <v>28.9</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1340,10 +1358,10 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>419.83</v>
-      </c>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <v>614.0</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1353,49 +1371,49 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <v>419.83</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
         <v>639.82</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>614.0</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7">
         <v>183.9</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="8">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="8">
         <v>1437.72</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -1406,7 +1424,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <v>1020.0</v>
+        <v>30.0</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1425,11 +1443,9 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <v>1664.47</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1512.12</v>
-      </c>
+        <v>1020.0</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -1444,12 +1460,16 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5">
-        <v>68.3</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <v>1664.47</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1512.12</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1346.07</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1463,14 +1483,12 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5">
+        <v>68.3</v>
+      </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>143.8</v>
-      </c>
-      <c r="H33" s="5">
-        <v>224.01</v>
-      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1487,9 +1505,11 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <v>560.0</v>
-      </c>
-      <c r="H34" s="5"/>
+        <v>143.8</v>
+      </c>
+      <c r="H34" s="5">
+        <v>224.01</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1503,13 +1523,11 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5">
-        <v>115.7</v>
-      </c>
-      <c r="F35" s="5">
-        <v>231.4</v>
-      </c>
-      <c r="G35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
+        <v>560.0</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -1519,19 +1537,17 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>140.0</v>
-      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5">
+        <v>529.98</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -1539,44 +1555,39 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7">
-        <v>284.0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>3085.87</v>
-      </c>
-      <c r="G37" s="7">
-        <v>2215.92</v>
-      </c>
-      <c r="H37" s="7">
-        <v>224.01</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="8">
-        <v>5809.8</v>
-      </c>
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
+        <v>115.7</v>
+      </c>
+      <c r="F37" s="5">
+        <v>231.4</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5">
-        <v>52.63</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>100.0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>140.0</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -1586,41 +1597,46 @@
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5">
-        <v>1099.2</v>
-      </c>
-      <c r="F39" s="5">
-        <v>579.6</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1306.26</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="A39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <v>284.0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>3085.87</v>
+      </c>
+      <c r="G39" s="7">
+        <v>2215.92</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2100.06</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8">
+        <v>7685.85</v>
+      </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5">
-        <v>507.32</v>
-      </c>
+      <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5">
+        <v>2600.0</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -1629,15 +1645,15 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5">
-        <v>207.71</v>
-      </c>
+      <c r="E41" s="5">
+        <v>52.63</v>
+      </c>
+      <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -1648,20 +1664,22 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5">
+        <v>1099.2</v>
+      </c>
       <c r="F42" s="5">
-        <v>347.44</v>
+        <v>579.6</v>
       </c>
       <c r="G42" s="5">
-        <v>916.0</v>
+        <v>1306.26</v>
       </c>
       <c r="H42" s="5">
-        <v>302.0</v>
+        <v>287.76</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -1678,7 +1696,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5">
-        <v>846.0</v>
+        <v>507.32</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -1697,7 +1715,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
-        <v>423.0</v>
+        <v>207.71</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -1715,10 +1733,14 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="F45" s="5">
+        <v>347.44</v>
+      </c>
+      <c r="G45" s="5">
+        <v>916.0</v>
+      </c>
       <c r="H45" s="5">
-        <v>25.2</v>
+        <v>302.0</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -1735,7 +1757,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
-        <v>425.0</v>
+        <v>846.0</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -1753,10 +1775,10 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5">
-        <v>706.66</v>
-      </c>
+      <c r="F47" s="5">
+        <v>423.0</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -1771,12 +1793,12 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5">
-        <v>37.95</v>
-      </c>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="H48" s="5">
+        <v>25.2</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -1792,10 +1814,12 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
-        <v>84.16</v>
+        <v>425.0</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="H49" s="5">
+        <v>420.0</v>
+      </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -1812,7 +1836,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5">
-        <v>188.07</v>
+        <v>706.66</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -1828,13 +1852,11 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5">
-        <v>290.45</v>
-      </c>
-      <c r="G51" s="5">
-        <v>1259.8</v>
-      </c>
+      <c r="E51" s="5">
+        <v>37.95</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -1851,7 +1873,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
-        <v>145.6</v>
+        <v>84.16</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -1863,17 +1885,15 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="5">
-        <v>573.75</v>
-      </c>
+      <c r="F53" s="5"/>
       <c r="G53" s="5">
-        <v>821.8</v>
+        <v>188.07</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -1884,17 +1904,19 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5">
-        <v>33.6</v>
-      </c>
+      <c r="F54" s="5">
+        <v>290.45</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1259.8</v>
+      </c>
+      <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -1903,14 +1925,14 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
-        <v>107.8</v>
+        <v>145.6</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -1922,15 +1944,17 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="5">
+        <v>573.75</v>
+      </c>
       <c r="G56" s="5">
-        <v>1400.0</v>
+        <v>821.8</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -1947,11 +1971,11 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="5">
-        <v>180.0</v>
-      </c>
+      <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="5">
+        <v>33.6</v>
+      </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -1966,14 +1990,10 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="5">
-        <v>1278.0</v>
-      </c>
-      <c r="G58" s="5">
-        <v>940.0</v>
-      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="5">
-        <v>260.0</v>
+        <v>1694.42</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -1982,32 +2002,23 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="6" t="s">
+      <c r="A59" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7">
-        <v>1189.78</v>
-      </c>
-      <c r="F59" s="7">
-        <v>5995.83</v>
-      </c>
-      <c r="G59" s="7">
-        <v>7538.59</v>
-      </c>
-      <c r="H59" s="7">
-        <v>620.8</v>
-      </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="8">
-        <v>15345.0</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <v>107.8</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
@@ -2017,11 +2028,9 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="5">
-        <v>629.3</v>
-      </c>
+      <c r="F60" s="5"/>
       <c r="G60" s="5">
-        <v>691.3</v>
+        <v>1400.0</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -2037,10 +2046,10 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5">
-        <v>139.25</v>
-      </c>
-      <c r="F61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5">
+        <v>180.0</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -2056,16 +2065,16 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5">
-        <v>818.92</v>
-      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="5">
-        <v>6963.41</v>
+        <v>1278.0</v>
       </c>
       <c r="G62" s="5">
-        <v>384.14</v>
-      </c>
-      <c r="H62" s="5"/>
+        <v>940.0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>260.0</v>
+      </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -2073,51 +2082,53 @@
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" t="s">
+      <c r="A63" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7">
+        <v>1189.78</v>
+      </c>
+      <c r="F63" s="7">
+        <v>5995.83</v>
+      </c>
+      <c r="G63" s="7">
+        <v>7538.59</v>
+      </c>
+      <c r="H63" s="7">
+        <v>5622.98</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="8">
+        <v>20347.18</v>
+      </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="6" t="s">
+      <c r="A64" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7">
-        <v>958.17</v>
-      </c>
-      <c r="F64" s="7">
-        <v>7592.71</v>
-      </c>
-      <c r="G64" s="7">
-        <v>1075.44</v>
-      </c>
-      <c r="H64" s="7">
-        <v>99.0</v>
-      </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="8">
-        <v>9725.32</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
+        <v>629.3</v>
+      </c>
+      <c r="G64" s="5">
+        <v>691.3</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
@@ -2126,10 +2137,10 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5">
-        <v>879.56</v>
-      </c>
+      <c r="E65" s="5">
+        <v>139.25</v>
+      </c>
+      <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -2139,237 +2150,231 @@
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="6" t="s">
+      <c r="A66" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5">
+        <v>1179.37</v>
+      </c>
+      <c r="F66" s="5">
+        <v>6963.41</v>
+      </c>
+      <c r="G66" s="5">
+        <v>384.14</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5">
+        <v>99.0</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7">
+        <v>1318.62</v>
+      </c>
+      <c r="F68" s="7">
+        <v>7592.71</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1075.44</v>
+      </c>
+      <c r="H68" s="7">
+        <v>99.0</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="8">
+        <v>10085.77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
         <v>879.56</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="8">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7">
         <v>879.56</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="9" t="s">
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="8">
+        <v>879.56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10">
-        <v>18512.51</v>
-      </c>
-      <c r="F67" s="10">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10">
+        <v>18872.96</v>
+      </c>
+      <c r="F71" s="10">
         <v>70971.84</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G71" s="10">
         <v>19958.54</v>
       </c>
-      <c r="H67" s="10">
-        <v>11349.77</v>
-      </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="11">
-        <v>120792.66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="2" t="s">
+      <c r="H71" s="10">
+        <v>19820.22</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="11">
+        <v>129623.56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="L74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="M74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
-      <c r="A71" t="s">
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5">
         <v>289.8</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F75" s="5">
         <v>302.38</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5">
-        <v>317.98</v>
-      </c>
-      <c r="F72" s="5">
-        <v>955.16</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5">
-        <v>774.61</v>
-      </c>
-      <c r="F73" s="5">
-        <v>1381.88</v>
-      </c>
-      <c r="G73" s="5">
-        <v>1997.46</v>
-      </c>
-      <c r="H73" s="5">
-        <v>1330.76</v>
-      </c>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5">
-        <v>1363.38</v>
-      </c>
-      <c r="F74" s="5">
-        <v>5145.61</v>
-      </c>
-      <c r="G74" s="5">
-        <v>2671.54</v>
-      </c>
-      <c r="H74" s="5">
-        <v>227.07</v>
-      </c>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7">
-        <v>2745.77</v>
-      </c>
-      <c r="F75" s="7">
-        <v>7232.27</v>
-      </c>
-      <c r="G75" s="7">
-        <v>4669.0</v>
-      </c>
-      <c r="H75" s="7">
-        <v>1330.76</v>
-      </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="8">
-        <v>22453.1</v>
-      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5">
-        <v>1062.0</v>
-      </c>
-      <c r="H76" s="5"/>
+      <c r="E76" s="5">
+        <v>317.98</v>
+      </c>
+      <c r="F76" s="5">
+        <v>955.16</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5">
+        <v>226.02</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -2377,44 +2382,49 @@
       <c r="M76" s="5"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7">
-        <v>1062.0</v>
-      </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="8">
-        <v>3295.79</v>
-      </c>
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5">
+        <v>774.61</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1381.88</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1997.46</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1330.76</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5">
-        <v>2258.77</v>
+        <v>1363.38</v>
       </c>
       <c r="F78" s="5">
-        <v>5503.38</v>
+        <v>5145.61</v>
       </c>
       <c r="G78" s="5">
-        <v>544.69</v>
-      </c>
-      <c r="H78" s="5"/>
+        <v>2671.54</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1028.42</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -2422,103 +2432,109 @@
       <c r="M78" s="5"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5">
-        <v>200.12</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="A79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7">
+        <v>2745.77</v>
+      </c>
+      <c r="F79" s="7">
+        <v>7232.27</v>
+      </c>
+      <c r="G79" s="7">
+        <v>4669.0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>2358.13</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="8">
+        <v>23625.63</v>
+      </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5">
+        <v>1062.0</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7">
+        <v>1062.0</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="8">
+        <v>3715.48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5">
         <v>2258.77</v>
       </c>
-      <c r="F80" s="7">
-        <v>5703.5</v>
-      </c>
-      <c r="G80" s="7">
+      <c r="F82" s="5">
+        <v>5503.38</v>
+      </c>
+      <c r="G82" s="5">
         <v>544.69</v>
       </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="8">
-        <v>1437.72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5">
-        <v>174.74</v>
-      </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7">
-        <v>174.74</v>
-      </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="8">
-        <v>5809.8</v>
-      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5">
-        <v>33.05</v>
-      </c>
+      <c r="F83" s="5">
+        <v>200.12</v>
+      </c>
+      <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -2527,79 +2543,84 @@
       <c r="M83" s="5"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5">
-        <v>159.6</v>
-      </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
+      <c r="A84" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7">
+        <v>2258.77</v>
+      </c>
+      <c r="F84" s="7">
+        <v>5703.5</v>
+      </c>
+      <c r="G84" s="7">
+        <v>544.69</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="8">
+        <v>1437.72</v>
+      </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7">
-        <v>192.65</v>
-      </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="8">
-        <v>15345.0</v>
-      </c>
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5">
+        <v>174.74</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5">
-        <v>299.7</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5">
-        <v>379.6</v>
-      </c>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="A86" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7">
+        <v>174.74</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="8">
+        <v>7685.85</v>
+      </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="5">
-        <v>354.9</v>
-      </c>
-      <c r="G87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
+        <v>33.05</v>
+      </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -2608,232 +2629,229 @@
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="6" t="s">
+      <c r="A88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
+        <v>159.6</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7">
+        <v>192.65</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="8">
+        <v>20347.18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5">
         <v>299.7</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5">
+        <v>379.6</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5">
         <v>354.9</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7">
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7">
+        <v>299.7</v>
+      </c>
+      <c r="F92" s="7">
+        <v>354.9</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7">
         <v>379.6</v>
       </c>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="8">
-        <v>9725.32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="A89" s="9" t="s">
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="8">
+        <v>10085.77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10">
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10">
         <v>5304.24</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F93" s="10">
         <v>13290.67</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G93" s="10">
         <v>6643.08</v>
       </c>
-      <c r="H89" s="10">
-        <v>1710.36</v>
-      </c>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="11">
-        <v>26948.35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" s="2" t="s">
+      <c r="H93" s="10">
+        <v>2737.73</v>
+      </c>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="11">
+        <v>27975.72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G96" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="J96" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="L96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="M96" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N96" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
-      <c r="A93" t="s">
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5">
         <v>251.56</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F97" s="5">
         <v>503.12</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5">
-        <v>664.14</v>
-      </c>
-      <c r="F94" s="5">
-        <v>129.26</v>
-      </c>
-      <c r="G94" s="5">
-        <v>552.72</v>
-      </c>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="A95" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7">
-        <v>915.7</v>
-      </c>
-      <c r="F95" s="7">
-        <v>632.38</v>
-      </c>
-      <c r="G95" s="7">
-        <v>552.72</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="8">
-        <v>22453.1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5">
-        <v>225.24</v>
-      </c>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-    </row>
-    <row r="97" spans="1:16">
-      <c r="A97" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7">
-        <v>225.24</v>
-      </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="8">
-        <v>15345.0</v>
-      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5">
+        <v>993.97</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5">
-        <v>284.7</v>
-      </c>
+      <c r="E98" s="5">
+        <v>664.14</v>
+      </c>
+      <c r="F98" s="5">
+        <v>129.26</v>
+      </c>
+      <c r="G98" s="5">
+        <v>552.72</v>
+      </c>
+      <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -2842,16 +2860,22 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="6" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="E99" s="7">
+        <v>915.7</v>
+      </c>
+      <c r="F99" s="7">
+        <v>632.38</v>
+      </c>
+      <c r="G99" s="7">
+        <v>552.72</v>
+      </c>
       <c r="H99" s="7">
-        <v>284.7</v>
+        <v>993.97</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -2859,169 +2883,167 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
       <c r="N99" s="8">
-        <v>9725.32</v>
+        <v>23625.63</v>
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="9" t="s">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5">
+        <v>225.24</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7">
+        <v>225.24</v>
+      </c>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="8">
+        <v>20347.18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5">
+        <v>284.7</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7">
+        <v>284.7</v>
+      </c>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="8">
+        <v>10085.77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10">
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10">
         <v>915.7</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F104" s="10">
         <v>632.38</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G104" s="10">
         <v>777.96</v>
       </c>
-      <c r="H100" s="10">
-        <v>284.7</v>
-      </c>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="11">
-        <v>2610.74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
-      <c r="A102" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="A103" s="2" t="s">
+      <c r="H104" s="10">
+        <v>1278.67</v>
+      </c>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="11">
+        <v>3604.71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="J107" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="L107" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M103" s="4" t="s">
+      <c r="M107" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N107" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
-      <c r="A104" t="s">
-        <v>81</v>
-      </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5">
-        <v>723.0</v>
-      </c>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-    </row>
-    <row r="105" spans="1:16">
-      <c r="A105" t="s">
-        <v>82</v>
-      </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5">
-        <v>2180.05</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5">
-        <v>9864.55</v>
-      </c>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-    </row>
-    <row r="106" spans="1:16">
-      <c r="A106" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5">
-        <v>4710.32</v>
-      </c>
-      <c r="F106" s="5">
-        <v>8266.89</v>
-      </c>
-      <c r="G106" s="5">
-        <v>5777.15</v>
-      </c>
-      <c r="H106" s="5">
-        <v>12252.71</v>
-      </c>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-    </row>
-    <row r="107" spans="1:16">
-      <c r="A107" t="s">
-        <v>84</v>
-      </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5">
-        <v>5500.0</v>
-      </c>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
@@ -3032,10 +3054,10 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5">
-        <v>6854.13</v>
-      </c>
+      <c r="G108" s="5">
+        <v>723.0</v>
+      </c>
+      <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -3050,10 +3072,12 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
+      <c r="F109" s="5">
+        <v>2180.05</v>
+      </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5">
-        <v>5402.29</v>
+        <v>9864.55</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -3068,12 +3092,18 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5">
+        <v>4710.32</v>
+      </c>
       <c r="F110" s="5">
-        <v>1052.92</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
+        <v>8266.89</v>
+      </c>
+      <c r="G110" s="5">
+        <v>5777.15</v>
+      </c>
+      <c r="H110" s="5">
+        <v>12252.71</v>
+      </c>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -3081,30 +3111,23 @@
       <c r="M110" s="5"/>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="6" t="s">
+      <c r="A111" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7">
-        <v>4710.32</v>
-      </c>
-      <c r="F111" s="7">
-        <v>11499.86</v>
-      </c>
-      <c r="G111" s="7">
-        <v>6500.15</v>
-      </c>
-      <c r="H111" s="7">
-        <v>39873.68</v>
-      </c>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="8"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5">
+        <v>5500.0</v>
+      </c>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
@@ -3113,12 +3136,12 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="5">
-        <v>2289.2</v>
-      </c>
+      <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
+      <c r="H112" s="5">
+        <v>6854.13</v>
+      </c>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -3126,35 +3149,34 @@
       <c r="M112" s="5"/>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="6" t="s">
+      <c r="A113" t="s">
         <v>90</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7">
-        <v>2289.2</v>
-      </c>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="8"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5">
+        <v>5402.29</v>
+      </c>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5">
-        <v>500.0</v>
+        <v>1052.92</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -3166,38 +3188,42 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="6" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
+      <c r="E115" s="7">
+        <v>4710.32</v>
+      </c>
       <c r="F115" s="7">
-        <v>500.0</v>
-      </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+        <v>11499.86</v>
+      </c>
+      <c r="G115" s="7">
+        <v>6500.15</v>
+      </c>
+      <c r="H115" s="7">
+        <v>39873.68</v>
+      </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="8">
-        <v>22453.1</v>
-      </c>
+      <c r="N115" s="8"/>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5">
+        <v>2289.2</v>
+      </c>
       <c r="F116" s="5"/>
-      <c r="G116" s="5">
-        <v>95.96</v>
-      </c>
+      <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
@@ -3207,116 +3233,117 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="6" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
+      <c r="E117" s="7">
+        <v>2289.2</v>
+      </c>
       <c r="F117" s="7"/>
-      <c r="G117" s="7">
-        <v>95.96</v>
-      </c>
+      <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
-      <c r="N117" s="8">
-        <v>5809.8</v>
-      </c>
+      <c r="N117" s="8"/>
     </row>
     <row r="118" spans="1:16">
-      <c r="A118" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14">
-        <v>6999.52</v>
-      </c>
-      <c r="F118" s="14">
-        <v>11999.86</v>
-      </c>
-      <c r="G118" s="14">
-        <v>6596.11</v>
-      </c>
-      <c r="H118" s="14">
-        <v>39873.68</v>
-      </c>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="11">
-        <v>65469.17</v>
-      </c>
+      <c r="A118" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5">
+        <v>755.0</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7">
+        <v>755.0</v>
+      </c>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="8"/>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="12" t="s">
-        <v>91</v>
-      </c>
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N121" t="s">
-        <v>14</v>
+      <c r="A121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="8">
+        <v>23625.63</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5">
-        <v>3518.42</v>
-      </c>
+      <c r="G122" s="5">
+        <v>95.96</v>
+      </c>
+      <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -3324,224 +3351,218 @@
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" t="s">
-        <v>83</v>
-      </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5">
+      <c r="A123" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7">
+        <v>95.96</v>
+      </c>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="8">
+        <v>7685.85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14">
+        <v>6999.52</v>
+      </c>
+      <c r="F124" s="14">
+        <v>11999.86</v>
+      </c>
+      <c r="G124" s="14">
+        <v>6596.11</v>
+      </c>
+      <c r="H124" s="14">
+        <v>40628.68</v>
+      </c>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="11">
+        <v>66224.17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>86</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5">
+        <v>3518.42</v>
+      </c>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5">
         <v>1448.82</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F129" s="5">
         <v>3814.76</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G129" s="5">
         <v>3550.64</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H129" s="5">
         <v>3108.38</v>
       </c>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124" t="s">
-        <v>84</v>
-      </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5">
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5">
         <v>1650.0</v>
       </c>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-    </row>
-    <row r="125" spans="1:16">
-      <c r="A125" t="s">
-        <v>85</v>
-      </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5">
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5">
         <v>544.93</v>
       </c>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126" t="s">
-        <v>86</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5">
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" t="s">
+        <v>90</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5">
         <v>1568.72</v>
       </c>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" t="s">
-        <v>92</v>
-      </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5">
-        <v>399.0</v>
-      </c>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7">
-        <v>1448.82</v>
-      </c>
-      <c r="F128" s="7">
-        <v>3814.76</v>
-      </c>
-      <c r="G128" s="7">
-        <v>4494.57</v>
-      </c>
-      <c r="H128" s="7">
-        <v>9845.52</v>
-      </c>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="8"/>
-    </row>
-    <row r="129" spans="1:16">
-      <c r="A129" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14">
-        <v>1448.82</v>
-      </c>
-      <c r="F129" s="14">
-        <v>3814.76</v>
-      </c>
-      <c r="G129" s="14">
-        <v>4494.57</v>
-      </c>
-      <c r="H129" s="14">
-        <v>9845.52</v>
-      </c>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14"/>
-      <c r="N129" s="11">
-        <v>19603.67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
-      <c r="A131" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
-      <c r="A132" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N132" t="s">
-        <v>14</v>
-      </c>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="5">
-        <v>711.31</v>
-      </c>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5">
-        <v>3630.76</v>
-      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5">
+        <v>399.0</v>
+      </c>
+      <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -3549,119 +3570,243 @@
       <c r="M133" s="5"/>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" t="s">
-        <v>83</v>
-      </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5">
-        <v>719.7</v>
-      </c>
-      <c r="H134" s="5">
-        <v>2006.62</v>
-      </c>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
+      <c r="A134" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7">
+        <v>1448.82</v>
+      </c>
+      <c r="F134" s="7">
+        <v>3814.76</v>
+      </c>
+      <c r="G134" s="7">
+        <v>4494.57</v>
+      </c>
+      <c r="H134" s="7">
+        <v>9845.52</v>
+      </c>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="8"/>
     </row>
     <row r="135" spans="1:16">
-      <c r="A135" t="s">
+      <c r="A135" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14">
+        <v>1448.82</v>
+      </c>
+      <c r="F135" s="14">
+        <v>3814.76</v>
+      </c>
+      <c r="G135" s="14">
+        <v>4494.57</v>
+      </c>
+      <c r="H135" s="14">
+        <v>9845.52</v>
+      </c>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="11">
+        <v>19603.67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" t="s">
         <v>86</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5">
-        <v>1568.85</v>
-      </c>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-    </row>
-    <row r="136" spans="1:16">
-      <c r="A136" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5">
         <v>711.31</v>
       </c>
-      <c r="G136" s="7">
-        <v>719.7</v>
-      </c>
-      <c r="H136" s="7">
-        <v>7206.23</v>
-      </c>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="1:16">
-      <c r="A137" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14">
-        <v>711.31</v>
-      </c>
-      <c r="G137" s="14">
-        <v>719.7</v>
-      </c>
-      <c r="H137" s="14">
-        <v>7206.23</v>
-      </c>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="11">
-        <v>8637.24</v>
-      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5">
+        <v>3630.76</v>
+      </c>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" t="s">
-        <v>94</v>
-      </c>
-      <c r="B140" s="5">
-        <v>151131.58</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5">
+        <v>719.7</v>
+      </c>
+      <c r="H140" s="5">
+        <v>2006.62</v>
+      </c>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>95</v>
-      </c>
-      <c r="B141" s="5">
-        <v>93710.08</v>
+        <v>90</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5">
+        <v>1568.85</v>
+      </c>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7">
+        <v>711.31</v>
+      </c>
+      <c r="G142" s="7">
+        <v>719.7</v>
+      </c>
+      <c r="H142" s="7">
+        <v>7206.23</v>
+      </c>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="8"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14">
+        <v>711.31</v>
+      </c>
+      <c r="G143" s="14">
+        <v>719.7</v>
+      </c>
+      <c r="H143" s="14">
+        <v>7206.23</v>
+      </c>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="11">
+        <v>8637.24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" s="5">
+        <v>162134.32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" t="s">
+        <v>101</v>
+      </c>
+      <c r="B147" s="5">
+        <v>94465.08</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A69:N69"/>
-    <mergeCell ref="A91:N91"/>
-    <mergeCell ref="A102:N102"/>
-    <mergeCell ref="A120:N120"/>
-    <mergeCell ref="A131:N131"/>
+    <mergeCell ref="A73:N73"/>
+    <mergeCell ref="A95:N95"/>
+    <mergeCell ref="A106:N106"/>
+    <mergeCell ref="A126:N126"/>
+    <mergeCell ref="A137:N137"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3674,10 +3819,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AK45" sqref="AK45"/>
+      <selection activeCell="AK49" sqref="AK49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3687,7 +3832,7 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -3733,117 +3878,117 @@
     </row>
     <row r="3" spans="1:37">
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q4">
         <v>20.0</v>
@@ -3851,7 +3996,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N5">
         <v>20.0</v>
@@ -3862,7 +4007,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K6">
         <v>5.0</v>
@@ -3879,7 +4024,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T7">
         <v>100.0</v>
@@ -3887,7 +4032,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="T8">
         <v>1.0</v>
@@ -3895,7 +4040,7 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="T9">
         <v>30.0</v>
@@ -3903,7 +4048,7 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N10">
         <v>6.0</v>
@@ -3911,7 +4056,7 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3960,12 +4105,12 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4006,15 +4151,15 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>3.0</v>
+        <v>95</v>
+      </c>
+      <c r="T14">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="6" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4028,15 +4173,15 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6">
-        <v>3.0</v>
-      </c>
+      <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="T15" s="6">
+        <v>1.0</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -4057,15 +4202,15 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16">
-        <v>1.0</v>
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4079,12 +4224,12 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6">
+        <v>3.0</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -4107,360 +4252,321 @@
       <c r="AK17" s="6"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="13" t="s">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
         <v>5.0</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13">
         <v>57.0</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13">
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13">
         <v>71.0</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13">
-        <v>267.0</v>
-      </c>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-    </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="2" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13">
+        <v>268.0</v>
+      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Z21" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AC23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AF21" s="4" t="s">
+      <c r="AF23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AI21" s="4" t="s">
+      <c r="AI23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
-      <c r="B22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK22" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="T23">
-        <v>29.0</v>
-      </c>
-    </row>
     <row r="24" spans="1:37">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24">
-        <v>3.0</v>
-      </c>
-      <c r="N24">
-        <v>12.0</v>
-      </c>
-      <c r="Q24">
-        <v>38.0</v>
-      </c>
-      <c r="T24">
-        <v>15.0</v>
+      <c r="B24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T25">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="K26">
+        <v>3.0</v>
+      </c>
+      <c r="N26">
+        <v>12.0</v>
       </c>
       <c r="Q26">
-        <v>2.0</v>
+        <v>38.0</v>
+      </c>
+      <c r="T26">
+        <v>15.0</v>
       </c>
     </row>
     <row r="27" spans="1:37">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T27">
-        <v>9.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q28">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="T29">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30">
         <v>10.0</v>
       </c>
-    </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6">
-        <v>83.0</v>
-      </c>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-    </row>
-    <row r="30" spans="1:37">
-      <c r="A30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="6" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4471,16 +4577,24 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="6">
+        <v>3.0</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="N31" s="6">
+        <v>12.0</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="Q31" s="6">
+        <v>50.0</v>
+      </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
+      <c r="T31" s="6">
+        <v>83.0</v>
+      </c>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -4501,7 +4615,7 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="6" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4541,372 +4655,366 @@
       <c r="AK32" s="6"/>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13">
         <v>3.0</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13">
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13">
         <v>12.0</v>
       </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13">
         <v>50.0</v>
       </c>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13">
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13">
         <v>83.0</v>
       </c>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-    </row>
-    <row r="35" spans="1:37">
-      <c r="A35" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37">
-      <c r="A36" s="2" t="s">
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T36" s="4" t="s">
+      <c r="T39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="4" t="s">
+      <c r="W39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Z36" s="4" t="s">
+      <c r="Z39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC36" s="4" t="s">
+      <c r="AC39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AF36" s="4" t="s">
+      <c r="AF39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AI36" s="4" t="s">
+      <c r="AI39" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
-      <c r="B37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK37" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="N38">
+    <row r="40" spans="1:37">
+      <c r="B40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK40" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41">
         <v>6.0</v>
       </c>
-      <c r="T38">
+      <c r="T41">
         <v>35.0</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q39">
+    <row r="42" spans="1:37">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q42">
         <v>10.0</v>
       </c>
-      <c r="T39">
+      <c r="T42">
         <v>10.0</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="T40">
+    <row r="43" spans="1:37">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="T43">
         <v>10.0</v>
       </c>
-    </row>
-    <row r="41" spans="1:37">
-      <c r="A41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="6"/>
-    </row>
-    <row r="42" spans="1:37">
-      <c r="A42" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-    </row>
-    <row r="43" spans="1:37">
-      <c r="A43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
     </row>
     <row r="44" spans="1:37">
       <c r="A44" s="6" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -4920,13 +5028,19 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="N44" s="6">
+        <v>6.0</v>
+      </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
+      <c r="Q44" s="6">
+        <v>10.0</v>
+      </c>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
+      <c r="T44" s="6">
+        <v>55.0</v>
+      </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -4946,51 +5060,215 @@
       <c r="AK44" s="6"/>
     </row>
     <row r="45" spans="1:37">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13">
         <v>6.0</v>
       </c>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13">
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13">
         <v>10.0</v>
       </c>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13">
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13">
         <v>55.0</v>
       </c>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5007,32 +5285,32 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="A20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="A35:AK35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="AF36:AH36"/>
-    <mergeCell ref="AI36:AK36"/>
+    <mergeCell ref="A22:AK22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="A38:AK38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compras/gerar_relatorio_fornecedores_2024.xlsx
+++ b/compras/gerar_relatorio_fornecedores_2024.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA PARQUE - 2024</t>
   </si>
@@ -123,6 +123,9 @@
     <t>Wg Negocios Corporativos</t>
   </si>
   <si>
+    <t>Zox Telecom</t>
+  </si>
+  <si>
     <t>TOTAL MANUTENçãO DE EQUIPAMENTOS:</t>
   </si>
   <si>
@@ -186,6 +189,12 @@
     <t>C M Hospitalar S.a (rpo)</t>
   </si>
   <si>
+    <t>Cirúrgica Fernandes</t>
+  </si>
+  <si>
+    <t>Drogaria Efarma</t>
+  </si>
+  <si>
     <t>Elfa Medicamentos S.a</t>
   </si>
   <si>
@@ -289,9 +298,6 @@
   </si>
   <si>
     <t>Suntech Supplies Ind Com Prod Oticos</t>
-  </si>
-  <si>
-    <t>Suntech Supplies Ind E Com De Produtosoticos E Esp Ltda</t>
   </si>
   <si>
     <t>TOTAL ARMAçõES:</t>
@@ -751,15 +757,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P147"/>
+  <dimension ref="A1:P149"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B147" sqref="B147"/>
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="65.984" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="55.272" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -767,7 +773,7 @@
     <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.854" bestFit="true" customWidth="true" style="0"/>
@@ -1111,8 +1117,12 @@
       <c r="G15" s="5">
         <v>850.0</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="5">
+        <v>1086.38</v>
+      </c>
+      <c r="I15" s="5">
+        <v>945.0</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1135,15 +1145,17 @@
         <v>850.0</v>
       </c>
       <c r="H16" s="7">
-        <v>6288.0</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>7374.38</v>
+      </c>
+      <c r="I16" s="7">
+        <v>945.0</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="8">
-        <v>61846.37</v>
+        <v>63877.75</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1267,51 +1279,53 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>221.9</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
         <v>633.79</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>980.0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="7">
         <v>1532.0</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <v>569.69</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="8">
-        <v>3715.48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5">
-        <v>219.99</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="I24" s="7">
+        <v>221.9</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8">
+        <v>3937.38</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1320,12 +1334,12 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5">
+        <v>219.99</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <v>155.0</v>
-      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1343,7 +1357,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5">
-        <v>28.9</v>
+        <v>155.0</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -1359,11 +1373,11 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5">
-        <v>614.0</v>
-      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5">
+        <v>28.9</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1377,10 +1391,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5">
-        <v>419.83</v>
-      </c>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <v>614.0</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1390,49 +1404,49 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <v>419.83</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
         <v>639.82</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>614.0</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7">
         <v>183.9</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="8">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="8">
         <v>1437.72</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
@@ -1443,7 +1457,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <v>1020.0</v>
+        <v>30.0</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1462,14 +1476,10 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
-        <v>1664.47</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1512.12</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1346.07</v>
-      </c>
+        <v>1020.0</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1483,12 +1493,16 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5">
-        <v>68.3</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <v>1664.47</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1512.12</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1346.07</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1502,14 +1516,12 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5">
+        <v>68.3</v>
+      </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="5">
-        <v>143.8</v>
-      </c>
-      <c r="H34" s="5">
-        <v>224.01</v>
-      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1526,9 +1538,11 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
-        <v>560.0</v>
-      </c>
-      <c r="H35" s="5"/>
+        <v>143.8</v>
+      </c>
+      <c r="H35" s="5">
+        <v>224.01</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -1544,10 +1558,10 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5">
-        <v>529.98</v>
-      </c>
+      <c r="G36" s="5">
+        <v>560.0</v>
+      </c>
+      <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -1561,14 +1575,12 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <v>115.7</v>
-      </c>
-      <c r="F37" s="5">
-        <v>231.4</v>
-      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="H37" s="5">
+        <v>529.98</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -1577,16 +1589,16 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5">
-        <v>100.0</v>
+        <v>115.7</v>
       </c>
       <c r="F38" s="5">
-        <v>140.0</v>
+        <v>231.4</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -1597,51 +1609,53 @@
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>140.0</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7">
         <v>284.0</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="7">
         <v>3085.87</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G40" s="7">
         <v>2215.92</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H40" s="7">
         <v>2100.06</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="8">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8">
         <v>7685.85</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5">
-        <v>2600.0</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
@@ -1650,12 +1664,12 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5">
-        <v>52.63</v>
-      </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="H41" s="5">
+        <v>2600.0</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -1664,23 +1678,17 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5">
-        <v>1099.2</v>
-      </c>
-      <c r="F42" s="5">
-        <v>579.6</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1306.26</v>
-      </c>
-      <c r="H42" s="5">
-        <v>287.76</v>
-      </c>
+        <v>52.63</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -1689,17 +1697,23 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5">
+        <v>1099.2</v>
+      </c>
       <c r="F43" s="5">
-        <v>507.32</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+        <v>579.6</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1306.26</v>
+      </c>
+      <c r="H43" s="5">
+        <v>287.76</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -1715,11 +1729,15 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
-        <v>207.71</v>
+        <v>507.32</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="H44" s="5">
+        <v>912.91</v>
+      </c>
+      <c r="I44" s="5">
+        <v>567.68</v>
+      </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -1734,14 +1752,10 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
-        <v>347.44</v>
-      </c>
-      <c r="G45" s="5">
-        <v>916.0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>302.0</v>
-      </c>
+        <v>207.71</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -1757,11 +1771,17 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
-        <v>846.0</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+        <v>347.44</v>
+      </c>
+      <c r="G46" s="5">
+        <v>916.0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>302.0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>604.0</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -1775,12 +1795,12 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="5">
-        <v>423.0</v>
-      </c>
+      <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5">
+        <v>661.65</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -1796,10 +1816,10 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="5">
-        <v>25.2</v>
-      </c>
-      <c r="I48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5">
+        <v>355.3</v>
+      </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -1814,12 +1834,10 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
-        <v>425.0</v>
+        <v>846.0</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="5">
-        <v>420.0</v>
-      </c>
+      <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -1834,10 +1852,10 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5">
-        <v>706.66</v>
-      </c>
+      <c r="F50" s="5">
+        <v>423.0</v>
+      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -1852,12 +1870,12 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5">
-        <v>37.95</v>
-      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="H51" s="5">
+        <v>25.2</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -1873,10 +1891,12 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
-        <v>84.16</v>
+        <v>425.0</v>
       </c>
       <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="H52" s="5">
+        <v>420.0</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -1893,7 +1913,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5">
-        <v>188.07</v>
+        <v>706.66</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -1909,13 +1929,11 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <v>290.45</v>
-      </c>
-      <c r="G54" s="5">
-        <v>1259.8</v>
-      </c>
+      <c r="E54" s="5">
+        <v>37.95</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -1932,7 +1950,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
-        <v>145.6</v>
+        <v>84.16</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -1944,17 +1962,15 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="5">
-        <v>573.75</v>
-      </c>
+      <c r="F56" s="5"/>
       <c r="G56" s="5">
-        <v>821.8</v>
+        <v>188.07</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -1965,17 +1981,19 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5">
-        <v>33.6</v>
-      </c>
+      <c r="F57" s="5">
+        <v>290.45</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1259.8</v>
+      </c>
+      <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -1984,7 +2002,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1993,7 +2011,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5">
-        <v>1694.42</v>
+        <v>184.12</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2010,7 +2028,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
-        <v>107.8</v>
+        <v>145.6</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -2022,15 +2040,17 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="5">
+        <v>573.75</v>
+      </c>
       <c r="G60" s="5">
-        <v>1400.0</v>
+        <v>821.8</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -2041,17 +2061,17 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="5">
-        <v>180.0</v>
-      </c>
+      <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="H61" s="5">
+        <v>33.6</v>
+      </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -2060,20 +2080,16 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="5">
-        <v>1278.0</v>
-      </c>
-      <c r="G62" s="5">
-        <v>940.0</v>
-      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="5">
-        <v>260.0</v>
+        <v>1694.42</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -2082,46 +2098,35 @@
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7">
-        <v>1189.78</v>
-      </c>
-      <c r="F63" s="7">
-        <v>5995.83</v>
-      </c>
-      <c r="G63" s="7">
-        <v>7538.59</v>
-      </c>
-      <c r="H63" s="7">
-        <v>5622.98</v>
-      </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="8">
-        <v>20347.18</v>
-      </c>
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
+        <v>107.8</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="5">
-        <v>629.3</v>
-      </c>
+      <c r="F64" s="5"/>
       <c r="G64" s="5">
-        <v>691.3</v>
+        <v>1400.0</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -2132,15 +2137,15 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5">
-        <v>139.25</v>
-      </c>
-      <c r="F65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
+        <v>180.0</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -2151,85 +2156,93 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5">
-        <v>1179.37</v>
-      </c>
+      <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <v>6963.41</v>
+        <v>1278.0</v>
       </c>
       <c r="G66" s="5">
-        <v>384.14</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+        <v>940.0</v>
+      </c>
+      <c r="H66" s="5">
+        <v>260.0</v>
+      </c>
+      <c r="I66" s="5">
+        <v>943.0</v>
+      </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" t="s">
+      <c r="A67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7">
+        <v>1189.78</v>
+      </c>
+      <c r="F67" s="7">
+        <v>5995.83</v>
+      </c>
+      <c r="G67" s="7">
+        <v>7538.59</v>
+      </c>
+      <c r="H67" s="7">
+        <v>6720.01</v>
+      </c>
+      <c r="I67" s="7">
+        <v>3131.63</v>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="8">
+        <v>24575.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7">
-        <v>1318.62</v>
-      </c>
-      <c r="F68" s="7">
-        <v>7592.71</v>
-      </c>
-      <c r="G68" s="7">
-        <v>1075.44</v>
-      </c>
-      <c r="H68" s="7">
-        <v>99.0</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="8">
-        <v>10085.77</v>
-      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <v>629.3</v>
+      </c>
+      <c r="G68" s="5">
+        <v>691.3</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5">
+        <v>664.3</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5">
-        <v>879.56</v>
-      </c>
+      <c r="E69" s="5">
+        <v>139.25</v>
+      </c>
+      <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -2239,239 +2252,237 @@
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="6" t="s">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5">
+        <v>1179.37</v>
+      </c>
+      <c r="F70" s="5">
+        <v>6963.41</v>
+      </c>
+      <c r="G70" s="5">
+        <v>384.14</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5">
+        <v>389.38</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5">
+        <v>99.0</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7">
+        <v>1318.62</v>
+      </c>
+      <c r="F72" s="7">
+        <v>7592.71</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1075.44</v>
+      </c>
+      <c r="H72" s="7">
+        <v>99.0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1053.68</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="8">
+        <v>11139.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
         <v>879.56</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="8">
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7">
         <v>879.56</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="9" t="s">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="8">
+        <v>879.56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10">
         <v>18872.96</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F75" s="10">
         <v>70971.84</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G75" s="10">
         <v>19958.54</v>
       </c>
-      <c r="H71" s="10">
-        <v>19820.22</v>
-      </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="11">
-        <v>129623.56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="2" t="s">
+      <c r="H75" s="10">
+        <v>22003.63</v>
+      </c>
+      <c r="I75" s="10">
+        <v>5352.21</v>
+      </c>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="11">
+        <v>137159.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="L78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="M78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
-      <c r="A75" t="s">
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5">
         <v>289.8</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F79" s="5">
         <v>302.38</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5">
-        <v>317.98</v>
-      </c>
-      <c r="F76" s="5">
-        <v>955.16</v>
-      </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5">
-        <v>226.02</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5">
-        <v>774.61</v>
-      </c>
-      <c r="F77" s="5">
-        <v>1381.88</v>
-      </c>
-      <c r="G77" s="5">
-        <v>1997.46</v>
-      </c>
-      <c r="H77" s="5">
-        <v>1330.76</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5">
-        <v>1363.38</v>
-      </c>
-      <c r="F78" s="5">
-        <v>5145.61</v>
-      </c>
-      <c r="G78" s="5">
-        <v>2671.54</v>
-      </c>
-      <c r="H78" s="5">
-        <v>1028.42</v>
-      </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7">
-        <v>2745.77</v>
-      </c>
-      <c r="F79" s="7">
-        <v>7232.27</v>
-      </c>
-      <c r="G79" s="7">
-        <v>4669.0</v>
-      </c>
-      <c r="H79" s="7">
-        <v>2358.13</v>
-      </c>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="8">
-        <v>23625.63</v>
-      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5">
-        <v>1062.0</v>
-      </c>
-      <c r="H80" s="5"/>
+      <c r="E80" s="5">
+        <v>317.98</v>
+      </c>
+      <c r="F80" s="5">
+        <v>955.16</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5">
+        <v>226.02</v>
+      </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -2479,44 +2490,49 @@
       <c r="M80" s="5"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7">
-        <v>1062.0</v>
-      </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="8">
-        <v>3715.48</v>
-      </c>
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5">
+        <v>774.61</v>
+      </c>
+      <c r="F81" s="5">
+        <v>1381.88</v>
+      </c>
+      <c r="G81" s="5">
+        <v>1997.46</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1607.12</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5">
-        <v>2258.77</v>
+        <v>1363.38</v>
       </c>
       <c r="F82" s="5">
-        <v>5503.38</v>
+        <v>5145.61</v>
       </c>
       <c r="G82" s="5">
-        <v>544.69</v>
-      </c>
-      <c r="H82" s="5"/>
+        <v>2671.54</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1028.42</v>
+      </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -2524,103 +2540,109 @@
       <c r="M82" s="5"/>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5">
-        <v>200.12</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
+      <c r="A83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7">
+        <v>2745.77</v>
+      </c>
+      <c r="F83" s="7">
+        <v>7232.27</v>
+      </c>
+      <c r="G83" s="7">
+        <v>4669.0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>2634.49</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="8">
+        <v>23625.63</v>
+      </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5">
+        <v>1062.0</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7">
+        <v>1062.0</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="8">
+        <v>3937.38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5">
         <v>2258.77</v>
       </c>
-      <c r="F84" s="7">
-        <v>5703.5</v>
-      </c>
-      <c r="G84" s="7">
+      <c r="F86" s="5">
+        <v>5503.38</v>
+      </c>
+      <c r="G86" s="5">
         <v>544.69</v>
       </c>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="8">
-        <v>1437.72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5">
-        <v>174.74</v>
-      </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7">
-        <v>174.74</v>
-      </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="8">
-        <v>7685.85</v>
-      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5">
-        <v>33.05</v>
-      </c>
+      <c r="F87" s="5">
+        <v>200.12</v>
+      </c>
+      <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -2629,79 +2651,84 @@
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5">
-        <v>159.6</v>
-      </c>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
+      <c r="A88" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7">
+        <v>2258.77</v>
+      </c>
+      <c r="F88" s="7">
+        <v>5703.5</v>
+      </c>
+      <c r="G88" s="7">
+        <v>544.69</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="8">
+        <v>1437.72</v>
+      </c>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7">
-        <v>192.65</v>
-      </c>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="8">
-        <v>20347.18</v>
-      </c>
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
+        <v>174.74</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5">
-        <v>299.7</v>
-      </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5">
-        <v>379.6</v>
-      </c>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
+      <c r="A90" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7">
+        <v>174.74</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="8">
+        <v>7685.85</v>
+      </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="5">
-        <v>354.9</v>
-      </c>
-      <c r="G91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
+        <v>33.05</v>
+      </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -2710,235 +2737,230 @@
       <c r="M91" s="5"/>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5">
+        <v>159.6</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7">
+        <v>192.65</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="8">
+        <v>24575.84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5">
         <v>299.7</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5">
+        <v>379.6</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5">
         <v>354.9</v>
       </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7">
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7">
+        <v>299.7</v>
+      </c>
+      <c r="F96" s="7">
+        <v>354.9</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7">
         <v>379.6</v>
       </c>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="8">
-        <v>10085.77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="9" t="s">
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="8">
+        <v>11139.45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10">
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10">
         <v>5304.24</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F97" s="10">
         <v>13290.67</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G97" s="10">
         <v>6643.08</v>
       </c>
-      <c r="H93" s="10">
-        <v>2737.73</v>
-      </c>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="11">
-        <v>27975.72</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="A95" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" s="2" t="s">
+      <c r="H97" s="10">
+        <v>3014.09</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="11">
+        <v>28252.08</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J100" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="L100" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="M100" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N96" t="s">
+      <c r="N100" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
-      <c r="A97" t="s">
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5">
         <v>251.56</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F101" s="5">
         <v>503.12</v>
       </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5">
+      <c r="G101" s="5"/>
+      <c r="H101" s="5">
         <v>993.97</v>
       </c>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-    </row>
-    <row r="98" spans="1:16">
-      <c r="A98" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5">
-        <v>664.14</v>
-      </c>
-      <c r="F98" s="5">
-        <v>129.26</v>
-      </c>
-      <c r="G98" s="5">
-        <v>552.72</v>
-      </c>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-    </row>
-    <row r="99" spans="1:16">
-      <c r="A99" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7">
-        <v>915.7</v>
-      </c>
-      <c r="F99" s="7">
-        <v>632.38</v>
-      </c>
-      <c r="G99" s="7">
-        <v>552.72</v>
-      </c>
-      <c r="H99" s="7">
-        <v>993.97</v>
-      </c>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="8">
-        <v>23625.63</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
-      <c r="A100" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5">
-        <v>225.24</v>
-      </c>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-    </row>
-    <row r="101" spans="1:16">
-      <c r="A101" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7">
-        <v>225.24</v>
-      </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="8">
-        <v>20347.18</v>
-      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
+      <c r="E102" s="5">
+        <v>664.14</v>
+      </c>
+      <c r="F102" s="5">
+        <v>129.26</v>
+      </c>
+      <c r="G102" s="5">
+        <v>552.72</v>
+      </c>
       <c r="H102" s="5">
-        <v>284.7</v>
+        <v>345.88</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -2948,16 +2970,22 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="6" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="E103" s="7">
+        <v>915.7</v>
+      </c>
+      <c r="F103" s="7">
+        <v>632.38</v>
+      </c>
+      <c r="G103" s="7">
+        <v>552.72</v>
+      </c>
       <c r="H103" s="7">
-        <v>284.7</v>
+        <v>1339.85</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -2965,183 +2993,181 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
       <c r="N103" s="8">
-        <v>10085.77</v>
+        <v>23625.63</v>
       </c>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="9" t="s">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5">
+        <v>225.24</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7">
+        <v>225.24</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="8">
+        <v>24575.84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5">
+        <v>284.7</v>
+      </c>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7">
+        <v>284.7</v>
+      </c>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="8">
+        <v>11139.45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10">
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10">
         <v>915.7</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F108" s="10">
         <v>632.38</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G108" s="10">
         <v>777.96</v>
       </c>
-      <c r="H104" s="10">
-        <v>1278.67</v>
-      </c>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="11">
-        <v>3604.71</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
-      <c r="A106" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
-      <c r="A107" s="2" t="s">
+      <c r="H108" s="10">
+        <v>1624.55</v>
+      </c>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="11">
+        <v>3950.59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E111" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G111" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="I111" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="J111" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K107" s="4" t="s">
+      <c r="K111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L107" s="4" t="s">
+      <c r="L111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M107" s="4" t="s">
+      <c r="M111" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N107" t="s">
+      <c r="N111" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
-      <c r="A108" t="s">
-        <v>85</v>
-      </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5">
-        <v>723.0</v>
-      </c>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-    </row>
-    <row r="109" spans="1:16">
-      <c r="A109" t="s">
-        <v>86</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5">
-        <v>2180.05</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5">
-        <v>9864.55</v>
-      </c>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-    </row>
-    <row r="110" spans="1:16">
-      <c r="A110" t="s">
-        <v>87</v>
-      </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5">
-        <v>4710.32</v>
-      </c>
-      <c r="F110" s="5">
-        <v>8266.89</v>
-      </c>
-      <c r="G110" s="5">
-        <v>5777.15</v>
-      </c>
-      <c r="H110" s="5">
-        <v>12252.71</v>
-      </c>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-    </row>
-    <row r="111" spans="1:16">
-      <c r="A111" t="s">
-        <v>88</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5">
-        <v>5500.0</v>
-      </c>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5">
-        <v>6854.13</v>
-      </c>
+      <c r="G112" s="5">
+        <v>723.0</v>
+      </c>
+      <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -3150,16 +3176,18 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
+      <c r="F113" s="5">
+        <v>2180.05</v>
+      </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5">
-        <v>5402.29</v>
+        <v>13977.7</v>
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
@@ -3169,17 +3197,23 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5">
+        <v>4710.32</v>
+      </c>
       <c r="F114" s="5">
-        <v>1052.92</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+        <v>8266.89</v>
+      </c>
+      <c r="G114" s="5">
+        <v>5777.15</v>
+      </c>
+      <c r="H114" s="5">
+        <v>12252.71</v>
+      </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -3187,44 +3221,37 @@
       <c r="M114" s="5"/>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7">
-        <v>4710.32</v>
-      </c>
-      <c r="F115" s="7">
-        <v>11499.86</v>
-      </c>
-      <c r="G115" s="7">
-        <v>6500.15</v>
-      </c>
-      <c r="H115" s="7">
-        <v>39873.68</v>
-      </c>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="8"/>
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5">
+        <v>5500.0</v>
+      </c>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5">
-        <v>2289.2</v>
-      </c>
+      <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
+      <c r="H116" s="5">
+        <v>6854.13</v>
+      </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -3232,299 +3259,306 @@
       <c r="M116" s="5"/>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="6" t="s">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5">
+        <v>1052.92</v>
+      </c>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5">
+        <v>5402.29</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7">
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7">
+        <v>4710.32</v>
+      </c>
+      <c r="F118" s="7">
+        <v>11499.86</v>
+      </c>
+      <c r="G118" s="7">
+        <v>6500.15</v>
+      </c>
+      <c r="H118" s="7">
+        <v>43986.83</v>
+      </c>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="8"/>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5">
         <v>2289.2</v>
       </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" t="s">
-        <v>95</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5">
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7">
+        <v>2289.2</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="8"/>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5">
         <v>755.0</v>
       </c>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-    </row>
-    <row r="119" spans="1:16">
-      <c r="A119" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7">
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7">
         <v>755.0</v>
       </c>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="8"/>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120" t="s">
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="8"/>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
         <v>500.0</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-    </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="6" t="s">
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7">
         <v>500.0</v>
       </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="8">
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="8">
         <v>23625.63</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
-      <c r="A122" t="s">
-        <v>46</v>
-      </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5">
+    <row r="125" spans="1:16">
+      <c r="A125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5">
         <v>95.96</v>
       </c>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7">
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7">
         <v>95.96</v>
       </c>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="8">
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="8">
         <v>7685.85</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="13" t="s">
+    <row r="127" spans="1:16">
+      <c r="A127" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14">
         <v>6999.52</v>
       </c>
-      <c r="F124" s="14">
+      <c r="F127" s="14">
         <v>11999.86</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G127" s="14">
         <v>6596.11</v>
       </c>
-      <c r="H124" s="14">
-        <v>40628.68</v>
-      </c>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
-      <c r="N124" s="11">
-        <v>66224.17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="2" t="s">
+      <c r="H127" s="14">
+        <v>44741.83</v>
+      </c>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="11">
+        <v>70337.32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D130" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E130" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F130" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G130" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I127" s="4" t="s">
+      <c r="I130" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J127" s="4" t="s">
+      <c r="J130" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="K130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L127" s="4" t="s">
+      <c r="L130" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M127" s="4" t="s">
+      <c r="M130" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N127" t="s">
+      <c r="N130" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" t="s">
-        <v>86</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5">
-        <v>3518.42</v>
-      </c>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-    </row>
-    <row r="129" spans="1:16">
-      <c r="A129" t="s">
-        <v>87</v>
-      </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5">
-        <v>1448.82</v>
-      </c>
-      <c r="F129" s="5">
-        <v>3814.76</v>
-      </c>
-      <c r="G129" s="5">
-        <v>3550.64</v>
-      </c>
-      <c r="H129" s="5">
-        <v>3108.38</v>
-      </c>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-    </row>
-    <row r="130" spans="1:16">
-      <c r="A130" t="s">
-        <v>88</v>
-      </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5">
-        <v>1650.0</v>
-      </c>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5">
-        <v>544.93</v>
-      </c>
-      <c r="H131" s="5"/>
+      <c r="E131" s="5">
+        <v>1448.82</v>
+      </c>
+      <c r="F131" s="5">
+        <v>3814.76</v>
+      </c>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5">
+        <v>6659.02</v>
+      </c>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
@@ -3533,7 +3567,7 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3542,7 +3576,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5">
-        <v>1568.72</v>
+        <v>1650.0</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -3552,7 +3586,7 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3560,7 +3594,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5">
-        <v>399.0</v>
+        <v>544.93</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -3570,162 +3604,160 @@
       <c r="M133" s="5"/>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7">
+      <c r="A134" t="s">
+        <v>93</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5">
+        <v>1568.72</v>
+      </c>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5">
+        <v>399.0</v>
+      </c>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7">
         <v>1448.82</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F136" s="7">
         <v>3814.76</v>
       </c>
-      <c r="G134" s="7">
-        <v>4494.57</v>
-      </c>
-      <c r="H134" s="7">
-        <v>9845.52</v>
-      </c>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="8"/>
-    </row>
-    <row r="135" spans="1:16">
-      <c r="A135" s="13" t="s">
+      <c r="G136" s="7">
+        <v>943.93</v>
+      </c>
+      <c r="H136" s="7">
+        <v>9877.74</v>
+      </c>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="8"/>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14">
         <v>1448.82</v>
       </c>
-      <c r="F135" s="14">
+      <c r="F137" s="14">
         <v>3814.76</v>
       </c>
-      <c r="G135" s="14">
-        <v>4494.57</v>
-      </c>
-      <c r="H135" s="14">
-        <v>9845.52</v>
-      </c>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="11">
-        <v>19603.67</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
-      <c r="A137" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
-      <c r="A138" s="2" t="s">
+      <c r="G137" s="14">
+        <v>943.93</v>
+      </c>
+      <c r="H137" s="14">
+        <v>9877.74</v>
+      </c>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="11">
+        <v>16085.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B140" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F140" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G140" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H138" s="4" t="s">
+      <c r="H140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I138" s="4" t="s">
+      <c r="I140" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J140" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K138" s="4" t="s">
+      <c r="K140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L138" s="4" t="s">
+      <c r="L140" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M138" s="4" t="s">
+      <c r="M140" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N138" t="s">
+      <c r="N140" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="A139" t="s">
-        <v>86</v>
-      </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5">
-        <v>711.31</v>
-      </c>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5">
-        <v>3630.76</v>
-      </c>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-    </row>
-    <row r="140" spans="1:16">
-      <c r="A140" t="s">
-        <v>87</v>
-      </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5">
-        <v>719.7</v>
-      </c>
-      <c r="H140" s="5">
-        <v>2006.62</v>
-      </c>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
+      <c r="F141" s="5">
+        <v>711.31</v>
+      </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5">
-        <v>1568.85</v>
+        <v>3630.76</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -3734,79 +3766,119 @@
       <c r="M141" s="5"/>
     </row>
     <row r="142" spans="1:16">
-      <c r="A142" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7">
+      <c r="A142" t="s">
+        <v>90</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5">
+        <v>719.7</v>
+      </c>
+      <c r="H142" s="5">
+        <v>2006.62</v>
+      </c>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" t="s">
+        <v>93</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5">
+        <v>1568.85</v>
+      </c>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7">
         <v>711.31</v>
       </c>
-      <c r="G142" s="7">
+      <c r="G144" s="7">
         <v>719.7</v>
       </c>
-      <c r="H142" s="7">
+      <c r="H144" s="7">
         <v>7206.23</v>
       </c>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="8"/>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" s="13" t="s">
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="8"/>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14">
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14">
         <v>711.31</v>
       </c>
-      <c r="G143" s="14">
+      <c r="G145" s="14">
         <v>719.7</v>
       </c>
-      <c r="H143" s="14">
+      <c r="H145" s="14">
         <v>7206.23</v>
       </c>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="11">
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="11">
         <v>8637.24</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
-      <c r="A146" t="s">
-        <v>100</v>
-      </c>
-      <c r="B146" s="5">
-        <v>162134.32</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
-      <c r="A147" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147" s="5">
-        <v>94465.08</v>
+    <row r="148" spans="1:16">
+      <c r="A148" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" s="5">
+        <v>170292.18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" t="s">
+        <v>103</v>
+      </c>
+      <c r="B149" s="5">
+        <v>95059.81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A73:N73"/>
-    <mergeCell ref="A95:N95"/>
-    <mergeCell ref="A106:N106"/>
-    <mergeCell ref="A126:N126"/>
-    <mergeCell ref="A137:N137"/>
+    <mergeCell ref="A77:N77"/>
+    <mergeCell ref="A99:N99"/>
+    <mergeCell ref="A110:N110"/>
+    <mergeCell ref="A129:N129"/>
+    <mergeCell ref="A139:N139"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3819,20 +3891,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AK47"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AK49" sqref="AK49"/>
+      <selection activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="65.984" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="55.272" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -3878,117 +3950,117 @@
     </row>
     <row r="3" spans="1:37">
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AA3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AB3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AD3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AG3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q4">
         <v>20.0</v>
@@ -3996,18 +4068,18 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N5">
         <v>20.0</v>
       </c>
       <c r="T5">
-        <v>78.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K6">
         <v>5.0</v>
@@ -4024,7 +4096,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T7">
         <v>100.0</v>
@@ -4032,7 +4104,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T8">
         <v>1.0</v>
@@ -4040,533 +4112,607 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="N9">
+        <v>6.0</v>
       </c>
       <c r="T9">
         <v>30.0</v>
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10">
-        <v>6.0</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
+        <v>54.0</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6">
+        <v>299.0</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13">
         <v>5.0</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6">
-        <v>54.0</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6">
-        <v>267.0</v>
-      </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="T14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16">
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13">
+        <v>57.0</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13">
+        <v>71.0</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13">
+        <v>300.0</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="B23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:37">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-    </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13">
-        <v>57.0</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13">
-        <v>71.0</v>
-      </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13">
-        <v>268.0</v>
-      </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-    </row>
-    <row r="22" spans="1:37">
-      <c r="A22" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
-      <c r="B24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK24" s="3" t="s">
-        <v>105</v>
+      <c r="N24">
+        <v>12.0</v>
+      </c>
+      <c r="T24">
+        <v>53.0</v>
       </c>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T25">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26">
-        <v>3.0</v>
-      </c>
-      <c r="N26">
-        <v>12.0</v>
+        <v>92</v>
       </c>
       <c r="Q26">
-        <v>38.0</v>
-      </c>
-      <c r="T26">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27" spans="1:37">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="T27">
-        <v>30.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Q28">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="T29">
-        <v>9.0</v>
-      </c>
+      <c r="A29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6">
+        <v>92.0</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q30">
-        <v>10.0</v>
-      </c>
+      <c r="A30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4577,24 +4723,16 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6">
-        <v>3.0</v>
-      </c>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6">
-        <v>12.0</v>
-      </c>
+      <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="6">
-        <v>50.0</v>
-      </c>
+      <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6">
-        <v>83.0</v>
-      </c>
+      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -4615,7 +4753,7 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="6" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4656,7 +4794,7 @@
     </row>
     <row r="33" spans="1:37">
       <c r="A33" s="6" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4696,325 +4834,331 @@
       <c r="AK33" s="6"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-    </row>
-    <row r="35" spans="1:37">
-      <c r="A35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
+      <c r="A34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13">
+        <v>92.0</v>
+      </c>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13">
-        <v>50.0</v>
-      </c>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13">
-        <v>83.0</v>
-      </c>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
+      <c r="A36" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI37" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:37">
-      <c r="A38" s="12" t="s">
+      <c r="B38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK38" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI39" s="4" t="s">
-        <v>13</v>
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="N39">
+        <v>6.0</v>
+      </c>
+      <c r="T39">
+        <v>35.0</v>
       </c>
     </row>
     <row r="40" spans="1:37">
-      <c r="B40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK40" s="3" t="s">
-        <v>105</v>
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q40">
+        <v>10.0</v>
+      </c>
+      <c r="T40">
+        <v>10.0</v>
       </c>
     </row>
     <row r="41" spans="1:37">
       <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="N41">
+        <v>93</v>
+      </c>
+      <c r="T41">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6">
         <v>6.0</v>
       </c>
-      <c r="T41">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q42">
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6">
         <v>10.0</v>
       </c>
-      <c r="T42">
-        <v>10.0</v>
-      </c>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
     </row>
     <row r="43" spans="1:37">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="T43">
-        <v>10.0</v>
-      </c>
+      <c r="A43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
     </row>
     <row r="44" spans="1:37">
       <c r="A44" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -5028,19 +5172,13 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="6">
-        <v>6.0</v>
-      </c>
+      <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="6">
-        <v>10.0</v>
-      </c>
+      <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="6">
-        <v>55.0</v>
-      </c>
+      <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -5061,7 +5199,7 @@
     </row>
     <row r="45" spans="1:37">
       <c r="A45" s="6" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -5102,7 +5240,7 @@
     </row>
     <row r="46" spans="1:37">
       <c r="A46" s="6" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -5142,133 +5280,51 @@
       <c r="AK46" s="6"/>
     </row>
     <row r="47" spans="1:37">
-      <c r="A47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6"/>
-    </row>
-    <row r="48" spans="1:37">
-      <c r="A48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
-    </row>
-    <row r="49" spans="1:37">
-      <c r="A49" s="13" t="s">
+      <c r="A47" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13">
         <v>6.0</v>
       </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13">
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13">
         <v>10.0</v>
       </c>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13">
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13">
         <v>55.0</v>
       </c>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5285,32 +5341,32 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="A22:AK22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="A38:AK38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="A21:AK21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="A36:AK36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="AF37:AH37"/>
+    <mergeCell ref="AI37:AK37"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compras/gerar_relatorio_fornecedores_2024.xlsx
+++ b/compras/gerar_relatorio_fornecedores_2024.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA PARQUE - 2024</t>
   </si>
@@ -78,6 +78,9 @@
     <t>Johnson &amp; Johnson Br Ind Com. Prod. Saude Ltda</t>
   </si>
   <si>
+    <t>Oftalcom Ind E Com Ltda</t>
+  </si>
+  <si>
     <t>Optolentes Lentes De Contato Ltda</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
     <t>Fenix Prod Cirurgicos</t>
   </si>
   <si>
+    <t>Gilmed Distribuidora Descartaveis</t>
+  </si>
+  <si>
     <t>Intertech Ind Prod Med Hosp Ltda Epp</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
     <t>TOTAL MEDICAMENTOS / MATERIAL HOSPITALAR:</t>
   </si>
   <si>
+    <t>Nova Limp Com De Embalagens</t>
+  </si>
+  <si>
     <t>Raami Comercio De Produtos De Limpeza Ltda</t>
   </si>
   <si>
@@ -283,6 +292,9 @@
   </si>
   <si>
     <t>Fullsteel Ltda</t>
+  </si>
+  <si>
+    <t>J.e Comercio De Oculos Ltda</t>
   </si>
   <si>
     <t>Kenerson Ind E Com De Prod Opticos Ltda</t>
@@ -757,10 +769,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P149"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B149" sqref="B149"/>
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -773,7 +785,7 @@
     <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.854" bestFit="true" customWidth="true" style="0"/>
@@ -868,7 +880,9 @@
         <v>1591.73</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>246.94</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -910,7 +924,9 @@
       <c r="H6" s="5">
         <v>300.28</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5">
+        <v>300.28</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -933,7 +949,7 @@
         <v>2160.32</v>
       </c>
       <c r="H7" s="5">
-        <v>1651.42</v>
+        <v>1819.56</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -948,15 +964,13 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>120.0</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>180.0</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>135.0</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -970,16 +984,12 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <v>1891.35</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2875.7</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2302.02</v>
-      </c>
+        <v>120.0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5">
-        <v>1812.35</v>
+        <v>336.0</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -988,55 +998,61 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>1891.35</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2875.7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2302.02</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2199.58</v>
+      </c>
+      <c r="I10" s="5">
+        <v>811.8</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>5444.16</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>6478.29</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>6746.59</v>
       </c>
-      <c r="H10" s="7">
-        <v>4956.59</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8">
-        <v>23625.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <v>520.0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1820.0</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <v>5200.0</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="H11" s="7">
+        <v>5667.96</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1494.02</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8">
+        <v>25831.02</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -1046,12 +1062,14 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
-        <v>1344.0</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>520.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1820.0</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5">
-        <v>1088.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1067,13 +1085,13 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
-        <v>2546.0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>5220.0</v>
-      </c>
+        <v>1344.0</v>
+      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>1088.0</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1088,10 +1106,10 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
-        <v>752.79</v>
+        <v>2546.0</v>
       </c>
       <c r="F14" s="5">
-        <v>1505.58</v>
+        <v>5220.0</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1109,73 +1127,75 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
-        <v>4200.0</v>
+        <v>752.79</v>
       </c>
       <c r="F15" s="5">
-        <v>36800.0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>850.0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1086.38</v>
-      </c>
-      <c r="I15" s="5">
-        <v>945.0</v>
-      </c>
+        <v>1505.58</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>4200.0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>36800.0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>850.0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1086.38</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2945.0</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>9362.79</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>45345.58</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="7">
         <v>850.0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H17" s="7">
         <v>7374.38</v>
       </c>
-      <c r="I16" s="7">
-        <v>945.0</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8">
-        <v>63877.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>200.0</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="I17" s="7">
+        <v>2945.0</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8">
+        <v>65877.75</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
@@ -1184,10 +1204,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>135.79</v>
-      </c>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>200.0</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1203,12 +1223,12 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>135.79</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <v>419.69</v>
-      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1223,11 +1243,11 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5">
-        <v>26.9</v>
-      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <v>419.69</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1243,7 +1263,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5">
-        <v>49.1</v>
+        <v>26.9</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1260,18 +1280,12 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>498.0</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <v>704.0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1532.0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>150.0</v>
-      </c>
+        <v>49.1</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1285,66 +1299,72 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5">
-        <v>221.9</v>
-      </c>
+      <c r="E23" s="5">
+        <v>498.0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>704.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1532.0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>150.0</v>
+      </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>221.9</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>633.79</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>980.0</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>1532.0</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="7">
         <v>569.69</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="7">
         <v>221.9</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="8">
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8">
         <v>3937.38</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5">
-        <v>219.99</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
@@ -1353,12 +1373,12 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>219.99</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <v>155.0</v>
-      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1376,7 +1396,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5">
-        <v>28.9</v>
+        <v>155.0</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -1392,11 +1412,11 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <v>614.0</v>
-      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5">
+        <v>28.9</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1410,10 +1430,10 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <v>419.83</v>
-      </c>
-      <c r="F29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>614.0</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1423,49 +1443,49 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
+        <v>419.83</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7">
         <v>639.82</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>614.0</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
         <v>183.9</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="8">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8">
         <v>1437.72</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
@@ -1476,7 +1496,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
-        <v>1020.0</v>
+        <v>30.0</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1495,14 +1515,10 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
-        <v>1664.47</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1512.12</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1346.07</v>
-      </c>
+        <v>1020.0</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1516,12 +1532,16 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5">
-        <v>68.3</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <v>1664.47</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1512.12</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1346.07</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1535,14 +1555,12 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5">
+        <v>68.3</v>
+      </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5">
-        <v>143.8</v>
-      </c>
-      <c r="H35" s="5">
-        <v>224.01</v>
-      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -1559,9 +1577,11 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
-        <v>560.0</v>
-      </c>
-      <c r="H36" s="5"/>
+        <v>143.8</v>
+      </c>
+      <c r="H36" s="5">
+        <v>224.01</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -1577,10 +1597,10 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5">
-        <v>529.98</v>
-      </c>
+      <c r="G37" s="5">
+        <v>560.0</v>
+      </c>
+      <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -1594,14 +1614,12 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <v>115.7</v>
-      </c>
-      <c r="F38" s="5">
-        <v>231.4</v>
-      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="5">
+        <v>529.98</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -1610,16 +1628,16 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5">
-        <v>100.0</v>
+        <v>115.7</v>
       </c>
       <c r="F39" s="5">
-        <v>140.0</v>
+        <v>231.4</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1630,51 +1648,53 @@
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>140.0</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7">
         <v>284.0</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>3085.87</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="7">
         <v>2215.92</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H41" s="7">
         <v>2100.06</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="8">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8">
         <v>7685.85</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5">
-        <v>2600.0</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
@@ -1683,12 +1703,12 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5">
-        <v>52.63</v>
-      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5">
+        <v>2600.0</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -1697,23 +1717,17 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5">
-        <v>1099.2</v>
-      </c>
-      <c r="F43" s="5">
-        <v>579.6</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1306.26</v>
-      </c>
-      <c r="H43" s="5">
-        <v>287.76</v>
-      </c>
+        <v>52.63</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -1722,22 +1736,24 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5">
+        <v>1099.2</v>
+      </c>
       <c r="F44" s="5">
-        <v>507.32</v>
-      </c>
-      <c r="G44" s="5"/>
+        <v>579.6</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1306.26</v>
+      </c>
       <c r="H44" s="5">
-        <v>912.91</v>
-      </c>
-      <c r="I44" s="5">
-        <v>567.68</v>
-      </c>
+        <v>287.76</v>
+      </c>
+      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -1752,11 +1768,15 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
-        <v>207.71</v>
+        <v>507.32</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="H45" s="5">
+        <v>912.91</v>
+      </c>
+      <c r="I45" s="5">
+        <v>567.68</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -1771,17 +1791,11 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
-        <v>347.44</v>
-      </c>
-      <c r="G46" s="5">
-        <v>916.0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>302.0</v>
-      </c>
-      <c r="I46" s="5">
-        <v>604.0</v>
-      </c>
+        <v>207.71</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -1795,11 +1809,17 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="F47" s="5">
+        <v>347.44</v>
+      </c>
+      <c r="G47" s="5">
+        <v>916.0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>302.0</v>
+      </c>
       <c r="I47" s="5">
-        <v>661.65</v>
+        <v>604.0</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -1818,7 +1838,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5">
-        <v>355.3</v>
+        <v>661.65</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -1833,12 +1853,12 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="5">
-        <v>846.0</v>
-      </c>
+      <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="I49" s="5">
+        <v>355.3</v>
+      </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -1853,7 +1873,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5">
-        <v>423.0</v>
+        <v>846.0</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -1871,11 +1891,11 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5">
+        <v>423.0</v>
+      </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="5">
-        <v>25.2</v>
-      </c>
+      <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -1890,12 +1910,10 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="5">
-        <v>425.0</v>
-      </c>
+      <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>420.0</v>
+        <v>25.2</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -1912,11 +1930,11 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5">
-        <v>706.66</v>
-      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5">
+        <v>1512.5</v>
+      </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -1929,12 +1947,14 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5">
-        <v>37.95</v>
-      </c>
-      <c r="F54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
+        <v>425.0</v>
+      </c>
       <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="H54" s="5">
+        <v>420.0</v>
+      </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -1949,10 +1969,10 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="5">
-        <v>84.16</v>
-      </c>
-      <c r="G55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5">
+        <v>706.66</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -1967,11 +1987,11 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5">
+        <v>37.95</v>
+      </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="5">
-        <v>188.07</v>
-      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -1988,11 +2008,9 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5">
-        <v>290.45</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1259.8</v>
-      </c>
+        <v>84.16</v>
+      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -2002,17 +2020,17 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5">
-        <v>184.12</v>
-      </c>
+      <c r="G58" s="5">
+        <v>188.07</v>
+      </c>
+      <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -2021,18 +2039,22 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
-        <v>145.6</v>
-      </c>
-      <c r="G59" s="5"/>
+        <v>290.45</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1259.8</v>
+      </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5">
+        <v>3014.37</v>
+      </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -2040,19 +2062,17 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="5">
-        <v>573.75</v>
-      </c>
-      <c r="G60" s="5">
-        <v>821.8</v>
-      </c>
-      <c r="H60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5">
+        <v>184.12</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2061,17 +2081,17 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="5">
+        <v>145.6</v>
+      </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="5">
-        <v>33.6</v>
-      </c>
+      <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -2080,17 +2100,19 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5">
-        <v>1694.42</v>
-      </c>
+      <c r="F62" s="5">
+        <v>573.75</v>
+      </c>
+      <c r="G62" s="5">
+        <v>821.8</v>
+      </c>
+      <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -2105,11 +2127,11 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="5">
-        <v>107.8</v>
-      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="H63" s="5">
+        <v>33.6</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -2125,10 +2147,10 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="5">
-        <v>1400.0</v>
-      </c>
-      <c r="H64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5">
+        <v>1694.42</v>
+      </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -2144,7 +2166,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5">
-        <v>180.0</v>
+        <v>107.8</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2162,17 +2184,13 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="5">
-        <v>1278.0</v>
-      </c>
+      <c r="F66" s="5"/>
       <c r="G66" s="5">
-        <v>940.0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>260.0</v>
-      </c>
+        <v>1400.0</v>
+      </c>
+      <c r="H66" s="5"/>
       <c r="I66" s="5">
-        <v>943.0</v>
+        <v>1400.0</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -2180,34 +2198,23 @@
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="6" t="s">
+      <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7">
-        <v>1189.78</v>
-      </c>
-      <c r="F67" s="7">
-        <v>5995.83</v>
-      </c>
-      <c r="G67" s="7">
-        <v>7538.59</v>
-      </c>
-      <c r="H67" s="7">
-        <v>6720.01</v>
-      </c>
-      <c r="I67" s="7">
-        <v>3131.63</v>
-      </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="8">
-        <v>24575.84</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <v>180.0</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
@@ -2218,14 +2225,16 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5">
-        <v>629.3</v>
+        <v>1278.0</v>
       </c>
       <c r="G68" s="5">
-        <v>691.3</v>
-      </c>
-      <c r="H68" s="5"/>
+        <v>940.0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>260.0</v>
+      </c>
       <c r="I68" s="5">
-        <v>664.3</v>
+        <v>943.0</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -2233,23 +2242,34 @@
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" t="s">
+      <c r="A69" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5">
-        <v>139.25</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7">
+        <v>1189.78</v>
+      </c>
+      <c r="F69" s="7">
+        <v>5995.83</v>
+      </c>
+      <c r="G69" s="7">
+        <v>7538.59</v>
+      </c>
+      <c r="H69" s="7">
+        <v>6720.01</v>
+      </c>
+      <c r="I69" s="7">
+        <v>9058.5</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="8">
+        <v>30502.71</v>
+      </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
@@ -2258,18 +2278,12 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="5">
-        <v>1179.37</v>
-      </c>
-      <c r="F70" s="5">
-        <v>6963.41</v>
-      </c>
-      <c r="G70" s="5">
-        <v>384.14</v>
-      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5">
-        <v>389.38</v>
+        <v>240.75</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -2284,46 +2298,39 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="I71" s="5"/>
+      <c r="F71" s="5">
+        <v>629.3</v>
+      </c>
+      <c r="G71" s="5">
+        <v>691.3</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5">
+        <v>664.3</v>
+      </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="6" t="s">
+      <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7">
-        <v>1318.62</v>
-      </c>
-      <c r="F72" s="7">
-        <v>7592.71</v>
-      </c>
-      <c r="G72" s="7">
-        <v>1075.44</v>
-      </c>
-      <c r="H72" s="7">
-        <v>99.0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>1053.68</v>
-      </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="8">
-        <v>11139.45</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5">
+        <v>139.25</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
@@ -2332,207 +2339,208 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5">
+        <v>1179.37</v>
+      </c>
       <c r="F73" s="5">
-        <v>879.56</v>
-      </c>
-      <c r="G73" s="5"/>
+        <v>6963.41</v>
+      </c>
+      <c r="G73" s="5">
+        <v>384.14</v>
+      </c>
       <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5">
+        <v>389.38</v>
+      </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="6" t="s">
+      <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5">
+        <v>99.0</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7">
+        <v>1318.62</v>
+      </c>
+      <c r="F75" s="7">
+        <v>7592.71</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1075.44</v>
+      </c>
+      <c r="H75" s="7">
+        <v>99.0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>1294.43</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="8">
+        <v>11380.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
         <v>879.56</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="8">
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7">
         <v>879.56</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" s="9" t="s">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="8">
+        <v>879.56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10">
         <v>18872.96</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F78" s="10">
         <v>70971.84</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G78" s="10">
         <v>19958.54</v>
       </c>
-      <c r="H75" s="10">
-        <v>22003.63</v>
-      </c>
-      <c r="I75" s="10">
-        <v>5352.21</v>
-      </c>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="11">
-        <v>137159.18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="2" t="s">
+      <c r="H78" s="10">
+        <v>22715.0</v>
+      </c>
+      <c r="I78" s="10">
+        <v>15013.85</v>
+      </c>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="11">
+        <v>147532.19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N81" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5">
-        <v>289.8</v>
-      </c>
-      <c r="F79" s="5">
-        <v>302.38</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5">
-        <v>317.98</v>
-      </c>
-      <c r="F80" s="5">
-        <v>955.16</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5">
-        <v>226.02</v>
-      </c>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5">
-        <v>774.61</v>
-      </c>
-      <c r="F81" s="5">
-        <v>1381.88</v>
-      </c>
-      <c r="G81" s="5">
-        <v>1997.46</v>
-      </c>
-      <c r="H81" s="5">
-        <v>1607.12</v>
-      </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5">
-        <v>1363.38</v>
+        <v>289.8</v>
       </c>
       <c r="F82" s="5">
-        <v>5145.61</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2671.54</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1028.42</v>
-      </c>
+        <v>302.38</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -2540,46 +2548,49 @@
       <c r="M82" s="5"/>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7">
-        <v>2745.77</v>
-      </c>
-      <c r="F83" s="7">
-        <v>7232.27</v>
-      </c>
-      <c r="G83" s="7">
-        <v>4669.0</v>
-      </c>
-      <c r="H83" s="7">
-        <v>2634.49</v>
-      </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="8">
-        <v>23625.63</v>
-      </c>
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5">
+        <v>317.98</v>
+      </c>
+      <c r="F83" s="5">
+        <v>955.16</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5">
+        <v>446.26</v>
+      </c>
+      <c r="I83" s="5">
+        <v>220.24</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="E84" s="5">
+        <v>774.61</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1381.88</v>
+      </c>
       <c r="G84" s="5">
-        <v>1062.0</v>
-      </c>
-      <c r="H84" s="5"/>
+        <v>1997.46</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1607.12</v>
+      </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -2587,62 +2598,72 @@
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7">
-        <v>1062.0</v>
-      </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="8">
-        <v>3937.38</v>
-      </c>
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5">
+        <v>1363.38</v>
+      </c>
+      <c r="F85" s="5">
+        <v>5145.61</v>
+      </c>
+      <c r="G85" s="5">
+        <v>2671.54</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1645.16</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5">
-        <v>2258.77</v>
-      </c>
-      <c r="F86" s="5">
-        <v>5503.38</v>
-      </c>
-      <c r="G86" s="5">
-        <v>544.69</v>
-      </c>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="A86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7">
+        <v>2745.77</v>
+      </c>
+      <c r="F86" s="7">
+        <v>7232.27</v>
+      </c>
+      <c r="G86" s="7">
+        <v>4669.0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>3471.47</v>
+      </c>
+      <c r="I86" s="7">
+        <v>220.24</v>
+      </c>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="8">
+        <v>25831.02</v>
+      </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="5">
-        <v>200.12</v>
-      </c>
-      <c r="G87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
+        <v>1062.0</v>
+      </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -2652,19 +2673,15 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="7">
-        <v>2258.77</v>
-      </c>
-      <c r="F88" s="7">
-        <v>5703.5</v>
-      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
       <c r="G88" s="7">
-        <v>544.69</v>
+        <v>1062.0</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -2673,20 +2690,24 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="8">
-        <v>1437.72</v>
+        <v>3937.38</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="E89" s="5">
+        <v>2258.77</v>
+      </c>
+      <c r="F89" s="5">
+        <v>5503.38</v>
+      </c>
       <c r="G89" s="5">
-        <v>174.74</v>
+        <v>544.69</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -2696,49 +2717,53 @@
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7">
-        <v>174.74</v>
-      </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="8">
-        <v>7685.85</v>
-      </c>
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5">
+        <v>200.12</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5">
-        <v>33.05</v>
-      </c>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
+      <c r="A91" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7">
+        <v>2258.77</v>
+      </c>
+      <c r="F91" s="7">
+        <v>5703.5</v>
+      </c>
+      <c r="G91" s="7">
+        <v>544.69</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="8">
+        <v>1437.72</v>
+      </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2746,7 +2771,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5">
-        <v>159.6</v>
+        <v>174.74</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -2757,7 +2782,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="6" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -2765,7 +2790,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7">
-        <v>192.65</v>
+        <v>174.74</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -2774,24 +2799,22 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="8">
-        <v>24575.84</v>
+        <v>7685.85</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5">
-        <v>299.7</v>
-      </c>
+      <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5">
-        <v>379.6</v>
-      </c>
+      <c r="G94" s="5">
+        <v>33.05</v>
+      </c>
+      <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -2800,16 +2823,16 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="5">
-        <v>354.9</v>
-      </c>
-      <c r="G95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5">
+        <v>159.6</v>
+      </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -2819,196 +2842,192 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="7">
-        <v>299.7</v>
-      </c>
-      <c r="F96" s="7">
-        <v>354.9</v>
-      </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7">
-        <v>379.6</v>
-      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7">
+        <v>192.65</v>
+      </c>
+      <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="8">
-        <v>11139.45</v>
+        <v>30502.71</v>
       </c>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="9" t="s">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5">
+        <v>299.7</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5">
+        <v>379.6</v>
+      </c>
+      <c r="I97" s="5">
+        <v>379.6</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <v>354.9</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7">
+        <v>299.7</v>
+      </c>
+      <c r="F99" s="7">
+        <v>354.9</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7">
+        <v>379.6</v>
+      </c>
+      <c r="I99" s="7">
+        <v>379.6</v>
+      </c>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="8">
+        <v>11380.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10">
         <v>5304.24</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F100" s="10">
         <v>13290.67</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G100" s="10">
         <v>6643.08</v>
       </c>
-      <c r="H97" s="10">
-        <v>3014.09</v>
-      </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="11">
-        <v>28252.08</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
-      <c r="A99" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
-      <c r="A100" s="2" t="s">
+      <c r="H100" s="10">
+        <v>3851.07</v>
+      </c>
+      <c r="I100" s="10">
+        <v>599.84</v>
+      </c>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="11">
+        <v>29688.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I103" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J103" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L100" s="4" t="s">
+      <c r="L103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M100" s="4" t="s">
+      <c r="M103" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N100" t="s">
+      <c r="N103" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
-      <c r="A101" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5">
-        <v>251.56</v>
-      </c>
-      <c r="F101" s="5">
-        <v>503.12</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5">
-        <v>993.97</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-    </row>
-    <row r="102" spans="1:16">
-      <c r="A102" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5">
-        <v>664.14</v>
-      </c>
-      <c r="F102" s="5">
-        <v>129.26</v>
-      </c>
-      <c r="G102" s="5">
-        <v>552.72</v>
-      </c>
-      <c r="H102" s="5">
-        <v>345.88</v>
-      </c>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="A103" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7">
-        <v>915.7</v>
-      </c>
-      <c r="F103" s="7">
-        <v>632.38</v>
-      </c>
-      <c r="G103" s="7">
-        <v>552.72</v>
-      </c>
-      <c r="H103" s="7">
-        <v>1339.85</v>
-      </c>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="8">
-        <v>23625.63</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5">
-        <v>225.24</v>
-      </c>
-      <c r="H104" s="5"/>
+      <c r="E104" s="5">
+        <v>251.56</v>
+      </c>
+      <c r="F104" s="5">
+        <v>503.12</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5">
+        <v>993.97</v>
+      </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -3016,209 +3035,216 @@
       <c r="M104" s="5"/>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5">
+        <v>664.14</v>
+      </c>
+      <c r="F105" s="5">
+        <v>129.26</v>
+      </c>
+      <c r="G105" s="5">
+        <v>552.72</v>
+      </c>
+      <c r="H105" s="5">
+        <v>345.88</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
+        <v>915.7</v>
+      </c>
+      <c r="F106" s="7">
+        <v>632.38</v>
+      </c>
+      <c r="G106" s="7">
+        <v>552.72</v>
+      </c>
+      <c r="H106" s="7">
+        <v>1339.85</v>
+      </c>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="8">
+        <v>25831.02</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5">
         <v>225.24</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="8">
-        <v>24575.84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
-      <c r="A106" t="s">
-        <v>76</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5">
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7">
+        <v>225.24</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="8">
+        <v>30502.71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5">
         <v>284.7</v>
       </c>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-    </row>
-    <row r="107" spans="1:16">
-      <c r="A107" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7">
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7">
         <v>284.7</v>
       </c>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="8">
-        <v>11139.45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
-      <c r="A108" s="9" t="s">
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="8">
+        <v>11380.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10">
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10">
         <v>915.7</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F111" s="10">
         <v>632.38</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G111" s="10">
         <v>777.96</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H111" s="10">
         <v>1624.55</v>
       </c>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="11">
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="11">
         <v>3950.59</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
-      <c r="A110" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
-      <c r="A111" s="2" t="s">
+    <row r="113" spans="1:16">
+      <c r="A113" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="H114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I114" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="J114" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K111" s="4" t="s">
+      <c r="K114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L111" s="4" t="s">
+      <c r="L114" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M111" s="4" t="s">
+      <c r="M114" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N111" t="s">
+      <c r="N114" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:16">
-      <c r="A112" t="s">
-        <v>88</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5">
-        <v>723.0</v>
-      </c>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-    </row>
-    <row r="113" spans="1:16">
-      <c r="A113" t="s">
-        <v>89</v>
-      </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
-        <v>2180.05</v>
-      </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5">
-        <v>13977.7</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-    </row>
-    <row r="114" spans="1:16">
-      <c r="A114" t="s">
-        <v>90</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5">
-        <v>4710.32</v>
-      </c>
-      <c r="F114" s="5">
-        <v>8266.89</v>
-      </c>
-      <c r="G114" s="5">
-        <v>5777.15</v>
-      </c>
-      <c r="H114" s="5">
-        <v>12252.71</v>
-      </c>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
@@ -3229,10 +3255,10 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5">
-        <v>5500.0</v>
-      </c>
+      <c r="G115" s="5">
+        <v>723.0</v>
+      </c>
+      <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
@@ -3249,10 +3275,10 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="5">
-        <v>6854.13</v>
-      </c>
-      <c r="I116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5">
+        <v>1090.0</v>
+      </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -3267,11 +3293,11 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5">
-        <v>1052.92</v>
+        <v>2180.05</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5">
-        <v>5402.29</v>
+        <v>13977.7</v>
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
@@ -3280,30 +3306,31 @@
       <c r="M117" s="5"/>
     </row>
     <row r="118" spans="1:16">
-      <c r="A118" s="6" t="s">
+      <c r="A118" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5">
         <v>4710.32</v>
       </c>
-      <c r="F118" s="7">
-        <v>11499.86</v>
-      </c>
-      <c r="G118" s="7">
-        <v>6500.15</v>
-      </c>
-      <c r="H118" s="7">
-        <v>43986.83</v>
-      </c>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="8"/>
+      <c r="F118" s="5">
+        <v>8266.89</v>
+      </c>
+      <c r="G118" s="5">
+        <v>5777.15</v>
+      </c>
+      <c r="H118" s="5">
+        <v>12252.71</v>
+      </c>
+      <c r="I118" s="5">
+        <v>773.47</v>
+      </c>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
@@ -3312,12 +3339,12 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
-      <c r="E119" s="5">
-        <v>2289.2</v>
-      </c>
+      <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="H119" s="5">
+        <v>5500.0</v>
+      </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -3325,24 +3352,23 @@
       <c r="M119" s="5"/>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="6" t="s">
+      <c r="A120" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7">
-        <v>2289.2</v>
-      </c>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="8"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5">
+        <v>6854.13</v>
+      </c>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
@@ -3352,10 +3378,12 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
+      <c r="F121" s="5">
+        <v>1052.92</v>
+      </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5">
-        <v>755.0</v>
+        <v>5402.29</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
@@ -3370,13 +3398,21 @@
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
+      <c r="E122" s="7">
+        <v>4710.32</v>
+      </c>
+      <c r="F122" s="7">
+        <v>11499.86</v>
+      </c>
+      <c r="G122" s="7">
+        <v>6500.15</v>
+      </c>
       <c r="H122" s="7">
-        <v>755.0</v>
-      </c>
-      <c r="I122" s="7"/>
+        <v>43986.83</v>
+      </c>
+      <c r="I122" s="7">
+        <v>1863.47</v>
+      </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
@@ -3385,15 +3421,15 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5">
-        <v>500.0</v>
-      </c>
+      <c r="E123" s="5">
+        <v>2289.2</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -3404,15 +3440,15 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="6" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7">
-        <v>500.0</v>
-      </c>
+      <c r="E124" s="7">
+        <v>2289.2</v>
+      </c>
+      <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
@@ -3420,23 +3456,21 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
-      <c r="N124" s="8">
-        <v>23625.63</v>
-      </c>
+      <c r="N124" s="8"/>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="5">
-        <v>95.96</v>
-      </c>
-      <c r="H125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5">
+        <v>755.0</v>
+      </c>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -3445,440 +3479,570 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="6" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="7">
-        <v>95.96</v>
-      </c>
-      <c r="H126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7">
+        <v>755.0</v>
+      </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
-      <c r="N126" s="8">
+      <c r="N126" s="8"/>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="8">
+        <v>25831.02</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5">
+        <v>95.96</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7">
+        <v>95.96</v>
+      </c>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="8">
         <v>7685.85</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="13" t="s">
+    <row r="131" spans="1:16">
+      <c r="A131" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14">
         <v>6999.52</v>
       </c>
-      <c r="F127" s="14">
+      <c r="F131" s="14">
         <v>11999.86</v>
       </c>
-      <c r="G127" s="14">
+      <c r="G131" s="14">
         <v>6596.11</v>
       </c>
-      <c r="H127" s="14">
+      <c r="H131" s="14">
         <v>44741.83</v>
       </c>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
-      <c r="L127" s="14"/>
-      <c r="M127" s="14"/>
-      <c r="N127" s="11">
-        <v>70337.32</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
-      <c r="A129" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
-      <c r="A130" s="2" t="s">
+      <c r="I131" s="14">
+        <v>1863.47</v>
+      </c>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="11">
+        <v>72200.79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B134" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D134" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E134" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F134" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G134" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H134" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I130" s="4" t="s">
+      <c r="I134" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="J134" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="K134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L130" s="4" t="s">
+      <c r="L134" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M130" s="4" t="s">
+      <c r="M134" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N130" t="s">
+      <c r="N134" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
-      <c r="A131" t="s">
-        <v>90</v>
-      </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5">
-        <v>1448.82</v>
-      </c>
-      <c r="F131" s="5">
-        <v>3814.76</v>
-      </c>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5">
-        <v>6659.02</v>
-      </c>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-    </row>
-    <row r="132" spans="1:16">
-      <c r="A132" t="s">
-        <v>91</v>
-      </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5">
-        <v>1650.0</v>
-      </c>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-    </row>
-    <row r="133" spans="1:16">
-      <c r="A133" t="s">
-        <v>92</v>
-      </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5">
-        <v>544.93</v>
-      </c>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-    </row>
-    <row r="134" spans="1:16">
-      <c r="A134" t="s">
-        <v>93</v>
-      </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5">
-        <v>1568.72</v>
-      </c>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="5">
-        <v>399.0</v>
-      </c>
+      <c r="G135" s="5"/>
       <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
+      <c r="I135" s="5">
+        <v>1040.0</v>
+      </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
     </row>
     <row r="136" spans="1:16">
-      <c r="A136" s="6" t="s">
+      <c r="A136" t="s">
         <v>94</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5">
         <v>1448.82</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="5">
         <v>3814.76</v>
       </c>
-      <c r="G136" s="7">
+      <c r="G136" s="5"/>
+      <c r="H136" s="5">
+        <v>6659.02</v>
+      </c>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" t="s">
+        <v>95</v>
+      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5">
+        <v>1650.0</v>
+      </c>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5">
+        <v>544.93</v>
+      </c>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5">
+        <v>3769.01</v>
+      </c>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" t="s">
+        <v>97</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5">
+        <v>1568.72</v>
+      </c>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" t="s">
+        <v>104</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5">
+        <v>399.0</v>
+      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7">
+        <v>1448.82</v>
+      </c>
+      <c r="F141" s="7">
+        <v>3814.76</v>
+      </c>
+      <c r="G141" s="7">
         <v>943.93</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H141" s="7">
         <v>9877.74</v>
       </c>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="1:16">
-      <c r="A137" s="13" t="s">
+      <c r="I141" s="7">
+        <v>4809.01</v>
+      </c>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="8"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14">
         <v>1448.82</v>
       </c>
-      <c r="F137" s="14">
+      <c r="F142" s="14">
         <v>3814.76</v>
       </c>
-      <c r="G137" s="14">
+      <c r="G142" s="14">
         <v>943.93</v>
       </c>
-      <c r="H137" s="14">
+      <c r="H142" s="14">
         <v>9877.74</v>
       </c>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="11">
-        <v>16085.25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="A139" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
-      <c r="A140" s="2" t="s">
+      <c r="I142" s="14">
+        <v>4809.01</v>
+      </c>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="11">
+        <v>20894.26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E145" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F145" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G145" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H140" s="4" t="s">
+      <c r="H145" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I140" s="4" t="s">
+      <c r="I145" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J145" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L140" s="4" t="s">
+      <c r="L145" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M140" s="4" t="s">
+      <c r="M145" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N140" t="s">
+      <c r="N145" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
-      <c r="A141" t="s">
-        <v>89</v>
-      </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5">
+    <row r="146" spans="1:16">
+      <c r="A146" t="s">
+        <v>92</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5">
+        <v>710.0</v>
+      </c>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" t="s">
+        <v>93</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5">
         <v>711.31</v>
       </c>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5">
+      <c r="G147" s="5"/>
+      <c r="H147" s="5">
         <v>3630.76</v>
       </c>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-    </row>
-    <row r="142" spans="1:16">
-      <c r="A142" t="s">
-        <v>90</v>
-      </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5">
-        <v>719.7</v>
-      </c>
-      <c r="H142" s="5">
-        <v>2006.62</v>
-      </c>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" t="s">
-        <v>93</v>
-      </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5">
-        <v>1568.85</v>
-      </c>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-    </row>
-    <row r="144" spans="1:16">
-      <c r="A144" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7">
-        <v>711.31</v>
-      </c>
-      <c r="G144" s="7">
-        <v>719.7</v>
-      </c>
-      <c r="H144" s="7">
-        <v>7206.23</v>
-      </c>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
-      <c r="N144" s="8"/>
-    </row>
-    <row r="145" spans="1:16">
-      <c r="A145" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14">
-        <v>711.31</v>
-      </c>
-      <c r="G145" s="14">
-        <v>719.7</v>
-      </c>
-      <c r="H145" s="14">
-        <v>7206.23</v>
-      </c>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-      <c r="K145" s="14"/>
-      <c r="L145" s="14"/>
-      <c r="M145" s="14"/>
-      <c r="N145" s="11">
-        <v>8637.24</v>
-      </c>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" t="s">
-        <v>102</v>
-      </c>
-      <c r="B148" s="5">
-        <v>170292.18</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5">
+        <v>719.7</v>
+      </c>
+      <c r="H148" s="5">
+        <v>2006.62</v>
+      </c>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" t="s">
-        <v>103</v>
-      </c>
-      <c r="B149" s="5">
-        <v>95059.81</v>
+        <v>97</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5">
+        <v>1568.85</v>
+      </c>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7">
+        <v>711.31</v>
+      </c>
+      <c r="G150" s="7">
+        <v>719.7</v>
+      </c>
+      <c r="H150" s="7">
+        <v>7206.23</v>
+      </c>
+      <c r="I150" s="7">
+        <v>710.0</v>
+      </c>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="8"/>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14">
+        <v>711.31</v>
+      </c>
+      <c r="G151" s="14">
+        <v>719.7</v>
+      </c>
+      <c r="H151" s="14">
+        <v>7206.23</v>
+      </c>
+      <c r="I151" s="14">
+        <v>710.0</v>
+      </c>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="11">
+        <v>9347.24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" t="s">
+        <v>106</v>
+      </c>
+      <c r="B154" s="5">
+        <v>182102.01</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" s="5">
+        <v>102442.29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A77:N77"/>
-    <mergeCell ref="A99:N99"/>
-    <mergeCell ref="A110:N110"/>
-    <mergeCell ref="A129:N129"/>
-    <mergeCell ref="A139:N139"/>
+    <mergeCell ref="A80:N80"/>
+    <mergeCell ref="A102:N102"/>
+    <mergeCell ref="A113:N113"/>
+    <mergeCell ref="A133:N133"/>
+    <mergeCell ref="A144:N144"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3891,10 +4055,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK47"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AK47" sqref="AK47"/>
+      <selection activeCell="AK50" sqref="AK50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3904,7 +4068,7 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -3950,117 +4114,117 @@
     </row>
     <row r="3" spans="1:37">
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q4">
         <v>20.0</v>
@@ -4068,647 +4232,583 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5">
-        <v>20.0</v>
-      </c>
-      <c r="T5">
-        <v>110.0</v>
+        <v>92</v>
+      </c>
+      <c r="W5">
+        <v>30.0</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6">
-        <v>5.0</v>
+        <v>93</v>
       </c>
       <c r="N6">
-        <v>28.0</v>
-      </c>
-      <c r="Q6">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="T6">
-        <v>58.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>5.0</v>
+      </c>
+      <c r="N7">
+        <v>28.0</v>
+      </c>
+      <c r="Q7">
+        <v>50.0</v>
       </c>
       <c r="T7">
-        <v>100.0</v>
+        <v>58.0</v>
+      </c>
+      <c r="W7">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T8">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9">
+        <v>96</v>
+      </c>
+      <c r="T9">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10">
         <v>6.0</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>30.0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6">
+    <row r="11" spans="1:37">
+      <c r="A11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <v>5.0</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
         <v>54.0</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6">
         <v>70.0</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6">
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6">
         <v>299.0</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13">
+      <c r="A13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14">
         <v>1.0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6">
+    <row r="15" spans="1:37">
+      <c r="A15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6">
         <v>1.0</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" t="s">
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>3.0</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6">
+    <row r="17" spans="1:37">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6">
         <v>3.0</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-    </row>
-    <row r="17" spans="1:37">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18">
         <v>1.0</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
-      <c r="A18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6">
+    <row r="19" spans="1:37">
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6">
         <v>1.0</v>
       </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="13" t="s">
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
         <v>5.0</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13">
         <v>57.0</v>
       </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13">
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13">
         <v>71.0</v>
       </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13">
         <v>300.0</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="12" t="s">
-        <v>108</v>
-      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13">
+        <v>34.0</v>
+      </c>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AC23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AF22" s="4" t="s">
+      <c r="AF23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AI22" s="4" t="s">
+      <c r="AI23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
-      <c r="B23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK23" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="24" spans="1:37">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24">
-        <v>3.0</v>
-      </c>
-      <c r="N24">
-        <v>12.0</v>
-      </c>
-      <c r="T24">
-        <v>53.0</v>
+      <c r="B24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" t="s">
-        <v>91</v>
-      </c>
-      <c r="T25">
+        <v>92</v>
+      </c>
+      <c r="W25">
         <v>30.0</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="K26">
+        <v>3.0</v>
+      </c>
+      <c r="N26">
+        <v>12.0</v>
+      </c>
+      <c r="T26">
+        <v>53.0</v>
       </c>
     </row>
     <row r="27" spans="1:37">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T27">
-        <v>9.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q28">
+        <v>2.0</v>
+      </c>
+      <c r="W28">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="T29">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q30">
         <v>10.0</v>
       </c>
-    </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6">
-        <v>92.0</v>
-      </c>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-    </row>
-    <row r="30" spans="1:37">
-      <c r="A30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="6" t="s">
@@ -4723,19 +4823,29 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="6">
+        <v>3.0</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="N31" s="6">
+        <v>12.0</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="Q31" s="6">
+        <v>12.0</v>
+      </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
+      <c r="T31" s="6">
+        <v>92.0</v>
+      </c>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
+      <c r="W31" s="6">
+        <v>50.0</v>
+      </c>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
@@ -4753,7 +4863,7 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="6" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4794,7 +4904,7 @@
     </row>
     <row r="33" spans="1:37">
       <c r="A33" s="6" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4834,372 +4944,335 @@
       <c r="AK33" s="6"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13">
         <v>3.0</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13">
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13">
         <v>12.0</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13">
         <v>12.0</v>
       </c>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13">
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13">
         <v>92.0</v>
       </c>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-    </row>
-    <row r="36" spans="1:37">
-      <c r="A36" s="12" t="s">
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13">
+        <v>50.0</v>
+      </c>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="B40" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:37">
-      <c r="A37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI37" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37">
-      <c r="B38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK38" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N39">
-        <v>6.0</v>
-      </c>
-      <c r="T39">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q40">
-        <v>10.0</v>
-      </c>
-      <c r="T40">
-        <v>10.0</v>
+      <c r="C40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK40" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:37">
       <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="W41">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" t="s">
         <v>93</v>
       </c>
-      <c r="T41">
+      <c r="N42">
+        <v>6.0</v>
+      </c>
+      <c r="T42">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43">
         <v>10.0</v>
       </c>
-    </row>
-    <row r="42" spans="1:37">
-      <c r="A42" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6">
+      <c r="T43">
         <v>10.0</v>
       </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-    </row>
-    <row r="43" spans="1:37">
-      <c r="A43" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
     </row>
     <row r="44" spans="1:37">
-      <c r="A44" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="T44">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="45" spans="1:37">
       <c r="A45" s="6" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -5213,16 +5286,24 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="N45" s="6">
+        <v>6.0</v>
+      </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
+      <c r="Q45" s="6">
+        <v>10.0</v>
+      </c>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
+      <c r="T45" s="6">
+        <v>55.0</v>
+      </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
+      <c r="W45" s="6">
+        <v>20.0</v>
+      </c>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -5240,7 +5321,7 @@
     </row>
     <row r="46" spans="1:37">
       <c r="A46" s="6" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -5280,51 +5361,176 @@
       <c r="AK46" s="6"/>
     </row>
     <row r="47" spans="1:37">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13">
         <v>6.0</v>
       </c>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13">
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13">
         <v>10.0</v>
       </c>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13">
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13">
         <v>55.0</v>
       </c>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5341,32 +5547,32 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="A21:AK21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="A36:AK36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="AF37:AH37"/>
-    <mergeCell ref="AI37:AK37"/>
+    <mergeCell ref="A22:AK22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="A38:AK38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compras/gerar_relatorio_fornecedores_2024.xlsx
+++ b/compras/gerar_relatorio_fornecedores_2024.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA PARQUE - 2024</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>TOTAL LENCO MAGICO:</t>
+  </si>
+  <si>
+    <t>Park Mix</t>
   </si>
   <si>
     <t>RELATORIO RESUMO GERAL ÓTICA PRESTIGIO - 2024</t>
@@ -430,7 +433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-R$* #,##0.00_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -464,11 +467,20 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFd3d3d3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -527,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,21 +556,22 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -855,10 +874,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B197" sqref="B197"/>
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -873,7 +892,7 @@
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="18.71" bestFit="true" customWidth="true" style="0"/>
@@ -965,19 +984,19 @@
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
         <v>1301.4</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
@@ -985,43 +1004,43 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
         <v>81.6</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
         <v>81.6</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>1301.4</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="11">
         <v>1383.0</v>
       </c>
     </row>
@@ -1047,23 +1066,23 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
         <v>767.38</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <v>1163.04</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
         <v>302.38</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
@@ -1071,23 +1090,23 @@
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
         <v>288.44</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>1591.73</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
         <v>246.94</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
@@ -1095,19 +1114,19 @@
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
         <v>485.8</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
@@ -1115,27 +1134,27 @@
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <v>312.12</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <v>692.52</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>300.28</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>300.28</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>440.48</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
@@ -1143,29 +1162,29 @@
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
         <v>1867.51</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>3314.15</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>2160.32</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>2044.82</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>280.77</v>
       </c>
-      <c r="J12" s="7">
-        <v>1286.81</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="J12" s="8">
+        <v>6155.45</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
@@ -1173,19 +1192,19 @@
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
         <v>425.0</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
@@ -1193,25 +1212,25 @@
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>120.0</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
         <v>336.0</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>576.4</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>454.0</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
@@ -1219,62 +1238,62 @@
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
         <v>1891.35</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>2875.7</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>2302.02</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>2199.58</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>4389.73</v>
       </c>
-      <c r="J15" s="7">
-        <v>1004.59</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="J15" s="8">
+        <v>1620.99</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>5444.16</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>6478.29</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>6746.59</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>5893.22</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <v>5835.12</v>
       </c>
-      <c r="J16" s="8">
-        <v>3488.26</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10">
-        <v>33885.64</v>
+      <c r="J16" s="9">
+        <v>8973.3</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="11">
+        <v>39370.68</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1299,23 +1318,23 @@
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
         <v>520.0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>1820.0</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
         <v>5200.0</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
@@ -1323,19 +1342,19 @@
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8">
         <v>20.0</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
@@ -1343,25 +1362,25 @@
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
         <v>1344.0</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
         <v>1088.0</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8">
         <v>1340.0</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="8">
         <v>689.0</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
@@ -1369,21 +1388,21 @@
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
         <v>2546.0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>5220.0</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
@@ -1391,21 +1410,21 @@
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
         <v>752.79</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>1505.58</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
@@ -1413,59 +1432,59 @@
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
         <v>4200.0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>36800.0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>850.0</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>1086.38</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>56969.03</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
         <v>9362.79</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <v>45345.58</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <v>850.0</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="9">
         <v>7374.38</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="9">
         <v>58329.03</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="9">
         <v>689.0</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="10">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="11">
         <v>121950.78</v>
       </c>
     </row>
@@ -1491,19 +1510,19 @@
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
         <v>200.0</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
@@ -1511,19 +1530,19 @@
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
         <v>135.79</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
@@ -1531,19 +1550,19 @@
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
         <v>419.69</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
@@ -1551,19 +1570,19 @@
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8">
         <v>26.9</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
@@ -1571,19 +1590,19 @@
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8">
         <v>49.1</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
@@ -1591,27 +1610,27 @@
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8">
         <v>498.0</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>704.0</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>1532.0</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>150.0</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
         <v>1264.68</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
@@ -1619,51 +1638,51 @@
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8">
         <v>221.9</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
         <v>633.79</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <v>980.0</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <v>1532.0</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="9">
         <v>569.69</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="9">
         <v>221.9</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="9">
         <v>1264.68</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="10">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="11">
         <v>5202.06</v>
       </c>
     </row>
@@ -1689,19 +1708,19 @@
       <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8">
         <v>4200.0</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
@@ -1709,19 +1728,19 @@
       <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
         <v>219.99</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
@@ -1729,19 +1748,19 @@
       <c r="A37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
         <v>155.0</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
@@ -1749,19 +1768,19 @@
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
         <v>28.9</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
@@ -1769,19 +1788,19 @@
       <c r="A39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8">
         <v>614.0</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
@@ -1789,47 +1808,47 @@
       <c r="A40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8">
         <v>419.83</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9">
         <v>639.82</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="9">
         <v>614.0</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
         <v>183.9</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
         <v>4200.0</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="10">
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="11">
         <v>5637.72</v>
       </c>
     </row>
@@ -1855,19 +1874,19 @@
       <c r="A43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8">
         <v>30.0</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
@@ -1875,19 +1894,19 @@
       <c r="A44" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8">
         <v>1020.0</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
@@ -1895,25 +1914,25 @@
       <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8">
         <v>1664.47</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>1512.12</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="8">
         <v>1346.07</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8">
         <v>1620.22</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
@@ -1921,19 +1940,19 @@
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8">
         <v>68.3</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
@@ -1941,21 +1960,21 @@
       <c r="A47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8">
         <v>143.8</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="8">
         <v>224.01</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
@@ -1963,21 +1982,21 @@
       <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8">
         <v>560.0</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7">
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8">
         <v>560.0</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
@@ -1985,19 +2004,19 @@
       <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8">
         <v>529.98</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
@@ -2005,21 +2024,21 @@
       <c r="A50" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8">
         <v>115.7</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <v>231.4</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
@@ -2027,51 +2046,51 @@
       <c r="A51" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8">
         <v>100.0</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>140.0</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9">
         <v>284.0</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="9">
         <v>3085.87</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="9">
         <v>2215.92</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="9">
         <v>2100.06</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9">
         <v>2180.22</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="10">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="11">
         <v>9866.07</v>
       </c>
     </row>
@@ -2097,19 +2116,19 @@
       <c r="A54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8">
         <v>2600.0</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
@@ -2117,19 +2136,19 @@
       <c r="A55" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8">
         <v>52.63</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
@@ -2137,27 +2156,27 @@
       <c r="A56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8">
         <v>1099.2</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <v>579.6</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="8">
         <v>1306.26</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="8">
         <v>287.76</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="8">
         <v>424.28</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
@@ -2165,25 +2184,25 @@
       <c r="A57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8">
         <v>507.32</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7">
+      <c r="G57" s="8"/>
+      <c r="H57" s="8">
         <v>912.91</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="8">
         <v>567.68</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="8">
         <v>1063.81</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
@@ -2191,19 +2210,19 @@
       <c r="A58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8">
         <v>207.71</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
@@ -2211,25 +2230,25 @@
       <c r="A59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8">
         <v>347.44</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="8">
         <v>916.0</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="8">
         <v>302.0</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="8">
         <v>604.0</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
@@ -2237,19 +2256,19 @@
       <c r="A60" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8">
         <v>661.65</v>
       </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
@@ -2257,19 +2276,19 @@
       <c r="A61" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8">
         <v>414.72</v>
       </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
@@ -2277,19 +2296,19 @@
       <c r="A62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8">
         <v>355.3</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
@@ -2297,19 +2316,19 @@
       <c r="A63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8">
         <v>846.0</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
@@ -2317,19 +2336,19 @@
       <c r="A64" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8">
         <v>423.0</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
@@ -2337,19 +2356,19 @@
       <c r="A65" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8">
         <v>25.2</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
@@ -2357,19 +2376,19 @@
       <c r="A66" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8">
         <v>1512.5</v>
       </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
@@ -2377,23 +2396,23 @@
       <c r="A67" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8">
         <v>425.0</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7">
+      <c r="G67" s="8"/>
+      <c r="H67" s="8">
         <v>420.0</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7">
+      <c r="I67" s="8"/>
+      <c r="J67" s="8">
         <v>470.0</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
@@ -2401,21 +2420,21 @@
       <c r="A68" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8">
         <v>706.66</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7">
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8">
         <v>706.66</v>
       </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
@@ -2423,19 +2442,19 @@
       <c r="A69" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8">
         <v>37.95</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
@@ -2443,19 +2462,19 @@
       <c r="A70" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8">
         <v>84.16</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
@@ -2463,19 +2482,19 @@
       <c r="A71" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8">
         <v>188.07</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
@@ -2483,25 +2502,25 @@
       <c r="A72" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8">
         <v>290.45</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="8">
         <v>1259.8</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7">
+      <c r="H72" s="8"/>
+      <c r="I72" s="8">
         <v>3014.37</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="8">
         <v>1076.05</v>
       </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
@@ -2509,19 +2528,19 @@
       <c r="A73" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8">
         <v>74.0</v>
       </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
@@ -2529,19 +2548,19 @@
       <c r="A74" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8">
         <v>184.12</v>
       </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
@@ -2549,19 +2568,19 @@
       <c r="A75" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8">
         <v>145.6</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
@@ -2569,19 +2588,19 @@
       <c r="A76" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8">
         <v>613.5</v>
       </c>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
@@ -2589,23 +2608,23 @@
       <c r="A77" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8">
         <v>573.75</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="8">
         <v>821.8</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7">
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8">
         <v>987.1</v>
       </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
@@ -2613,19 +2632,19 @@
       <c r="A78" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8">
         <v>33.6</v>
       </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
@@ -2633,21 +2652,21 @@
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8">
         <v>1694.42</v>
       </c>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7">
+      <c r="I79" s="8"/>
+      <c r="J79" s="8">
         <v>1694.42</v>
       </c>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
@@ -2655,19 +2674,19 @@
       <c r="A80" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8">
         <v>107.8</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
@@ -2675,21 +2694,21 @@
       <c r="A81" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8">
         <v>1400.0</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7">
+      <c r="H81" s="8"/>
+      <c r="I81" s="8">
         <v>1400.0</v>
       </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
@@ -2697,19 +2716,19 @@
       <c r="A82" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8">
         <v>180.0</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
@@ -2717,57 +2736,57 @@
       <c r="A83" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8">
         <v>1278.0</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="8">
         <v>940.0</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="8">
         <v>260.0</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="8">
         <v>943.0</v>
       </c>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9">
         <v>1189.78</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="9">
         <v>5995.83</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="9">
         <v>7538.59</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="9">
         <v>6720.01</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="9">
         <v>10096.28</v>
       </c>
-      <c r="J84" s="8">
+      <c r="J84" s="9">
         <v>6486.76</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="10">
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="11">
         <v>38027.25</v>
       </c>
     </row>
@@ -2793,19 +2812,19 @@
       <c r="A86" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8">
         <v>240.75</v>
       </c>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
@@ -2813,25 +2832,25 @@
       <c r="A87" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8">
         <v>629.3</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="8">
         <v>691.3</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7">
+      <c r="H87" s="8"/>
+      <c r="I87" s="8">
         <v>664.3</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="8">
         <v>102.8</v>
       </c>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
@@ -2839,19 +2858,19 @@
       <c r="A88" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8">
         <v>139.25</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
@@ -2859,25 +2878,25 @@
       <c r="A89" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
         <v>1179.37</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="8">
         <v>6963.41</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="8">
         <v>384.14</v>
       </c>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7">
+      <c r="H89" s="8"/>
+      <c r="I89" s="8">
         <v>389.38</v>
       </c>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
@@ -2885,51 +2904,51 @@
       <c r="A90" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8">
         <v>99.0</v>
       </c>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9">
         <v>1318.62</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="9">
         <v>7592.71</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="9">
         <v>1075.44</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="9">
         <v>99.0</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="9">
         <v>1294.43</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J91" s="9">
         <v>102.8</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="10">
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="11">
         <v>11483.0</v>
       </c>
     </row>
@@ -2955,74 +2974,74 @@
       <c r="A93" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8">
         <v>879.56</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9">
         <v>879.56</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="10">
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="11">
         <v>879.56</v>
       </c>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10">
         <v>18872.96</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="10">
         <v>70971.84</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="10">
         <v>19958.54</v>
       </c>
-      <c r="H95" s="9">
+      <c r="H95" s="10">
         <v>22940.26</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="10">
         <v>75858.36</v>
       </c>
-      <c r="J95" s="9">
-        <v>19713.12</v>
-      </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="11">
-        <v>228315.08</v>
+      <c r="J95" s="10">
+        <v>25198.16</v>
+      </c>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="12">
+        <v>233800.12</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -3109,144 +3128,144 @@
       <c r="A100" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7">
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8">
         <v>289.8</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="8">
         <v>302.38</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7">
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8">
         <v>302.38</v>
       </c>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
       <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7">
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8">
         <v>317.98</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="8">
         <v>955.16</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7">
+      <c r="G101" s="8"/>
+      <c r="H101" s="8">
         <v>446.26</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101" s="8">
         <v>877.47</v>
       </c>
-      <c r="J101" s="7">
-        <v>635.96</v>
-      </c>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
+      <c r="J101" s="8">
+        <v>1139.08</v>
+      </c>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
       <c r="N101" s="5"/>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7">
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8">
         <v>774.61</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="8">
         <v>1381.88</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G102" s="8">
         <v>1997.46</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="8">
         <v>1607.12</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="8">
         <v>552.72</v>
       </c>
-      <c r="J102" s="7">
+      <c r="J102" s="8">
         <v>256.04</v>
       </c>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="5"/>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7">
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8">
         <v>1363.38</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="8">
         <v>5145.61</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103" s="8">
         <v>2671.54</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="8">
         <v>1645.16</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103" s="8">
         <v>1197.15</v>
       </c>
-      <c r="J103" s="7">
-        <v>1978.53</v>
-      </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
+      <c r="J103" s="8">
+        <v>4526.13</v>
+      </c>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
       <c r="N103" s="5"/>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9">
         <v>2745.77</v>
       </c>
-      <c r="F104" s="8">
+      <c r="F104" s="9">
         <v>7232.27</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="9">
         <v>4669.0</v>
       </c>
-      <c r="H104" s="8">
+      <c r="H104" s="9">
         <v>3471.47</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="9">
         <v>2627.34</v>
       </c>
-      <c r="J104" s="8">
-        <v>3172.91</v>
-      </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="10">
-        <v>33885.64</v>
+      <c r="J104" s="9">
+        <v>6223.63</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="11">
+        <v>39370.68</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -3271,41 +3290,41 @@
       <c r="A106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7">
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8">
         <v>1062.0</v>
       </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="5"/>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9">
         <v>1062.0</v>
       </c>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="10">
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="11">
         <v>5202.06</v>
       </c>
     </row>
@@ -3331,69 +3350,69 @@
       <c r="A109" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7">
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8">
         <v>2258.77</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="8">
         <v>5503.38</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109" s="8">
         <v>544.69</v>
       </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
       <c r="N109" s="5"/>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7">
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8">
         <v>200.12</v>
       </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="5"/>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
         <v>2258.77</v>
       </c>
-      <c r="F111" s="8">
+      <c r="F111" s="9">
         <v>5703.5</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="9">
         <v>544.69</v>
       </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="10">
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="11">
         <v>5637.72</v>
       </c>
     </row>
@@ -3419,105 +3438,107 @@
       <c r="A113" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7">
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8">
         <v>174.74</v>
       </c>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="5"/>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="4" t="s">
-        <v>62</v>
+      <c r="A114" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
-      <c r="G114" s="8">
-        <v>174.74</v>
-      </c>
+      <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
+      <c r="J114" s="8">
+        <v>480.0</v>
+      </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
-      <c r="N114" s="10">
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9">
+        <v>174.74</v>
+      </c>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9">
+        <v>480.0</v>
+      </c>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="11">
         <v>9866.07</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
-      <c r="A115" s="4" t="s">
+    <row r="116" spans="1:16">
+      <c r="A116" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-    </row>
-    <row r="116" spans="1:16">
-      <c r="A116" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7">
-        <v>33.05</v>
-      </c>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="5"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8">
+        <v>33.05</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7">
-        <v>159.6</v>
-      </c>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="5"/>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -3525,7 +3546,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8">
-        <v>192.65</v>
+        <v>159.6</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -3533,284 +3554,274 @@
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
-      <c r="N118" s="10">
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9">
+        <v>192.65</v>
+      </c>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="11">
         <v>38027.25</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
-      <c r="A119" s="4" t="s">
+    <row r="120" spans="1:16">
+      <c r="A120" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7">
-        <v>299.7</v>
-      </c>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7">
-        <v>379.6</v>
-      </c>
-      <c r="I120" s="7">
-        <v>379.6</v>
-      </c>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="5"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8">
+        <v>299.7</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8">
+        <v>379.6</v>
+      </c>
+      <c r="I121" s="8">
+        <v>379.6</v>
+      </c>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7">
-        <v>354.9</v>
-      </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="5"/>
-    </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
-      <c r="E122" s="8">
-        <v>299.7</v>
-      </c>
+      <c r="E122" s="8"/>
       <c r="F122" s="8">
         <v>354.9</v>
       </c>
       <c r="G122" s="8"/>
-      <c r="H122" s="8">
-        <v>379.6</v>
-      </c>
-      <c r="I122" s="8">
-        <v>379.6</v>
-      </c>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
-      <c r="N122" s="10">
-        <v>11483.0</v>
-      </c>
+      <c r="N122" s="5"/>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>5304.24</v>
+        <v>299.7</v>
       </c>
       <c r="F123" s="9">
-        <v>13290.67</v>
-      </c>
-      <c r="G123" s="9">
-        <v>6643.08</v>
-      </c>
+        <v>354.9</v>
+      </c>
+      <c r="G123" s="9"/>
       <c r="H123" s="9">
-        <v>3851.07</v>
+        <v>379.6</v>
       </c>
       <c r="I123" s="9">
-        <v>3006.94</v>
-      </c>
-      <c r="J123" s="9">
-        <v>3172.91</v>
-      </c>
+        <v>379.6</v>
+      </c>
+      <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
       <c r="N123" s="11">
-        <v>35268.91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
-      <c r="A125" s="2" t="s">
+        <v>11483.0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10">
+        <v>5304.24</v>
+      </c>
+      <c r="F124" s="10">
+        <v>13290.67</v>
+      </c>
+      <c r="G124" s="10">
+        <v>6643.08</v>
+      </c>
+      <c r="H124" s="10">
+        <v>3851.07</v>
+      </c>
+      <c r="I124" s="10">
+        <v>3006.94</v>
+      </c>
+      <c r="J124" s="10">
+        <v>6703.63</v>
+      </c>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="12">
+        <v>38799.63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126" s="3" t="s">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="J127" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L126" s="3" t="s">
+      <c r="L127" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M126" s="3" t="s">
+      <c r="M127" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N126" s="3" t="s">
+      <c r="N127" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="4" t="s">
+    <row r="128" spans="1:16">
+      <c r="A128" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7">
-        <v>251.56</v>
-      </c>
-      <c r="F128" s="7">
-        <v>503.12</v>
-      </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7">
-        <v>993.97</v>
-      </c>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="5"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8">
+        <v>251.56</v>
+      </c>
+      <c r="F129" s="8">
+        <v>503.12</v>
+      </c>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8">
+        <v>993.97</v>
+      </c>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7">
-        <v>664.14</v>
-      </c>
-      <c r="F129" s="7">
-        <v>129.26</v>
-      </c>
-      <c r="G129" s="7">
-        <v>552.72</v>
-      </c>
-      <c r="H129" s="7">
-        <v>345.88</v>
-      </c>
-      <c r="I129" s="7">
-        <v>355.66</v>
-      </c>
-      <c r="J129" s="7">
-        <v>276.36</v>
-      </c>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="5"/>
-    </row>
-    <row r="130" spans="1:16">
-      <c r="A130" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8">
-        <v>915.7</v>
+        <v>664.14</v>
       </c>
       <c r="F130" s="8">
-        <v>632.38</v>
+        <v>129.26</v>
       </c>
       <c r="G130" s="8">
         <v>552.72</v>
       </c>
       <c r="H130" s="8">
-        <v>1339.85</v>
+        <v>345.88</v>
       </c>
       <c r="I130" s="8">
         <v>355.66</v>
@@ -3821,51 +3832,61 @@
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
-      <c r="N130" s="10">
-        <v>33885.64</v>
-      </c>
+      <c r="N130" s="5"/>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9">
+        <v>915.7</v>
+      </c>
+      <c r="F131" s="9">
+        <v>632.38</v>
+      </c>
+      <c r="G131" s="9">
+        <v>552.72</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1339.85</v>
+      </c>
+      <c r="I131" s="9">
+        <v>355.66</v>
+      </c>
+      <c r="J131" s="9">
+        <v>276.36</v>
+      </c>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="11">
+        <v>39370.68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-    </row>
-    <row r="132" spans="1:16">
-      <c r="A132" s="5" t="s">
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7">
-        <v>225.24</v>
-      </c>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="5"/>
-    </row>
-    <row r="133" spans="1:16">
-      <c r="A133" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -3881,53 +3902,51 @@
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
-      <c r="N133" s="10">
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9">
+        <v>225.24</v>
+      </c>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="11">
         <v>38027.25</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
-      <c r="A134" s="4" t="s">
+    <row r="135" spans="1:16">
+      <c r="A135" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-    </row>
-    <row r="135" spans="1:16">
-      <c r="A135" s="5" t="s">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7">
-        <v>284.7</v>
-      </c>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7">
-        <v>284.7</v>
-      </c>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="5"/>
-    </row>
-    <row r="136" spans="1:16">
-      <c r="A136" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -3945,389 +3964,393 @@
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
-      <c r="N136" s="10">
-        <v>11483.0</v>
-      </c>
+      <c r="N136" s="5"/>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="9">
-        <v>915.7</v>
-      </c>
-      <c r="F137" s="9">
-        <v>632.38</v>
-      </c>
-      <c r="G137" s="9">
-        <v>777.96</v>
-      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
       <c r="H137" s="9">
-        <v>1624.55</v>
-      </c>
-      <c r="I137" s="9">
-        <v>355.66</v>
-      </c>
+        <v>284.7</v>
+      </c>
+      <c r="I137" s="9"/>
       <c r="J137" s="9">
-        <v>561.06</v>
+        <v>284.7</v>
       </c>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
       <c r="N137" s="11">
+        <v>11483.0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10">
+        <v>915.7</v>
+      </c>
+      <c r="F138" s="10">
+        <v>632.38</v>
+      </c>
+      <c r="G138" s="10">
+        <v>777.96</v>
+      </c>
+      <c r="H138" s="10">
+        <v>1624.55</v>
+      </c>
+      <c r="I138" s="10">
+        <v>355.66</v>
+      </c>
+      <c r="J138" s="10">
+        <v>561.06</v>
+      </c>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="12">
         <v>4867.31</v>
       </c>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="A139" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B141" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C141" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D141" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E140" s="14" t="s">
+      <c r="E141" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F140" s="14" t="s">
+      <c r="F141" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="G141" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H140" s="14" t="s">
+      <c r="H141" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I140" s="14" t="s">
+      <c r="I141" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J140" s="14" t="s">
+      <c r="J141" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K140" s="14" t="s">
+      <c r="K141" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L140" s="14" t="s">
+      <c r="L141" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M140" s="14" t="s">
+      <c r="M141" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N140" s="14" t="s">
+      <c r="N141" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
-      <c r="A141" s="4" t="s">
+    <row r="142" spans="1:16">
+      <c r="A142" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-    </row>
-    <row r="142" spans="1:16">
-      <c r="A142" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7">
-        <v>868.33</v>
-      </c>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="5"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7">
-        <v>580.0</v>
-      </c>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8">
+        <v>868.33</v>
+      </c>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7">
-        <v>723.0</v>
-      </c>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8">
+        <v>580.0</v>
+      </c>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7">
-        <v>2610.0</v>
-      </c>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="7"/>
-      <c r="M145" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8">
+        <v>723.0</v>
+      </c>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7">
-        <v>2180.05</v>
-      </c>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7">
-        <v>13977.7</v>
-      </c>
-      <c r="I146" s="7">
-        <v>890.63</v>
-      </c>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="7"/>
-      <c r="M146" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8">
+        <v>2610.0</v>
+      </c>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7">
-        <v>4710.32</v>
-      </c>
-      <c r="F147" s="7">
-        <v>8266.89</v>
-      </c>
-      <c r="G147" s="7">
-        <v>5777.15</v>
-      </c>
-      <c r="H147" s="7">
-        <v>12252.71</v>
-      </c>
-      <c r="I147" s="7">
-        <v>15176.71</v>
-      </c>
-      <c r="J147" s="7">
-        <v>743.66</v>
-      </c>
-      <c r="K147" s="7"/>
-      <c r="L147" s="7"/>
-      <c r="M147" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8">
+        <v>2180.05</v>
+      </c>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8">
+        <v>13977.7</v>
+      </c>
+      <c r="I147" s="8">
+        <v>890.63</v>
+      </c>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7">
-        <v>5500.0</v>
-      </c>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="7"/>
-      <c r="M148" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8">
+        <v>4710.32</v>
+      </c>
+      <c r="F148" s="8">
+        <v>8266.89</v>
+      </c>
+      <c r="G148" s="8">
+        <v>5777.15</v>
+      </c>
+      <c r="H148" s="8">
+        <v>12252.71</v>
+      </c>
+      <c r="I148" s="8">
+        <v>15176.71</v>
+      </c>
+      <c r="J148" s="8">
+        <v>1643.47</v>
+      </c>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
       <c r="N148" s="5"/>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7">
-        <v>6854.13</v>
-      </c>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
-      <c r="L149" s="7"/>
-      <c r="M149" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8">
+        <v>5500.0</v>
+      </c>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
       <c r="N149" s="5"/>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8">
+        <v>6854.13</v>
+      </c>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8">
+        <v>774.43</v>
+      </c>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7">
-        <v>1052.92</v>
-      </c>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7">
-        <v>5402.29</v>
-      </c>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
-      <c r="L150" s="7"/>
-      <c r="M150" s="7"/>
-      <c r="N150" s="5"/>
-    </row>
-    <row r="151" spans="1:16">
-      <c r="A151" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="8">
-        <v>4710.32</v>
-      </c>
+      <c r="E151" s="8"/>
       <c r="F151" s="8">
-        <v>11499.86</v>
-      </c>
-      <c r="G151" s="8">
-        <v>6500.15</v>
-      </c>
+        <v>1052.92</v>
+      </c>
+      <c r="G151" s="8"/>
       <c r="H151" s="8">
-        <v>43986.83</v>
-      </c>
-      <c r="I151" s="8">
-        <v>18677.34</v>
-      </c>
-      <c r="J151" s="8">
-        <v>2191.99</v>
-      </c>
+        <v>5402.29</v>
+      </c>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
-      <c r="N151" s="10"/>
+      <c r="N151" s="5"/>
     </row>
     <row r="152" spans="1:16">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9">
+        <v>4710.32</v>
+      </c>
+      <c r="F152" s="9">
+        <v>11499.86</v>
+      </c>
+      <c r="G152" s="9">
+        <v>6500.15</v>
+      </c>
+      <c r="H152" s="9">
+        <v>43986.83</v>
+      </c>
+      <c r="I152" s="9">
+        <v>18677.34</v>
+      </c>
+      <c r="J152" s="9">
+        <v>3866.23</v>
+      </c>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="11"/>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-    </row>
-    <row r="153" spans="1:16">
-      <c r="A153" s="5" t="s">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7">
-        <v>2289.2</v>
-      </c>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="5"/>
-    </row>
-    <row r="154" spans="1:16">
-      <c r="A154" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -4343,49 +4366,49 @@
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
-      <c r="N154" s="10"/>
+      <c r="N154" s="5"/>
     </row>
     <row r="155" spans="1:16">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9">
+        <v>2289.2</v>
+      </c>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="11"/>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-    </row>
-    <row r="156" spans="1:16">
-      <c r="A156" s="5" t="s">
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7">
-        <v>755.0</v>
-      </c>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
-      <c r="L156" s="7"/>
-      <c r="M156" s="7"/>
-      <c r="N156" s="5"/>
-    </row>
-    <row r="157" spans="1:16">
-      <c r="A157" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -4401,49 +4424,49 @@
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
-      <c r="N157" s="10"/>
+      <c r="N157" s="5"/>
     </row>
     <row r="158" spans="1:16">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9">
+        <v>755.0</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="11"/>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-    </row>
-    <row r="159" spans="1:16">
-      <c r="A159" s="5" t="s">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7">
-        <v>500.0</v>
-      </c>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
-      <c r="L159" s="7"/>
-      <c r="M159" s="7"/>
-      <c r="N159" s="5"/>
-    </row>
-    <row r="160" spans="1:16">
-      <c r="A160" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -4459,51 +4482,51 @@
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
-      <c r="N160" s="10">
-        <v>33885.64</v>
-      </c>
+      <c r="N160" s="5"/>
     </row>
     <row r="161" spans="1:16">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="11">
+        <v>39370.68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-    </row>
-    <row r="162" spans="1:16">
-      <c r="A162" s="5" t="s">
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7">
-        <v>95.96</v>
-      </c>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
-      <c r="L162" s="7"/>
-      <c r="M162" s="7"/>
-      <c r="N162" s="5"/>
-    </row>
-    <row r="163" spans="1:16">
-      <c r="A163" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -4519,696 +4542,740 @@
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
-      <c r="N163" s="10">
+      <c r="N163" s="5"/>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8">
+        <v>55.6</v>
+      </c>
+      <c r="L164" s="8"/>
+      <c r="M164" s="8"/>
+      <c r="N164" s="5"/>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9">
+        <v>95.96</v>
+      </c>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9">
+        <v>55.6</v>
+      </c>
+      <c r="L165" s="9"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="11">
         <v>9866.07</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
-      <c r="A164" s="6" t="s">
+    <row r="166" spans="1:16">
+      <c r="A166" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9">
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10">
         <v>6999.52</v>
       </c>
-      <c r="F164" s="9">
+      <c r="F166" s="10">
         <v>11999.86</v>
       </c>
-      <c r="G164" s="9">
+      <c r="G166" s="10">
         <v>6596.11</v>
       </c>
-      <c r="H164" s="9">
+      <c r="H166" s="10">
         <v>44741.83</v>
       </c>
-      <c r="I164" s="9">
+      <c r="I166" s="10">
         <v>18677.34</v>
       </c>
-      <c r="J164" s="9">
-        <v>2191.99</v>
-      </c>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
-      <c r="M164" s="9"/>
-      <c r="N164" s="11">
-        <v>91206.65</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
-      <c r="A166" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
-    </row>
-    <row r="167" spans="1:16">
-      <c r="A167" s="14" t="s">
+      <c r="J166" s="10">
+        <v>3866.23</v>
+      </c>
+      <c r="K166" s="10">
+        <v>55.6</v>
+      </c>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="12">
+        <v>92936.49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B169" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="14" t="s">
+      <c r="C169" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D169" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="E169" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F167" s="14" t="s">
+      <c r="F169" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G167" s="14" t="s">
+      <c r="G169" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H167" s="14" t="s">
+      <c r="H169" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I167" s="14" t="s">
+      <c r="I169" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J167" s="14" t="s">
+      <c r="J169" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K167" s="14" t="s">
+      <c r="K169" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L167" s="14" t="s">
+      <c r="L169" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M167" s="14" t="s">
+      <c r="M169" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N167" s="14" t="s">
+      <c r="N169" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
-      <c r="A168" s="4" t="s">
+    <row r="170" spans="1:16">
+      <c r="A170" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="A169" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7">
-        <v>1800.0</v>
-      </c>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
-      <c r="L169" s="7"/>
-      <c r="M169" s="7"/>
-      <c r="N169" s="5"/>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="A170" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7">
-        <v>1448.82</v>
-      </c>
-      <c r="F170" s="7">
-        <v>3814.76</v>
-      </c>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7">
-        <v>6659.02</v>
-      </c>
-      <c r="I170" s="7">
-        <v>3161.97</v>
-      </c>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-      <c r="N170" s="5"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7">
-        <v>1650.0</v>
-      </c>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8">
+        <v>1800.0</v>
+      </c>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
       <c r="N171" s="5"/>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7">
-        <v>544.93</v>
-      </c>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7">
-        <v>3769.01</v>
-      </c>
-      <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
-      <c r="L172" s="7"/>
-      <c r="M172" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8">
+        <v>1448.82</v>
+      </c>
+      <c r="F172" s="8">
+        <v>3814.76</v>
+      </c>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8">
+        <v>6659.02</v>
+      </c>
+      <c r="I172" s="8">
+        <v>3161.97</v>
+      </c>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="8"/>
       <c r="N172" s="5"/>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7">
-        <v>1568.72</v>
-      </c>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="7"/>
-      <c r="M173" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8">
+        <v>1650.0</v>
+      </c>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="8"/>
       <c r="N173" s="5"/>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7">
-        <v>399.0</v>
-      </c>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8">
+        <v>544.93</v>
+      </c>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8">
+        <v>3769.01</v>
+      </c>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="8"/>
       <c r="N174" s="5"/>
     </row>
     <row r="175" spans="1:16">
-      <c r="A175" s="4" t="s">
-        <v>117</v>
+      <c r="A175" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="8">
-        <v>1448.82</v>
-      </c>
-      <c r="F175" s="8">
-        <v>3814.76</v>
-      </c>
-      <c r="G175" s="8">
-        <v>943.93</v>
-      </c>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
       <c r="H175" s="8">
-        <v>9877.74</v>
-      </c>
-      <c r="I175" s="8">
-        <v>8730.98</v>
-      </c>
+        <v>1568.72</v>
+      </c>
+      <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
-      <c r="N175" s="10"/>
+      <c r="N175" s="5"/>
     </row>
     <row r="176" spans="1:16">
-      <c r="A176" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
+      <c r="A176" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8">
+        <v>399.0</v>
+      </c>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
+      <c r="L176" s="8"/>
+      <c r="M176" s="8"/>
+      <c r="N176" s="5"/>
     </row>
     <row r="177" spans="1:16">
-      <c r="A177" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7">
-        <v>473.01</v>
-      </c>
-      <c r="K177" s="7"/>
-      <c r="L177" s="7"/>
-      <c r="M177" s="7"/>
-      <c r="N177" s="5"/>
+      <c r="A177" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9">
+        <v>1448.82</v>
+      </c>
+      <c r="F177" s="9">
+        <v>3814.76</v>
+      </c>
+      <c r="G177" s="9">
+        <v>943.93</v>
+      </c>
+      <c r="H177" s="9">
+        <v>9877.74</v>
+      </c>
+      <c r="I177" s="9">
+        <v>8730.98</v>
+      </c>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="11"/>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8">
+        <v>473.01</v>
+      </c>
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="8"/>
+      <c r="N179" s="5"/>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8">
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9">
         <v>473.01</v>
       </c>
-      <c r="K178" s="8"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="10"/>
-    </row>
-    <row r="179" spans="1:16">
-      <c r="A179" s="6" t="s">
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="11"/>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9">
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10">
         <v>1448.82</v>
       </c>
-      <c r="F179" s="9">
+      <c r="F181" s="10">
         <v>3814.76</v>
       </c>
-      <c r="G179" s="9">
+      <c r="G181" s="10">
         <v>943.93</v>
       </c>
-      <c r="H179" s="9">
+      <c r="H181" s="10">
         <v>9877.74</v>
       </c>
-      <c r="I179" s="9">
+      <c r="I181" s="10">
         <v>8730.98</v>
       </c>
-      <c r="J179" s="9">
+      <c r="J181" s="10">
         <v>473.01</v>
       </c>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="9"/>
-      <c r="N179" s="11">
+      <c r="K181" s="10"/>
+      <c r="L181" s="10"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="12">
         <v>25289.24</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
-      <c r="A181" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
-    </row>
-    <row r="182" spans="1:16">
-      <c r="A182" s="14" t="s">
+    <row r="183" spans="1:16">
+      <c r="A183" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B184" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C182" s="14" t="s">
+      <c r="C184" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D184" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="E184" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F182" s="14" t="s">
+      <c r="F184" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G182" s="14" t="s">
+      <c r="G184" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H182" s="14" t="s">
+      <c r="H184" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I182" s="14" t="s">
+      <c r="I184" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J182" s="14" t="s">
+      <c r="J184" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K182" s="14" t="s">
+      <c r="K184" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L182" s="14" t="s">
+      <c r="L184" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M182" s="14" t="s">
+      <c r="M184" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N182" s="14" t="s">
+      <c r="N184" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
-      <c r="A183" s="4" t="s">
+    <row r="185" spans="1:16">
+      <c r="A185" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
-      <c r="M183" s="4"/>
-      <c r="N183" s="4"/>
-    </row>
-    <row r="184" spans="1:16">
-      <c r="A184" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7">
-        <v>440.0</v>
-      </c>
-      <c r="K184" s="7"/>
-      <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
-      <c r="N184" s="5"/>
-    </row>
-    <row r="185" spans="1:16">
-      <c r="A185" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7">
-        <v>1470.0</v>
-      </c>
-      <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="5"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7">
-        <v>711.31</v>
-      </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7">
-        <v>3630.76</v>
-      </c>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8">
+        <v>440.0</v>
+      </c>
+      <c r="K186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
       <c r="N186" s="5"/>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7">
-        <v>719.7</v>
-      </c>
-      <c r="H187" s="7">
-        <v>2464.07</v>
-      </c>
-      <c r="I187" s="7">
-        <v>2982.6</v>
-      </c>
-      <c r="J187" s="7">
-        <v>882.39</v>
-      </c>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8">
+        <v>1470.0</v>
+      </c>
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
       <c r="N187" s="5"/>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7">
-        <v>1568.85</v>
-      </c>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
-      <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8">
+        <v>711.31</v>
+      </c>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8">
+        <v>3630.76</v>
+      </c>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
       <c r="N188" s="5"/>
     </row>
     <row r="189" spans="1:16">
-      <c r="A189" s="4" t="s">
-        <v>117</v>
+      <c r="A189" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
-      <c r="F189" s="8">
-        <v>711.31</v>
-      </c>
+      <c r="F189" s="8"/>
       <c r="G189" s="8">
         <v>719.7</v>
       </c>
       <c r="H189" s="8">
-        <v>7663.68</v>
+        <v>2464.07</v>
       </c>
       <c r="I189" s="8">
-        <v>4452.6</v>
+        <v>2982.6</v>
       </c>
       <c r="J189" s="8">
-        <v>1322.39</v>
+        <v>882.39</v>
       </c>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
-      <c r="N189" s="10"/>
+      <c r="N189" s="5"/>
     </row>
     <row r="190" spans="1:16">
-      <c r="A190" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-      <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
+      <c r="A190" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8">
+        <v>1568.85</v>
+      </c>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="8"/>
+      <c r="N190" s="5"/>
     </row>
     <row r="191" spans="1:16">
-      <c r="A191" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7">
-        <v>438.0</v>
-      </c>
-      <c r="K191" s="7"/>
-      <c r="L191" s="7"/>
-      <c r="M191" s="7"/>
-      <c r="N191" s="5"/>
+      <c r="A191" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9">
+        <v>711.31</v>
+      </c>
+      <c r="G191" s="9">
+        <v>719.7</v>
+      </c>
+      <c r="H191" s="9">
+        <v>7663.68</v>
+      </c>
+      <c r="I191" s="9">
+        <v>4452.6</v>
+      </c>
+      <c r="J191" s="9">
+        <v>1322.39</v>
+      </c>
+      <c r="K191" s="9"/>
+      <c r="L191" s="9"/>
+      <c r="M191" s="9"/>
+      <c r="N191" s="11"/>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8">
+        <v>438.0</v>
+      </c>
+      <c r="K193" s="8"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="5"/>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8"/>
-      <c r="J192" s="8">
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9">
         <v>438.0</v>
       </c>
-      <c r="K192" s="8"/>
-      <c r="L192" s="8"/>
-      <c r="M192" s="8"/>
-      <c r="N192" s="10"/>
-    </row>
-    <row r="193" spans="1:16">
-      <c r="A193" s="6" t="s">
+      <c r="K194" s="9"/>
+      <c r="L194" s="9"/>
+      <c r="M194" s="9"/>
+      <c r="N194" s="11"/>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
-      <c r="F193" s="9">
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10">
         <v>711.31</v>
       </c>
-      <c r="G193" s="9">
+      <c r="G195" s="10">
         <v>719.7</v>
       </c>
-      <c r="H193" s="9">
+      <c r="H195" s="10">
         <v>7663.68</v>
       </c>
-      <c r="I193" s="9">
+      <c r="I195" s="10">
         <v>4452.6</v>
       </c>
-      <c r="J193" s="9">
+      <c r="J195" s="10">
         <v>1760.39</v>
       </c>
-      <c r="K193" s="9"/>
-      <c r="L193" s="9"/>
-      <c r="M193" s="9"/>
-      <c r="N193" s="11">
+      <c r="K195" s="10"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="10"/>
+      <c r="N195" s="12">
         <v>15307.68</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
-      <c r="A196" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B196" s="15">
-        <v>269765.63</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
-      <c r="A197" s="12" t="s">
+    <row r="198" spans="1:16">
+      <c r="A198" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B197" s="16">
-        <v>131803.57</v>
+      <c r="B198" s="16">
+        <v>278781.39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B199" s="17">
+        <v>133533.41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A97:N97"/>
-    <mergeCell ref="A125:N125"/>
-    <mergeCell ref="A139:N139"/>
-    <mergeCell ref="A166:N166"/>
-    <mergeCell ref="A181:N181"/>
+    <mergeCell ref="A126:N126"/>
+    <mergeCell ref="A140:N140"/>
+    <mergeCell ref="A168:N168"/>
+    <mergeCell ref="A183:N183"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5221,10 +5288,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK58"/>
+  <dimension ref="A1:AK59"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:AK58"/>
+      <selection activeCell="A46" sqref="A46:AK59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5233,8 +5300,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="13" t="s">
-        <v>129</v>
+      <c r="A1" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5274,65 +5341,65 @@
       <c r="AK1" s="5"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="AJ2" s="5"/>
@@ -5340,113 +5407,113 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="5"/>
-      <c r="B3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" s="17" t="s">
+      <c r="M3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="O3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" s="17" t="s">
+      <c r="P3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="R3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="U3" s="17" t="s">
+      <c r="S3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="U3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="X3" s="17" t="s">
+      <c r="V3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="W3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="X3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Z3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA3" s="17" t="s">
+      <c r="Y3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AA3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AC3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AB3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AD3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AF3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AE3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AG3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AI3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AH3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>132</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -5748,7 +5815,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
@@ -5835,7 +5902,9 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="Z12" s="5">
+        <v>4.0</v>
+      </c>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -5894,57 +5963,57 @@
       <c r="AK13" s="5"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
         <v>5.0</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
         <v>54.0</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4">
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6">
         <v>70.0</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6">
         <v>299.0</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4">
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6">
         <v>176.0</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4">
-        <v>76.0</v>
-      </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6">
+        <v>85.0</v>
+      </c>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="4" t="s">
@@ -6029,45 +6098,45 @@
       <c r="AK16" s="5"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="4" t="s">
@@ -6154,47 +6223,47 @@
       <c r="AK19" s="5"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6">
         <v>1.0</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="4" t="s">
@@ -6281,47 +6350,47 @@
       <c r="AK22" s="5"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6">
         <v>3.0</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="4" t="s">
@@ -6408,51 +6477,51 @@
       <c r="AK25" s="5"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4">
+      <c r="A26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5">
         <v>1.0</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="6" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -6463,37 +6532,29 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6">
-        <v>5.0</v>
-      </c>
+      <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6">
-        <v>57.0</v>
-      </c>
+      <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6">
-        <v>71.0</v>
+        <v>1.0</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="6">
-        <v>300.0</v>
-      </c>
+      <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="6">
-        <v>176.0</v>
-      </c>
+      <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="6">
-        <v>76.0</v>
-      </c>
+      <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
+      <c r="AC27" s="6">
+        <v>1.0</v>
+      </c>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
@@ -6503,310 +6564,322 @@
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
     </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
+    <row r="28" spans="1:37">
+      <c r="A28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7">
+        <v>176.0</v>
+      </c>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="14" t="s">
-        <v>3</v>
-      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
-      <c r="AI30" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="5"/>
-      <c r="B31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="A31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="5"/>
+      <c r="B32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="D32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="F32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="17" t="s">
+      <c r="G32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="I32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="17" t="s">
+      <c r="J32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="L32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="N31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="O31" s="17" t="s">
+      <c r="M32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="17" t="s">
+      <c r="O32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="R31" s="17" t="s">
+      <c r="P32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="S31" s="17" t="s">
+      <c r="R32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="T31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="U31" s="17" t="s">
+      <c r="S32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="T32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="V31" s="17" t="s">
+      <c r="U32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="X31" s="17" t="s">
+      <c r="V32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="W32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="Y31" s="17" t="s">
+      <c r="X32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Z31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA31" s="17" t="s">
+      <c r="Y32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AB31" s="17" t="s">
+      <c r="AA32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AC31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD31" s="17" t="s">
+      <c r="AB32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AE31" s="17" t="s">
+      <c r="AD32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AF31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG31" s="17" t="s">
+      <c r="AE32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AH31" s="17" t="s">
+      <c r="AG32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AI31" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ31" s="17" t="s">
+      <c r="AH32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AK31" s="17" t="s">
+      <c r="AJ32" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:37">
-      <c r="A32" s="4" t="s">
+      <c r="AK32" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-    </row>
-    <row r="33" spans="1:37">
-      <c r="A33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
     </row>
     <row r="34" spans="1:37">
       <c r="A34" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6817,26 +6890,20 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5">
-        <v>3.0</v>
-      </c>
+      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5">
-        <v>12.0</v>
-      </c>
+      <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="5">
-        <v>53.0</v>
-      </c>
+      <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5">
-        <v>32.0</v>
+        <v>50.0</v>
       </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -6855,7 +6922,7 @@
     </row>
     <row r="35" spans="1:37">
       <c r="A35" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -6866,21 +6933,27 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="5">
+        <v>3.0</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="N35" s="5">
+        <v>12.0</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5">
-        <v>30.0</v>
+        <v>53.0</v>
       </c>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
+      <c r="W35" s="5">
+        <v>32.0</v>
+      </c>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
@@ -6898,7 +6971,7 @@
     </row>
     <row r="36" spans="1:37">
       <c r="A36" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -6915,17 +6988,15 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="5">
-        <v>2.0</v>
-      </c>
+      <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="T36" s="5">
+        <v>30.0</v>
+      </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="5">
-        <v>20.0</v>
-      </c>
+      <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
@@ -6943,7 +7014,7 @@
     </row>
     <row r="37" spans="1:37">
       <c r="A37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -6960,15 +7031,17 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="5">
+        <v>2.0</v>
+      </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="5">
-        <v>9.0</v>
-      </c>
+      <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
+      <c r="W37" s="5">
+        <v>20.0</v>
+      </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
@@ -6986,7 +7059,7 @@
     </row>
     <row r="38" spans="1:37">
       <c r="A38" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -7003,12 +7076,12 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="5">
-        <v>10.0</v>
-      </c>
+      <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
+      <c r="T38" s="5">
+        <v>9.0</v>
+      </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -7028,188 +7101,186 @@
       <c r="AK38" s="5"/>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4">
-        <v>54.0</v>
-      </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4">
-        <v>299.0</v>
-      </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4">
-        <v>176.0</v>
-      </c>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4">
-        <v>76.0</v>
-      </c>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-    </row>
-    <row r="40" spans="1:37">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6">
+        <v>92.0</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6">
+        <v>102.0</v>
+      </c>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-    </row>
-    <row r="41" spans="1:37">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-    </row>
-    <row r="42" spans="1:37">
-      <c r="A42" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5">
+        <v>200.0</v>
+      </c>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
     </row>
     <row r="43" spans="1:37">
       <c r="A43" s="6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7220,33 +7291,23 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6">
-        <v>3.0</v>
-      </c>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="6">
-        <v>12.0</v>
-      </c>
+      <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="6">
-        <v>12.0</v>
-      </c>
+      <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="6">
-        <v>92.0</v>
-      </c>
+      <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6">
-        <v>102.0</v>
-      </c>
+      <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6">
-        <v>1.0</v>
+        <v>200.0</v>
       </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
@@ -7260,310 +7321,320 @@
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
     </row>
-    <row r="45" spans="1:37">
-      <c r="A45" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
+    <row r="44" spans="1:37">
+      <c r="A44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7">
+        <v>92.0</v>
+      </c>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
     </row>
     <row r="46" spans="1:37">
       <c r="A46" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="14" t="s">
-        <v>3</v>
-      </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
-      <c r="Z46" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
-      <c r="AF46" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
-      <c r="AI46" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="5"/>
     </row>
     <row r="47" spans="1:37">
-      <c r="A47" s="5"/>
-      <c r="B47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="17" t="s">
+      <c r="A47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="5"/>
+      <c r="B48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="C48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="17" t="s">
+      <c r="D48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="F48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" s="17" t="s">
+      <c r="G48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="I48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="K47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L47" s="17" t="s">
+      <c r="J48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="M47" s="17" t="s">
+      <c r="L48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="N47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="O47" s="17" t="s">
+      <c r="M48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="N48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="P47" s="17" t="s">
+      <c r="O48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Q47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="R47" s="17" t="s">
+      <c r="P48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="S47" s="17" t="s">
+      <c r="R48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="T47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="U47" s="17" t="s">
+      <c r="S48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="T48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="V47" s="17" t="s">
+      <c r="U48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="W47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="X47" s="17" t="s">
+      <c r="V48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="W48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="Y47" s="17" t="s">
+      <c r="X48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Z47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA47" s="17" t="s">
+      <c r="Y48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AB47" s="17" t="s">
+      <c r="AA48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AC47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD47" s="17" t="s">
+      <c r="AB48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AE47" s="17" t="s">
+      <c r="AD48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AF47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG47" s="17" t="s">
+      <c r="AE48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AH47" s="17" t="s">
+      <c r="AG48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AI47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ47" s="17" t="s">
+      <c r="AH48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI48" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AK47" s="17" t="s">
+      <c r="AJ48" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" spans="1:37">
-      <c r="A48" s="4" t="s">
+      <c r="AK48" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
-      <c r="AK48" s="4"/>
-    </row>
-    <row r="49" spans="1:37">
-      <c r="A49" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
     </row>
     <row r="50" spans="1:37">
       <c r="A50" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7586,12 +7657,12 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
-      <c r="W50" s="5">
-        <v>40.0</v>
-      </c>
+      <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="Z50" s="5">
+        <v>10.0</v>
+      </c>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -7606,7 +7677,7 @@
     </row>
     <row r="51" spans="1:37">
       <c r="A51" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -7620,20 +7691,18 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5">
-        <v>6.0</v>
-      </c>
+      <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="T51" s="5">
-        <v>35.0</v>
-      </c>
+      <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
+      <c r="W51" s="5">
+        <v>40.0</v>
+      </c>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
@@ -7651,7 +7720,7 @@
     </row>
     <row r="52" spans="1:37">
       <c r="A52" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -7665,27 +7734,23 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5">
+        <v>6.0</v>
+      </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="5">
-        <v>10.0</v>
-      </c>
+      <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
-      <c r="W52" s="5">
-        <v>23.0</v>
-      </c>
+      <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
-      <c r="Z52" s="5">
-        <v>5.0</v>
-      </c>
+      <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -7700,7 +7765,7 @@
     </row>
     <row r="53" spans="1:37">
       <c r="A53" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -7717,18 +7782,24 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="5">
+        <v>10.0</v>
+      </c>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
+      <c r="W53" s="5">
+        <v>23.0</v>
+      </c>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="Z53" s="5">
+        <v>5.0</v>
+      </c>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -7742,188 +7813,186 @@
       <c r="AK53" s="5"/>
     </row>
     <row r="54" spans="1:37">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+    </row>
+    <row r="55" spans="1:37">
+      <c r="A55" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4">
-        <v>54.0</v>
-      </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4">
-        <v>299.0</v>
-      </c>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4">
-        <v>176.0</v>
-      </c>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4">
-        <v>76.0</v>
-      </c>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="4"/>
-      <c r="AH54" s="4"/>
-      <c r="AI54" s="4"/>
-      <c r="AJ54" s="4"/>
-      <c r="AK54" s="4"/>
-    </row>
-    <row r="55" spans="1:37">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6">
+        <v>57.0</v>
+      </c>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6">
+        <v>63.0</v>
+      </c>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+    </row>
+    <row r="56" spans="1:37">
+      <c r="A56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-    </row>
-    <row r="56" spans="1:37">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+    </row>
+    <row r="57" spans="1:37">
+      <c r="A57" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-    </row>
-    <row r="57" spans="1:37">
-      <c r="A57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5">
+        <v>200.0</v>
+      </c>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -7937,28 +8006,20 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="6">
-        <v>6.0</v>
-      </c>
+      <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
-      <c r="Q58" s="6">
-        <v>10.0</v>
-      </c>
+      <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="6">
-        <v>57.0</v>
-      </c>
+      <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-      <c r="W58" s="6">
-        <v>63.0</v>
-      </c>
+      <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6">
-        <v>16.0</v>
+        <v>200.0</v>
       </c>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
@@ -7971,6 +8032,57 @@
       <c r="AI58" s="6"/>
       <c r="AJ58" s="6"/>
       <c r="AK58" s="6"/>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="A59" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7">
+        <v>63.0</v>
+      </c>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7">
+        <v>215.0</v>
+      </c>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -7987,32 +8099,32 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="A29:AK29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="AI30:AK30"/>
-    <mergeCell ref="A45:AK45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="A30:AK30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AI31:AK31"/>
+    <mergeCell ref="A46:AK46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compras/gerar_relatorio_fornecedores_2024.xlsx
+++ b/compras/gerar_relatorio_fornecedores_2024.xlsx
@@ -545,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,6 +563,9 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -573,6 +576,15 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -4023,7 +4035,7 @@
       </c>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B140" s="5"/>
@@ -4041,46 +4053,46 @@
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="D141" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="E141" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F141" s="15" t="s">
+      <c r="F141" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G141" s="15" t="s">
+      <c r="G141" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H141" s="15" t="s">
+      <c r="H141" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I141" s="15" t="s">
+      <c r="I141" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J141" s="15" t="s">
+      <c r="J141" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K141" s="15" t="s">
+      <c r="K141" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L141" s="15" t="s">
+      <c r="L141" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M141" s="15" t="s">
+      <c r="M141" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N141" s="15" t="s">
+      <c r="N141" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4362,7 +4374,9 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
+      <c r="J154" s="8">
+        <v>1990.0</v>
+      </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
@@ -4382,7 +4396,9 @@
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
+      <c r="J155" s="9">
+        <v>1990.0</v>
+      </c>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
@@ -4611,7 +4627,7 @@
         <v>18677.34</v>
       </c>
       <c r="J166" s="10">
-        <v>3866.23</v>
+        <v>5856.23</v>
       </c>
       <c r="K166" s="10">
         <v>55.6</v>
@@ -4619,11 +4635,11 @@
       <c r="L166" s="10"/>
       <c r="M166" s="10"/>
       <c r="N166" s="12">
-        <v>92936.49</v>
+        <v>94926.49</v>
       </c>
     </row>
     <row r="168" spans="1:16">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B168" s="5"/>
@@ -4641,46 +4657,46 @@
       <c r="N168" s="5"/>
     </row>
     <row r="169" spans="1:16">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="15" t="s">
+      <c r="D169" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="15" t="s">
+      <c r="E169" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F169" s="15" t="s">
+      <c r="F169" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G169" s="15" t="s">
+      <c r="G169" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H169" s="15" t="s">
+      <c r="H169" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I169" s="15" t="s">
+      <c r="I169" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J169" s="15" t="s">
+      <c r="J169" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K169" s="15" t="s">
+      <c r="K169" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L169" s="15" t="s">
+      <c r="L169" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M169" s="15" t="s">
+      <c r="M169" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N169" s="15" t="s">
+      <c r="N169" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4949,7 +4965,7 @@
       </c>
     </row>
     <row r="183" spans="1:16">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B183" s="5"/>
@@ -4967,46 +4983,46 @@
       <c r="N183" s="5"/>
     </row>
     <row r="184" spans="1:16">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="15" t="s">
+      <c r="C184" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D184" s="15" t="s">
+      <c r="D184" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E184" s="15" t="s">
+      <c r="E184" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F184" s="15" t="s">
+      <c r="F184" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G184" s="15" t="s">
+      <c r="G184" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H184" s="15" t="s">
+      <c r="H184" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I184" s="15" t="s">
+      <c r="I184" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J184" s="15" t="s">
+      <c r="J184" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K184" s="15" t="s">
+      <c r="K184" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L184" s="15" t="s">
+      <c r="L184" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M184" s="15" t="s">
+      <c r="M184" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N184" s="15" t="s">
+      <c r="N184" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5256,16 +5272,16 @@
       <c r="A198" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B198" s="17">
         <v>278781.39</v>
       </c>
     </row>
     <row r="199" spans="1:16">
-      <c r="A199" s="13" t="s">
+      <c r="A199" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B199" s="17">
-        <v>133533.41</v>
+      <c r="B199" s="18">
+        <v>135523.41</v>
       </c>
     </row>
   </sheetData>
@@ -5291,228 +5307,262 @@
   <dimension ref="A1:AK59"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:AK59"/>
+      <selection activeCell="AK59" sqref="AK59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="55.272" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.10" style="13"/>
+    <col min="4" max="4" width="9.10" style="13"/>
+    <col min="5" max="5" width="9.10" style="13"/>
+    <col min="6" max="6" width="9.10" style="13"/>
+    <col min="7" max="7" width="9.10" style="13"/>
+    <col min="8" max="8" width="9.10" style="13"/>
+    <col min="9" max="9" width="9.10" style="13"/>
+    <col min="11" max="11" width="9.10" style="13"/>
+    <col min="12" max="12" width="9.10" style="13"/>
+    <col min="13" max="13" width="9.10" style="13"/>
+    <col min="14" max="14" width="9.10" style="13"/>
+    <col min="15" max="15" width="9.10" style="13"/>
+    <col min="16" max="16" width="9.10" style="13"/>
+    <col min="17" max="17" width="9.10" style="13"/>
+    <col min="18" max="18" width="9.10" style="13"/>
+    <col min="19" max="19" width="9.10" style="13"/>
+    <col min="20" max="20" width="9.10" style="13"/>
+    <col min="21" max="21" width="9.10" style="13"/>
+    <col min="22" max="22" width="9.10" style="13"/>
+    <col min="23" max="23" width="9.10" style="13"/>
+    <col min="24" max="24" width="9.10" style="13"/>
+    <col min="25" max="25" width="9.10" style="13"/>
+    <col min="26" max="26" width="9.10" style="13"/>
+    <col min="27" max="27" width="9.10" style="13"/>
+    <col min="28" max="28" width="9.10" style="13"/>
+    <col min="29" max="29" width="9.10" style="13"/>
+    <col min="30" max="30" width="9.10" style="13"/>
+    <col min="31" max="31" width="9.10" style="13"/>
+    <col min="32" max="32" width="9.10" style="13"/>
+    <col min="33" max="33" width="9.10" style="13"/>
+    <col min="34" max="34" width="9.10" style="13"/>
+    <col min="35" max="35" width="9.10" style="13"/>
+    <col min="36" max="36" width="9.10" style="13"/>
+    <col min="37" max="37" width="9.10" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="15" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="15" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="15" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="15" t="s">
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="15" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="15" t="s">
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="5"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AF3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AG3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AI3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AJ3" s="18" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AK3" s="18" t="s">
+      <c r="AK3" s="19" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5520,1319 +5570,1323 @@
       <c r="A4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19">
         <v>20.0</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19">
         <v>50.0</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19">
         <v>20.0</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19">
         <v>70.0</v>
       </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>20.0</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19">
         <v>110.0</v>
       </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5">
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19">
         <v>5.0</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="K10" s="19">
         <v>5.0</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19">
         <v>28.0</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5">
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19">
         <v>50.0</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5">
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19">
         <v>58.0</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5">
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19">
         <v>101.0</v>
       </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5">
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19">
         <v>11.0</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19">
         <v>100.0</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19">
         <v>1.0</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5">
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19">
         <v>4.0</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19">
         <v>6.0</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5">
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19">
         <v>30.0</v>
       </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
+      <c r="K14" s="21">
         <v>5.0</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6">
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21">
         <v>54.0</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6">
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21">
         <v>70.0</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6">
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21">
         <v>299.0</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6">
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21">
         <v>176.0</v>
       </c>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6">
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21">
         <v>85.0</v>
       </c>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21">
+        <v>1000.0</v>
+      </c>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19">
         <v>1.0</v>
       </c>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6">
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21">
         <v>1.0</v>
       </c>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5">
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19">
         <v>3.0</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6">
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21">
         <v>3.0</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5">
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19">
         <v>1.0</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19">
         <v>1.0</v>
       </c>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6">
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21">
         <v>1.0</v>
       </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6">
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21">
         <v>1.0</v>
       </c>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7">
+      <c r="K28" s="22">
         <v>5.0</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7">
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22">
         <v>57.0</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7">
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22">
         <v>71.0</v>
       </c>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7">
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22">
         <v>300.0</v>
       </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7">
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22">
         <v>176.0</v>
       </c>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7">
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22">
+        <v>1085.0</v>
+      </c>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22">
         <v>1.0</v>
       </c>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
-      <c r="AK28" s="7"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="15" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="15" t="s">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="15" t="s">
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="15" t="s">
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="15" t="s">
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="15" t="s">
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="15" t="s">
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="15" t="s">
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="15" t="s">
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="5"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="O32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Q32" s="18" t="s">
+      <c r="Q32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="R32" s="18" t="s">
+      <c r="R32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="S32" s="18" t="s">
+      <c r="S32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="T32" s="18" t="s">
+      <c r="T32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="U32" s="18" t="s">
+      <c r="U32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="V32" s="18" t="s">
+      <c r="V32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="W32" s="18" t="s">
+      <c r="W32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="X32" s="18" t="s">
+      <c r="X32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="Y32" s="18" t="s">
+      <c r="Y32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Z32" s="18" t="s">
+      <c r="Z32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AA32" s="18" t="s">
+      <c r="AA32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AB32" s="18" t="s">
+      <c r="AB32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AC32" s="18" t="s">
+      <c r="AC32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AD32" s="18" t="s">
+      <c r="AD32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AE32" s="18" t="s">
+      <c r="AE32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AF32" s="18" t="s">
+      <c r="AF32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AG32" s="18" t="s">
+      <c r="AG32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AH32" s="18" t="s">
+      <c r="AH32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AI32" s="18" t="s">
+      <c r="AI32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AJ32" s="18" t="s">
+      <c r="AJ32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AK32" s="18" t="s">
+      <c r="AK32" s="19" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6840,754 +6894,754 @@
       <c r="A33" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
     </row>
     <row r="34" spans="1:37">
       <c r="A34" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19">
         <v>50.0</v>
       </c>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37">
       <c r="A35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5">
+      <c r="K35" s="19">
         <v>3.0</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19">
         <v>12.0</v>
       </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5">
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19">
         <v>53.0</v>
       </c>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5">
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19">
         <v>32.0</v>
       </c>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37">
       <c r="A36" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5">
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19">
         <v>30.0</v>
       </c>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37">
       <c r="A37" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19">
         <v>2.0</v>
       </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5">
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19">
         <v>20.0</v>
       </c>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37">
       <c r="A38" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5">
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19">
         <v>9.0</v>
       </c>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37">
       <c r="A39" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5">
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19">
         <v>10.0</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37">
       <c r="A40" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6">
+      <c r="K40" s="21">
         <v>3.0</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6">
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21">
         <v>12.0</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6">
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21">
         <v>12.0</v>
       </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6">
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21">
         <v>92.0</v>
       </c>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6">
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21">
         <v>102.0</v>
       </c>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
     </row>
     <row r="41" spans="1:37">
       <c r="A41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
     </row>
     <row r="42" spans="1:37">
       <c r="A42" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5">
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19">
         <v>200.0</v>
       </c>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37">
       <c r="A43" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6">
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21">
         <v>200.0</v>
       </c>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
     </row>
     <row r="44" spans="1:37">
       <c r="A44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="7">
+      <c r="K44" s="22">
         <v>3.0</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7">
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22">
         <v>12.0</v>
       </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7">
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22">
         <v>12.0</v>
       </c>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7">
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22">
         <v>92.0</v>
       </c>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7">
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22">
         <v>102.0</v>
       </c>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7">
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22">
         <v>200.0</v>
       </c>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="7"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
     </row>
     <row r="46" spans="1:37">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="15" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="15" t="s">
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="15" t="s">
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="15" t="s">
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="15" t="s">
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="15" t="s">
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="15" t="s">
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="15" t="s">
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="15" t="s">
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37">
       <c r="A48" s="5"/>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="K48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="L48" s="18" t="s">
+      <c r="L48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="M48" s="18" t="s">
+      <c r="M48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="N48" s="18" t="s">
+      <c r="N48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="O48" s="18" t="s">
+      <c r="O48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="P48" s="18" t="s">
+      <c r="P48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Q48" s="18" t="s">
+      <c r="Q48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="R48" s="18" t="s">
+      <c r="R48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="S48" s="18" t="s">
+      <c r="S48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="T48" s="18" t="s">
+      <c r="T48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="U48" s="18" t="s">
+      <c r="U48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="V48" s="18" t="s">
+      <c r="V48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="W48" s="18" t="s">
+      <c r="W48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="X48" s="18" t="s">
+      <c r="X48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="Y48" s="18" t="s">
+      <c r="Y48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Z48" s="18" t="s">
+      <c r="Z48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AA48" s="18" t="s">
+      <c r="AA48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AB48" s="18" t="s">
+      <c r="AB48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AC48" s="18" t="s">
+      <c r="AC48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AD48" s="18" t="s">
+      <c r="AD48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AE48" s="18" t="s">
+      <c r="AE48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AF48" s="18" t="s">
+      <c r="AF48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AG48" s="18" t="s">
+      <c r="AG48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AH48" s="18" t="s">
+      <c r="AH48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AI48" s="18" t="s">
+      <c r="AI48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AJ48" s="18" t="s">
+      <c r="AJ48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AK48" s="18" t="s">
+      <c r="AK48" s="19" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7595,494 +7649,494 @@
       <c r="A49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
-      <c r="AJ49" s="4"/>
-      <c r="AK49" s="4"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
     </row>
     <row r="50" spans="1:37">
       <c r="A50" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5">
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19">
         <v>10.0</v>
       </c>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37">
       <c r="A51" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5">
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19">
         <v>40.0</v>
       </c>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37">
       <c r="A52" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5">
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19">
         <v>6.0</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5">
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19">
         <v>35.0</v>
       </c>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37">
       <c r="A53" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5">
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19">
         <v>10.0</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5">
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19">
         <v>12.0</v>
       </c>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5">
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19">
         <v>23.0</v>
       </c>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5">
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19">
         <v>5.0</v>
       </c>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37">
       <c r="A54" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5">
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19">
         <v>10.0</v>
       </c>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37">
       <c r="A55" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6">
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21">
         <v>6.0</v>
       </c>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6">
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21">
         <v>10.0</v>
       </c>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6">
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21">
         <v>57.0</v>
       </c>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6">
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21">
         <v>63.0</v>
       </c>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6">
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21">
         <v>15.0</v>
       </c>
-      <c r="AA55" s="6"/>
-      <c r="AB55" s="6"/>
-      <c r="AC55" s="6"/>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="6"/>
-      <c r="AH55" s="6"/>
-      <c r="AI55" s="6"/>
-      <c r="AJ55" s="6"/>
-      <c r="AK55" s="6"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
     </row>
     <row r="56" spans="1:37">
       <c r="A56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
-      <c r="AI56" s="4"/>
-      <c r="AJ56" s="4"/>
-      <c r="AK56" s="4"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="20"/>
     </row>
     <row r="57" spans="1:37">
       <c r="A57" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5">
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19">
         <v>200.0</v>
       </c>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6">
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21">
         <v>200.0</v>
       </c>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="21"/>
     </row>
     <row r="59" spans="1:37">
       <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
       <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7">
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22">
         <v>6.0</v>
       </c>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7">
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22">
         <v>10.0</v>
       </c>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7">
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22">
         <v>57.0</v>
       </c>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7">
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22">
         <v>63.0</v>
       </c>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7">
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22">
         <v>215.0</v>
       </c>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="7"/>
-      <c r="AJ59" s="7"/>
-      <c r="AK59" s="7"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="22"/>
+      <c r="AI59" s="22"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/compras/gerar_relatorio_fornecedores_2024.xlsx
+++ b/compras/gerar_relatorio_fornecedores_2024.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA PARQUE - 2024</t>
   </si>
@@ -366,7 +366,7 @@
     <t>Rob Sol Industria Ltda</t>
   </si>
   <si>
-    <t>Suntech Supplies Ind Com Prod Oticos</t>
+    <t>Suntech Supplies Ind E Com De Produtos Oticos E Esp Ltda</t>
   </si>
   <si>
     <t>TOTAL ARMAçõES:</t>
@@ -418,6 +418,69 @@
   </si>
   <si>
     <t>EST</t>
+  </si>
+  <si>
+    <t>Alcides Rubens Volci Me</t>
+  </si>
+  <si>
+    <t>Antonio Sergio Toffano Me</t>
+  </si>
+  <si>
+    <t>Arauky Ltda</t>
+  </si>
+  <si>
+    <t>Avoda Acessorios Ltda Me</t>
+  </si>
+  <si>
+    <t>D.b. De Oliveira Com Prod Oticos Vest Perfumaria</t>
+  </si>
+  <si>
+    <t>Joao Ricardo Martins Soria</t>
+  </si>
+  <si>
+    <t>Jr Adamver Ind E Com De Prod Oticos Ltda</t>
+  </si>
+  <si>
+    <t>Jrbf Industria De Produtos Opticos Ltda</t>
+  </si>
+  <si>
+    <t>Ju B3 Distribuidora De Produtos Opticos Ltda</t>
+  </si>
+  <si>
+    <t>Jub Distribuidora De Produtos Opticos Sociedade Unipessoal Limitado</t>
+  </si>
+  <si>
+    <t>Jub2 Distribuidora De Produtos Opticos Sociedade Unipessoal Limitado</t>
+  </si>
+  <si>
+    <t>Keyper Produtos Oticos Ltda</t>
+  </si>
+  <si>
+    <t>Marcolin Do Brasil Com Prods Oticos Ltda</t>
+  </si>
+  <si>
+    <t>Master Glasses Industria E Comercio Ltda</t>
+  </si>
+  <si>
+    <t>Maxhom Ltda</t>
+  </si>
+  <si>
+    <t>Mso Industria De Produtos Oticos Ltda</t>
+  </si>
+  <si>
+    <t>Polar Ipanema Com Atac. De Oculos Eireli</t>
+  </si>
+  <si>
+    <t>Safilo Do Brasil Ltda</t>
+  </si>
+  <si>
+    <t>Smrb Comercio E Ump De Produtos Opticos Ltda</t>
+  </si>
+  <si>
+    <t>Syscolor Comercio E Servicos Ltda</t>
+  </si>
+  <si>
+    <t>Wilvale De Rigo S/a</t>
   </si>
   <si>
     <t>RELATORIO QUANTIDADE ÓTICA PRESTIGIO - 2024</t>
@@ -545,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,6 +624,7 @@
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -894,7 +958,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="55.272" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="67.127" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -1010,7 +1074,9 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="N4" s="11">
+        <v>1301.4</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
@@ -1030,7 +1096,9 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="N5" s="11">
+        <v>81.6</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
@@ -1052,7 +1120,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <v>1383.0</v>
       </c>
     </row>
@@ -1096,7 +1164,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="11">
+        <v>2232.8</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
@@ -1120,7 +1190,9 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="11">
+        <v>2127.11</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
@@ -1140,7 +1212,9 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="11">
+        <v>485.8</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
@@ -1168,7 +1242,9 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="11">
+        <v>2045.68</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
@@ -1198,7 +1274,9 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="11">
+        <v>15823.02</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
@@ -1218,7 +1296,9 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="N13" s="11">
+        <v>425.0</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="5" t="s">
@@ -1244,7 +1324,9 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="11">
+        <v>1102.4</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
@@ -1274,7 +1356,9 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="11">
+        <v>15128.87</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="6" t="s">
@@ -1304,7 +1388,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="11">
+      <c r="N16" s="12">
         <v>39370.68</v>
       </c>
     </row>
@@ -1348,7 +1432,9 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="N18" s="11">
+        <v>7540.0</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
@@ -1368,7 +1454,9 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="N19" s="11">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
@@ -1394,7 +1482,9 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="11">
+        <v>4461.0</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
@@ -1416,7 +1506,9 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="11">
+        <v>7766.0</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="5" t="s">
@@ -1438,7 +1530,9 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="N22" s="11">
+        <v>2258.37</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
@@ -1466,7 +1560,9 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="11">
+        <v>99905.41</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="6" t="s">
@@ -1496,7 +1592,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="11">
+      <c r="N24" s="12">
         <v>121950.78</v>
       </c>
     </row>
@@ -1536,7 +1632,9 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="11">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
@@ -1556,7 +1654,9 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="11">
+        <v>135.79</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="5" t="s">
@@ -1576,7 +1676,9 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="11">
+        <v>419.69</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="5" t="s">
@@ -1596,7 +1698,9 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="11">
+        <v>26.9</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">
@@ -1616,7 +1720,9 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="11">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="5" t="s">
@@ -1644,7 +1750,9 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="11">
+        <v>4148.68</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="5" t="s">
@@ -1664,7 +1772,9 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="N32" s="11">
+        <v>221.9</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="6" t="s">
@@ -1694,7 +1804,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="11">
+      <c r="N33" s="12">
         <v>5202.06</v>
       </c>
     </row>
@@ -1734,7 +1844,9 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="N35" s="11">
+        <v>4200.0</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
@@ -1754,7 +1866,9 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="11">
+        <v>219.99</v>
+      </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="5" t="s">
@@ -1774,7 +1888,9 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="N37" s="11">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="5" t="s">
@@ -1794,7 +1910,9 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="N38" s="11">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="5" t="s">
@@ -1814,7 +1932,9 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="N39" s="11">
+        <v>614.0</v>
+      </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="5" t="s">
@@ -1834,7 +1954,9 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="N40" s="11">
+        <v>419.83</v>
+      </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="6" t="s">
@@ -1860,7 +1982,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="11">
+      <c r="N41" s="12">
         <v>5637.72</v>
       </c>
     </row>
@@ -1900,7 +2022,9 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="N43" s="11">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="5" t="s">
@@ -1920,7 +2044,9 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="N44" s="11">
+        <v>1020.0</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="5" t="s">
@@ -1946,7 +2072,9 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="N45" s="11">
+        <v>6142.88</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="5" t="s">
@@ -1966,7 +2094,9 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="N46" s="11">
+        <v>68.3</v>
+      </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="5" t="s">
@@ -1988,7 +2118,9 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="N47" s="11">
+        <v>367.81</v>
+      </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="5" t="s">
@@ -2010,7 +2142,9 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="N48" s="11">
+        <v>1120.0</v>
+      </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="5" t="s">
@@ -2030,7 +2164,9 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="N49" s="11">
+        <v>529.98</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="5" t="s">
@@ -2052,7 +2188,9 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="N50" s="11">
+        <v>347.1</v>
+      </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="5" t="s">
@@ -2074,7 +2212,9 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
+      <c r="N51" s="11">
+        <v>240.0</v>
+      </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="6" t="s">
@@ -2102,7 +2242,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="11">
+      <c r="N52" s="12">
         <v>9866.07</v>
       </c>
     </row>
@@ -2142,7 +2282,9 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+      <c r="N54" s="11">
+        <v>2600.0</v>
+      </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="5" t="s">
@@ -2162,7 +2304,9 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="N55" s="11">
+        <v>52.63</v>
+      </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
@@ -2190,7 +2334,9 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="N56" s="11">
+        <v>3697.1</v>
+      </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="5" t="s">
@@ -2216,7 +2362,9 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
+      <c r="N57" s="11">
+        <v>3051.72</v>
+      </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="5" t="s">
@@ -2236,7 +2384,9 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="N58" s="11">
+        <v>207.71</v>
+      </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="5" t="s">
@@ -2262,7 +2412,9 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="N59" s="11">
+        <v>2169.44</v>
+      </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="5" t="s">
@@ -2282,7 +2434,9 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="N60" s="11">
+        <v>661.65</v>
+      </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="5" t="s">
@@ -2302,7 +2456,9 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
+      <c r="N61" s="11">
+        <v>414.72</v>
+      </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
@@ -2322,7 +2478,9 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
+      <c r="N62" s="11">
+        <v>355.3</v>
+      </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="5" t="s">
@@ -2342,7 +2500,9 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="N63" s="11">
+        <v>846.0</v>
+      </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="5" t="s">
@@ -2362,7 +2522,9 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="N64" s="11">
+        <v>423.0</v>
+      </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="5" t="s">
@@ -2382,7 +2544,9 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
+      <c r="N65" s="11">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="5" t="s">
@@ -2402,7 +2566,9 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
+      <c r="N66" s="11">
+        <v>1512.5</v>
+      </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="5" t="s">
@@ -2426,7 +2592,9 @@
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
+      <c r="N67" s="11">
+        <v>1315.0</v>
+      </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
@@ -2448,7 +2616,9 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
+      <c r="N68" s="11">
+        <v>1413.32</v>
+      </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="5" t="s">
@@ -2468,7 +2638,9 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="N69" s="11">
+        <v>37.95</v>
+      </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="5" t="s">
@@ -2488,7 +2660,9 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+      <c r="N70" s="11">
+        <v>84.16</v>
+      </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="5" t="s">
@@ -2508,7 +2682,9 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="N71" s="11">
+        <v>188.07</v>
+      </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="5" t="s">
@@ -2534,7 +2710,9 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="N72" s="11">
+        <v>5640.67</v>
+      </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="5" t="s">
@@ -2554,7 +2732,9 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="N73" s="11">
+        <v>74.0</v>
+      </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="5" t="s">
@@ -2574,7 +2754,9 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="N74" s="11">
+        <v>184.12</v>
+      </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="5" t="s">
@@ -2594,7 +2776,9 @@
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="N75" s="11">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="5" t="s">
@@ -2614,7 +2798,9 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="N76" s="11">
+        <v>613.5</v>
+      </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="5" t="s">
@@ -2638,7 +2824,9 @@
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
+      <c r="N77" s="11">
+        <v>2382.65</v>
+      </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="5" t="s">
@@ -2658,7 +2846,9 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
+      <c r="N78" s="11">
+        <v>33.6</v>
+      </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="5" t="s">
@@ -2680,7 +2870,9 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
+      <c r="N79" s="11">
+        <v>3388.84</v>
+      </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="5" t="s">
@@ -2700,7 +2892,9 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
+      <c r="N80" s="11">
+        <v>107.8</v>
+      </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="5" t="s">
@@ -2722,7 +2916,9 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
+      <c r="N81" s="11">
+        <v>2800.0</v>
+      </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="5" t="s">
@@ -2742,7 +2938,9 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
+      <c r="N82" s="11">
+        <v>180.0</v>
+      </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="5" t="s">
@@ -2768,7 +2966,9 @@
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
+      <c r="N83" s="11">
+        <v>3421.0</v>
+      </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="6" t="s">
@@ -2798,7 +2998,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
-      <c r="N84" s="11">
+      <c r="N84" s="12">
         <v>38027.25</v>
       </c>
     </row>
@@ -2838,7 +3038,9 @@
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
+      <c r="N86" s="11">
+        <v>240.75</v>
+      </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="5" t="s">
@@ -2864,7 +3066,9 @@
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
+      <c r="N87" s="11">
+        <v>2087.7</v>
+      </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="5" t="s">
@@ -2884,7 +3088,9 @@
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
+      <c r="N88" s="11">
+        <v>139.25</v>
+      </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="5" t="s">
@@ -2910,7 +3116,9 @@
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
+      <c r="N89" s="11">
+        <v>8916.3</v>
+      </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="5" t="s">
@@ -2930,7 +3138,9 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
+      <c r="N90" s="11">
+        <v>99.0</v>
+      </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="6" t="s">
@@ -2960,7 +3170,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
-      <c r="N91" s="11">
+      <c r="N91" s="12">
         <v>11483.0</v>
       </c>
     </row>
@@ -3000,7 +3210,9 @@
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
+      <c r="N93" s="11">
+        <v>879.56</v>
+      </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="6" t="s">
@@ -3020,7 +3232,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
-      <c r="N94" s="11">
+      <c r="N94" s="12">
         <v>879.56</v>
       </c>
     </row>
@@ -3052,7 +3264,7 @@
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
-      <c r="N95" s="12">
+      <c r="N95" s="13">
         <v>233800.12</v>
       </c>
     </row>
@@ -3158,7 +3370,9 @@
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
-      <c r="N100" s="5"/>
+      <c r="N100" s="11">
+        <v>894.56</v>
+      </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="5" t="s">
@@ -3186,7 +3400,9 @@
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
-      <c r="N101" s="5"/>
+      <c r="N101" s="11">
+        <v>3735.95</v>
+      </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="5" t="s">
@@ -3216,7 +3432,9 @@
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
-      <c r="N102" s="5"/>
+      <c r="N102" s="11">
+        <v>6017.07</v>
+      </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="5" t="s">
@@ -3246,7 +3464,9 @@
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
-      <c r="N103" s="5"/>
+      <c r="N103" s="11">
+        <v>16321.9</v>
+      </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="6" t="s">
@@ -3276,8 +3496,8 @@
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
-      <c r="N104" s="11">
-        <v>39370.68</v>
+      <c r="N104" s="12">
+        <v>26969.48</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -3316,7 +3536,9 @@
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
-      <c r="N106" s="5"/>
+      <c r="N106" s="11">
+        <v>1062.0</v>
+      </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="6" t="s">
@@ -3336,8 +3558,8 @@
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
-      <c r="N107" s="11">
-        <v>5202.06</v>
+      <c r="N107" s="12">
+        <v>1062.0</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -3380,7 +3602,9 @@
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
-      <c r="N109" s="5"/>
+      <c r="N109" s="11">
+        <v>8306.84</v>
+      </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="5" t="s">
@@ -3400,7 +3624,9 @@
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
-      <c r="N110" s="5"/>
+      <c r="N110" s="11">
+        <v>200.12</v>
+      </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="6" t="s">
@@ -3424,8 +3650,8 @@
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
-      <c r="N111" s="11">
-        <v>5637.72</v>
+      <c r="N111" s="12">
+        <v>8506.96</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -3464,7 +3690,9 @@
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
-      <c r="N113" s="5"/>
+      <c r="N113" s="11">
+        <v>174.74</v>
+      </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="5" t="s">
@@ -3484,7 +3712,9 @@
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
-      <c r="N114" s="5"/>
+      <c r="N114" s="11">
+        <v>480.0</v>
+      </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="6" t="s">
@@ -3506,8 +3736,8 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
-      <c r="N115" s="11">
-        <v>9866.07</v>
+      <c r="N115" s="12">
+        <v>654.74</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -3546,7 +3776,9 @@
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
-      <c r="N117" s="5"/>
+      <c r="N117" s="11">
+        <v>33.05</v>
+      </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="5" t="s">
@@ -3566,7 +3798,9 @@
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
-      <c r="N118" s="5"/>
+      <c r="N118" s="11">
+        <v>159.6</v>
+      </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="6" t="s">
@@ -3586,8 +3820,8 @@
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
-      <c r="N119" s="11">
-        <v>38027.25</v>
+      <c r="N119" s="12">
+        <v>192.65</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -3630,7 +3864,9 @@
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
-      <c r="N121" s="5"/>
+      <c r="N121" s="11">
+        <v>1058.9</v>
+      </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="5" t="s">
@@ -3650,7 +3886,9 @@
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
-      <c r="N122" s="5"/>
+      <c r="N122" s="11">
+        <v>354.9</v>
+      </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="6" t="s">
@@ -3676,8 +3914,8 @@
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
-      <c r="N123" s="11">
-        <v>11483.0</v>
+      <c r="N123" s="12">
+        <v>1413.8</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -3708,7 +3946,7 @@
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
-      <c r="N124" s="12">
+      <c r="N124" s="13">
         <v>38799.63</v>
       </c>
     </row>
@@ -3814,7 +4052,9 @@
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
-      <c r="N129" s="5"/>
+      <c r="N129" s="11">
+        <v>1748.65</v>
+      </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="5" t="s">
@@ -3844,7 +4084,9 @@
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
-      <c r="N130" s="5"/>
+      <c r="N130" s="11">
+        <v>2324.02</v>
+      </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="6" t="s">
@@ -3874,8 +4116,8 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
-      <c r="N131" s="11">
-        <v>39370.68</v>
+      <c r="N131" s="12">
+        <v>4072.67</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -3914,7 +4156,9 @@
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
-      <c r="N133" s="5"/>
+      <c r="N133" s="11">
+        <v>225.24</v>
+      </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="6" t="s">
@@ -3934,8 +4178,8 @@
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
-      <c r="N134" s="11">
-        <v>38027.25</v>
+      <c r="N134" s="12">
+        <v>225.24</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -3976,7 +4220,9 @@
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
-      <c r="N136" s="5"/>
+      <c r="N136" s="11">
+        <v>569.4</v>
+      </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="6" t="s">
@@ -3998,8 +4244,8 @@
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
-      <c r="N137" s="11">
-        <v>11483.0</v>
+      <c r="N137" s="12">
+        <v>569.4</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -4030,12 +4276,12 @@
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
-      <c r="N138" s="12">
+      <c r="N138" s="13">
         <v>4867.31</v>
       </c>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B140" s="5"/>
@@ -4053,46 +4299,46 @@
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="16" t="s">
+      <c r="A141" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D141" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F141" s="16" t="s">
+      <c r="F141" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H141" s="16" t="s">
+      <c r="H141" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I141" s="16" t="s">
+      <c r="I141" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J141" s="16" t="s">
+      <c r="J141" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K141" s="16" t="s">
+      <c r="K141" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L141" s="16" t="s">
+      <c r="L141" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M141" s="16" t="s">
+      <c r="M141" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N141" s="16" t="s">
+      <c r="N141" s="17" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4132,7 +4378,9 @@
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
-      <c r="N143" s="5"/>
+      <c r="N143" s="11">
+        <v>868.33</v>
+      </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="5" t="s">
@@ -4152,7 +4400,9 @@
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
-      <c r="N144" s="5"/>
+      <c r="N144" s="11">
+        <v>580.0</v>
+      </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="5" t="s">
@@ -4172,7 +4422,9 @@
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="8"/>
-      <c r="N145" s="5"/>
+      <c r="N145" s="11">
+        <v>723.0</v>
+      </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="5" t="s">
@@ -4192,7 +4444,9 @@
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
-      <c r="N146" s="5"/>
+      <c r="N146" s="11">
+        <v>2610.0</v>
+      </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="5" t="s">
@@ -4216,7 +4470,9 @@
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
-      <c r="N147" s="5"/>
+      <c r="N147" s="11">
+        <v>17048.38</v>
+      </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="5" t="s">
@@ -4246,7 +4502,9 @@
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
-      <c r="N148" s="5"/>
+      <c r="N148" s="11">
+        <v>47827.25</v>
+      </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="5" t="s">
@@ -4266,7 +4524,9 @@
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
-      <c r="N149" s="5"/>
+      <c r="N149" s="11">
+        <v>5500.0</v>
+      </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="5" t="s">
@@ -4288,7 +4548,9 @@
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
-      <c r="N150" s="5"/>
+      <c r="N150" s="11">
+        <v>7628.56</v>
+      </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="5" t="s">
@@ -4310,7 +4572,9 @@
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
-      <c r="N151" s="5"/>
+      <c r="N151" s="11">
+        <v>6455.21</v>
+      </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="6" t="s">
@@ -4340,7 +4604,9 @@
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
-      <c r="N152" s="11"/>
+      <c r="N152" s="12">
+        <v>89240.73</v>
+      </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="4" t="s">
@@ -4380,7 +4646,9 @@
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
-      <c r="N154" s="5"/>
+      <c r="N154" s="11">
+        <v>4279.2</v>
+      </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="6" t="s">
@@ -4402,7 +4670,9 @@
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
-      <c r="N155" s="11"/>
+      <c r="N155" s="12">
+        <v>4279.2</v>
+      </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="4" t="s">
@@ -4440,7 +4710,9 @@
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
-      <c r="N157" s="5"/>
+      <c r="N157" s="11">
+        <v>755.0</v>
+      </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="6" t="s">
@@ -4460,7 +4732,9 @@
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
-      <c r="N158" s="11"/>
+      <c r="N158" s="12">
+        <v>755.0</v>
+      </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="4" t="s">
@@ -4498,7 +4772,9 @@
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
-      <c r="N160" s="5"/>
+      <c r="N160" s="11">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="6" t="s">
@@ -4518,8 +4794,8 @@
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
-      <c r="N161" s="11">
-        <v>39370.68</v>
+      <c r="N161" s="12">
+        <v>500.0</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -4558,7 +4834,9 @@
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
-      <c r="N163" s="5"/>
+      <c r="N163" s="11">
+        <v>95.96</v>
+      </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="5" t="s">
@@ -4578,7 +4856,9 @@
       </c>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
-      <c r="N164" s="5"/>
+      <c r="N164" s="11">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="6" t="s">
@@ -4600,8 +4880,8 @@
       </c>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
-      <c r="N165" s="11">
-        <v>9866.07</v>
+      <c r="N165" s="12">
+        <v>151.56</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -4634,12 +4914,12 @@
       </c>
       <c r="L166" s="10"/>
       <c r="M166" s="10"/>
-      <c r="N166" s="12">
+      <c r="N166" s="13">
         <v>94926.49</v>
       </c>
     </row>
     <row r="168" spans="1:16">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B168" s="5"/>
@@ -4657,46 +4937,46 @@
       <c r="N168" s="5"/>
     </row>
     <row r="169" spans="1:16">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C169" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="16" t="s">
+      <c r="D169" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F169" s="16" t="s">
+      <c r="F169" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G169" s="16" t="s">
+      <c r="G169" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H169" s="16" t="s">
+      <c r="H169" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I169" s="16" t="s">
+      <c r="I169" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J169" s="16" t="s">
+      <c r="J169" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K169" s="16" t="s">
+      <c r="K169" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L169" s="16" t="s">
+      <c r="L169" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M169" s="16" t="s">
+      <c r="M169" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N169" s="16" t="s">
+      <c r="N169" s="17" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4736,7 +5016,9 @@
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
-      <c r="N171" s="5"/>
+      <c r="N171" s="11">
+        <v>1800.0</v>
+      </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="5" t="s">
@@ -4762,7 +5044,9 @@
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
-      <c r="N172" s="5"/>
+      <c r="N172" s="11">
+        <v>15084.57</v>
+      </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="5" t="s">
@@ -4782,7 +5066,9 @@
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
-      <c r="N173" s="5"/>
+      <c r="N173" s="11">
+        <v>1650.0</v>
+      </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="5" t="s">
@@ -4804,7 +5090,9 @@
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
-      <c r="N174" s="5"/>
+      <c r="N174" s="11">
+        <v>4313.94</v>
+      </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="5" t="s">
@@ -4824,7 +5112,9 @@
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
-      <c r="N175" s="5"/>
+      <c r="N175" s="11">
+        <v>1568.72</v>
+      </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="5" t="s">
@@ -4844,7 +5134,9 @@
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
-      <c r="N176" s="5"/>
+      <c r="N176" s="11">
+        <v>399.0</v>
+      </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="6" t="s">
@@ -4872,7 +5164,9 @@
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
-      <c r="N177" s="11"/>
+      <c r="N177" s="12">
+        <v>24816.23</v>
+      </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="4" t="s">
@@ -4910,7 +5204,9 @@
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
-      <c r="N179" s="5"/>
+      <c r="N179" s="11">
+        <v>473.01</v>
+      </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="6" t="s">
@@ -4930,7 +5226,9 @@
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
       <c r="M180" s="9"/>
-      <c r="N180" s="11"/>
+      <c r="N180" s="12">
+        <v>473.01</v>
+      </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="7" t="s">
@@ -4960,12 +5258,12 @@
       <c r="K181" s="10"/>
       <c r="L181" s="10"/>
       <c r="M181" s="10"/>
-      <c r="N181" s="12">
+      <c r="N181" s="13">
         <v>25289.24</v>
       </c>
     </row>
     <row r="183" spans="1:16">
-      <c r="A183" s="15" t="s">
+      <c r="A183" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B183" s="5"/>
@@ -4983,46 +5281,46 @@
       <c r="N183" s="5"/>
     </row>
     <row r="184" spans="1:16">
-      <c r="A184" s="16" t="s">
+      <c r="A184" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="16" t="s">
+      <c r="C184" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D184" s="16" t="s">
+      <c r="D184" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F184" s="16" t="s">
+      <c r="F184" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G184" s="16" t="s">
+      <c r="G184" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H184" s="16" t="s">
+      <c r="H184" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I184" s="16" t="s">
+      <c r="I184" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J184" s="16" t="s">
+      <c r="J184" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K184" s="16" t="s">
+      <c r="K184" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L184" s="16" t="s">
+      <c r="L184" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M184" s="16" t="s">
+      <c r="M184" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N184" s="16" t="s">
+      <c r="N184" s="17" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5062,7 +5360,9 @@
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
-      <c r="N186" s="5"/>
+      <c r="N186" s="11">
+        <v>440.0</v>
+      </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="5" t="s">
@@ -5082,7 +5382,9 @@
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
-      <c r="N187" s="5"/>
+      <c r="N187" s="11">
+        <v>1470.0</v>
+      </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="5" t="s">
@@ -5104,7 +5406,9 @@
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
       <c r="M188" s="8"/>
-      <c r="N188" s="5"/>
+      <c r="N188" s="11">
+        <v>4342.07</v>
+      </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="5" t="s">
@@ -5130,7 +5434,9 @@
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
-      <c r="N189" s="5"/>
+      <c r="N189" s="11">
+        <v>7048.76</v>
+      </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="5" t="s">
@@ -5150,7 +5456,9 @@
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
-      <c r="N190" s="5"/>
+      <c r="N190" s="11">
+        <v>1568.85</v>
+      </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" s="6" t="s">
@@ -5178,7 +5486,9 @@
       <c r="K191" s="9"/>
       <c r="L191" s="9"/>
       <c r="M191" s="9"/>
-      <c r="N191" s="11"/>
+      <c r="N191" s="12">
+        <v>14869.68</v>
+      </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="4" t="s">
@@ -5216,7 +5526,9 @@
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
-      <c r="N193" s="5"/>
+      <c r="N193" s="11">
+        <v>438.0</v>
+      </c>
     </row>
     <row r="194" spans="1:16">
       <c r="A194" s="6" t="s">
@@ -5236,7 +5548,9 @@
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
       <c r="M194" s="9"/>
-      <c r="N194" s="11"/>
+      <c r="N194" s="12">
+        <v>438.0</v>
+      </c>
     </row>
     <row r="195" spans="1:16">
       <c r="A195" s="7" t="s">
@@ -5264,7 +5578,7 @@
       <c r="K195" s="10"/>
       <c r="L195" s="10"/>
       <c r="M195" s="10"/>
-      <c r="N195" s="12">
+      <c r="N195" s="13">
         <v>15307.68</v>
       </c>
     </row>
@@ -5272,15 +5586,15 @@
       <c r="A198" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B198" s="17">
+      <c r="B198" s="18">
         <v>278781.39</v>
       </c>
     </row>
     <row r="199" spans="1:16">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B199" s="18">
+      <c r="B199" s="19">
         <v>135523.41</v>
       </c>
     </row>
@@ -5304,265 +5618,265 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK59"/>
+  <dimension ref="A1:AK132"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AK59" sqref="AK59"/>
+      <selection activeCell="AK132" sqref="AK132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="55.272" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.10" style="13"/>
-    <col min="4" max="4" width="9.10" style="13"/>
-    <col min="5" max="5" width="9.10" style="13"/>
-    <col min="6" max="6" width="9.10" style="13"/>
-    <col min="7" max="7" width="9.10" style="13"/>
-    <col min="8" max="8" width="9.10" style="13"/>
-    <col min="9" max="9" width="9.10" style="13"/>
-    <col min="11" max="11" width="9.10" style="13"/>
-    <col min="12" max="12" width="9.10" style="13"/>
-    <col min="13" max="13" width="9.10" style="13"/>
-    <col min="14" max="14" width="9.10" style="13"/>
-    <col min="15" max="15" width="9.10" style="13"/>
-    <col min="16" max="16" width="9.10" style="13"/>
-    <col min="17" max="17" width="9.10" style="13"/>
-    <col min="18" max="18" width="9.10" style="13"/>
-    <col min="19" max="19" width="9.10" style="13"/>
-    <col min="20" max="20" width="9.10" style="13"/>
-    <col min="21" max="21" width="9.10" style="13"/>
-    <col min="22" max="22" width="9.10" style="13"/>
-    <col min="23" max="23" width="9.10" style="13"/>
-    <col min="24" max="24" width="9.10" style="13"/>
-    <col min="25" max="25" width="9.10" style="13"/>
-    <col min="26" max="26" width="9.10" style="13"/>
-    <col min="27" max="27" width="9.10" style="13"/>
-    <col min="28" max="28" width="9.10" style="13"/>
-    <col min="29" max="29" width="9.10" style="13"/>
-    <col min="30" max="30" width="9.10" style="13"/>
-    <col min="31" max="31" width="9.10" style="13"/>
-    <col min="32" max="32" width="9.10" style="13"/>
-    <col min="33" max="33" width="9.10" style="13"/>
-    <col min="34" max="34" width="9.10" style="13"/>
-    <col min="35" max="35" width="9.10" style="13"/>
-    <col min="36" max="36" width="9.10" style="13"/>
-    <col min="37" max="37" width="9.10" style="13"/>
+    <col min="1" max="1" width="81.266" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.10" style="14"/>
+    <col min="4" max="4" width="9.10" style="14"/>
+    <col min="5" max="5" width="9.10" style="14"/>
+    <col min="6" max="6" width="9.10" style="14"/>
+    <col min="7" max="7" width="9.10" style="14"/>
+    <col min="8" max="8" width="9.10" style="14"/>
+    <col min="9" max="9" width="9.10" style="14"/>
+    <col min="11" max="11" width="9.10" style="14"/>
+    <col min="12" max="12" width="9.10" style="14"/>
+    <col min="13" max="13" width="9.10" style="14"/>
+    <col min="14" max="14" width="9.10" style="14"/>
+    <col min="15" max="15" width="9.10" style="14"/>
+    <col min="16" max="16" width="9.10" style="14"/>
+    <col min="17" max="17" width="9.10" style="14"/>
+    <col min="18" max="18" width="9.10" style="14"/>
+    <col min="19" max="19" width="9.10" style="14"/>
+    <col min="20" max="20" width="9.10" style="14"/>
+    <col min="21" max="21" width="9.10" style="14"/>
+    <col min="22" max="22" width="9.10" style="14"/>
+    <col min="23" max="23" width="9.10" style="14"/>
+    <col min="24" max="24" width="9.10" style="14"/>
+    <col min="25" max="25" width="9.10" style="14"/>
+    <col min="26" max="26" width="9.10" style="14"/>
+    <col min="27" max="27" width="9.10" style="14"/>
+    <col min="28" max="28" width="9.10" style="14"/>
+    <col min="29" max="29" width="9.10" style="14"/>
+    <col min="30" max="30" width="9.10" style="14"/>
+    <col min="31" max="31" width="9.10" style="14"/>
+    <col min="32" max="32" width="9.10" style="14"/>
+    <col min="33" max="33" width="9.10" style="14"/>
+    <col min="34" max="34" width="9.10" style="14"/>
+    <col min="35" max="35" width="9.10" style="14"/>
+    <col min="36" max="36" width="9.10" style="14"/>
+    <col min="37" max="37" width="9.10" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="16" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="16" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="16" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="16" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="16" t="s">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="16" t="s">
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="5"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AD3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AF3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AG3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AJ3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5570,514 +5884,474 @@
       <c r="A4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="B5" s="20"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19">
-        <v>20.0</v>
-      </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19">
-        <v>50.0</v>
-      </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="B7" s="20"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19">
-        <v>20.0</v>
-      </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="B8" s="20"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19">
-        <v>70.0</v>
-      </c>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>20.0</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19">
-        <v>110.0</v>
-      </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19">
-        <v>28.0</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19">
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20">
         <v>50.0</v>
       </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19">
-        <v>58.0</v>
-      </c>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19">
-        <v>101.0</v>
-      </c>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19">
-        <v>100.0</v>
-      </c>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="B13" s="20"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20">
+        <v>70.0</v>
+      </c>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21">
-        <v>54.0</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21">
-        <v>70.0</v>
-      </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21">
-        <v>299.0</v>
-      </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21">
-        <v>176.0</v>
-      </c>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21">
-        <v>85.0</v>
-      </c>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
+      <c r="A14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="4" t="s">
-        <v>118</v>
+      <c r="A15" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -6108,103 +6382,99 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="19"/>
+        <v>141</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21">
-        <v>1000.0</v>
-      </c>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
+      <c r="A17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="4" t="s">
-        <v>121</v>
+      <c r="A18" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -6235,103 +6505,105 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="19"/>
+        <v>144</v>
+      </c>
+      <c r="B19" s="20"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="21"/>
+      <c r="A20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20">
+        <v>110.0</v>
+      </c>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
+      <c r="A21" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -6362,103 +6634,111 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
+      <c r="K22" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20">
+        <v>58.0</v>
+      </c>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20">
+        <v>101.0</v>
+      </c>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
+      <c r="A23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
+      <c r="A24" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
@@ -6468,7 +6748,9 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
+      <c r="T24" s="20">
+        <v>100.0</v>
+      </c>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
@@ -6489,420 +6771,353 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="19"/>
+        <v>147</v>
+      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="19"/>
+        <v>148</v>
+      </c>
+      <c r="B26" s="20"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19">
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20">
         <v>1.0</v>
       </c>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-    </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="21"/>
-    </row>
-    <row r="28" spans="1:37">
-      <c r="A28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22">
-        <v>57.0</v>
-      </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22">
-        <v>71.0</v>
-      </c>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22">
-        <v>300.0</v>
-      </c>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22">
-        <v>176.0</v>
-      </c>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22">
-        <v>1085.0</v>
-      </c>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="19"/>
+      <c r="A30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="A31" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="20"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="5"/>
-      <c r="B32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="R32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="S32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="W32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="X32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK32" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="A32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20">
+        <v>6.0</v>
+      </c>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="4" t="s">
-        <v>107</v>
+      <c r="A33" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -6933,306 +7148,292 @@
     </row>
     <row r="34" spans="1:37">
       <c r="A34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="B34" s="20"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19">
-        <v>50.0</v>
-      </c>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
     </row>
     <row r="35" spans="1:37">
       <c r="A35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="B35" s="20"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19">
-        <v>53.0</v>
-      </c>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19">
-        <v>32.0</v>
-      </c>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="19"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19">
-        <v>30.0</v>
-      </c>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
+      <c r="A36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22">
+        <v>54.0</v>
+      </c>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22">
+        <v>70.0</v>
+      </c>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22">
+        <v>299.0</v>
+      </c>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22">
+        <v>176.0</v>
+      </c>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22">
+        <v>85.0</v>
+      </c>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
     </row>
     <row r="37" spans="1:37">
-      <c r="A37" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19">
-        <v>20.0</v>
-      </c>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
+      <c r="A37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
     </row>
     <row r="38" spans="1:37">
       <c r="A38" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="19"/>
+        <v>119</v>
+      </c>
+      <c r="B38" s="20"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20">
+        <v>1000.0</v>
+      </c>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
+      <c r="A39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22">
+        <v>1000.0</v>
+      </c>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
     </row>
     <row r="40" spans="1:37">
-      <c r="A40" s="6" t="s">
-        <v>117</v>
+      <c r="A40" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="21">
-        <v>3.0</v>
-      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="21">
-        <v>12.0</v>
-      </c>
+      <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
-      <c r="Q40" s="21">
-        <v>12.0</v>
-      </c>
+      <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
-      <c r="T40" s="21">
-        <v>92.0</v>
-      </c>
+      <c r="T40" s="21"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
-      <c r="W40" s="21">
-        <v>102.0</v>
-      </c>
+      <c r="W40" s="21"/>
       <c r="X40" s="21"/>
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
@@ -7249,18 +7450,18 @@
       <c r="AK40" s="21"/>
     </row>
     <row r="41" spans="1:37">
-      <c r="A41" s="4" t="s">
-        <v>121</v>
+      <c r="A41" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
@@ -7270,7 +7471,9 @@
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
+      <c r="T41" s="20">
+        <v>1.0</v>
+      </c>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
@@ -7290,61 +7493,61 @@
       <c r="AK41" s="20"/>
     </row>
     <row r="42" spans="1:37">
-      <c r="A42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19">
-        <v>200.0</v>
-      </c>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-      <c r="AK42" s="19"/>
+      <c r="A42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
     </row>
     <row r="43" spans="1:37">
-      <c r="A43" s="6" t="s">
-        <v>123</v>
+      <c r="A43" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B43" s="21"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
@@ -7360,9 +7563,7 @@
       <c r="W43" s="21"/>
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
-      <c r="Z43" s="21">
-        <v>200.0</v>
-      </c>
+      <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
       <c r="AC43" s="21"/>
@@ -7376,578 +7577,564 @@
       <c r="AK43" s="21"/>
     </row>
     <row r="44" spans="1:37">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="A45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="21"/>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22">
-        <v>12.0</v>
-      </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22">
-        <v>12.0</v>
-      </c>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22">
-        <v>92.0</v>
-      </c>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22">
-        <v>102.0</v>
-      </c>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22">
-        <v>200.0</v>
-      </c>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-    </row>
-    <row r="46" spans="1:37">
-      <c r="A46" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="19"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-    </row>
-    <row r="47" spans="1:37">
-      <c r="A47" s="16" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23">
+        <v>57.0</v>
+      </c>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23">
+        <v>71.0</v>
+      </c>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23">
+        <v>300.0</v>
+      </c>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23">
+        <v>176.0</v>
+      </c>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23">
+        <v>1085.0</v>
+      </c>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="AD50" s="23"/>
+      <c r="AE50" s="23"/>
+      <c r="AF50" s="23"/>
+      <c r="AG50" s="23"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="23"/>
+      <c r="AJ50" s="23"/>
+      <c r="AK50" s="23"/>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="A52" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="A53" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B53" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="16" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="16" t="s">
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="16" t="s">
+      <c r="I53" s="20"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="16" t="s">
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="16" t="s">
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="16" t="s">
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="16" t="s">
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="16" t="s">
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="16" t="s">
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="16" t="s">
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="16" t="s">
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-    </row>
-    <row r="48" spans="1:37">
-      <c r="A48" s="5"/>
-      <c r="B48" s="19" t="s">
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+    </row>
+    <row r="54" spans="1:37">
+      <c r="A54" s="5"/>
+      <c r="B54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="J54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="K54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="L48" s="19" t="s">
+      <c r="L54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="M48" s="19" t="s">
+      <c r="M54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="O48" s="19" t="s">
+      <c r="O54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="P48" s="19" t="s">
+      <c r="P54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="Q48" s="19" t="s">
+      <c r="Q54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R48" s="19" t="s">
+      <c r="R54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S48" s="19" t="s">
+      <c r="S54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="T48" s="19" t="s">
+      <c r="T54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="U48" s="19" t="s">
+      <c r="U54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="V48" s="19" t="s">
+      <c r="V54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="W48" s="19" t="s">
+      <c r="W54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="X48" s="19" t="s">
+      <c r="X54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="Y48" s="19" t="s">
+      <c r="Y54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="Z48" s="19" t="s">
+      <c r="Z54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AA48" s="19" t="s">
+      <c r="AA54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AB48" s="19" t="s">
+      <c r="AB54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AC48" s="19" t="s">
+      <c r="AC54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AD48" s="19" t="s">
+      <c r="AD54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE48" s="19" t="s">
+      <c r="AE54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AF48" s="19" t="s">
+      <c r="AF54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AG48" s="19" t="s">
+      <c r="AG54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AH48" s="19" t="s">
+      <c r="AH54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AI48" s="19" t="s">
+      <c r="AI54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AJ48" s="19" t="s">
+      <c r="AJ54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK48" s="19" t="s">
+      <c r="AK54" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
-      <c r="A49" s="4" t="s">
+    <row r="55" spans="1:37">
+      <c r="A55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="20"/>
-      <c r="AI49" s="20"/>
-      <c r="AJ49" s="20"/>
-      <c r="AK49" s="20"/>
-    </row>
-    <row r="50" spans="1:37">
-      <c r="A50" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
-      <c r="AH50" s="19"/>
-      <c r="AI50" s="19"/>
-      <c r="AJ50" s="19"/>
-      <c r="AK50" s="19"/>
-    </row>
-    <row r="51" spans="1:37">
-      <c r="A51" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19">
-        <v>40.0</v>
-      </c>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="19"/>
-      <c r="AI51" s="19"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-    </row>
-    <row r="52" spans="1:37">
-      <c r="A52" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19">
-        <v>35.0</v>
-      </c>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
-      <c r="AH52" s="19"/>
-      <c r="AI52" s="19"/>
-      <c r="AJ52" s="19"/>
-      <c r="AK52" s="19"/>
-    </row>
-    <row r="53" spans="1:37">
-      <c r="A53" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19">
-        <v>23.0</v>
-      </c>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-    </row>
-    <row r="54" spans="1:37">
-      <c r="A54" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="19"/>
-      <c r="AF54" s="19"/>
-      <c r="AG54" s="19"/>
-      <c r="AH54" s="19"/>
-      <c r="AI54" s="19"/>
-      <c r="AJ54" s="19"/>
-      <c r="AK54" s="19"/>
-    </row>
-    <row r="55" spans="1:37">
-      <c r="A55" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
-      <c r="J55" s="6"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
-      <c r="N55" s="21">
-        <v>6.0</v>
-      </c>
+      <c r="N55" s="21"/>
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
-      <c r="Q55" s="21">
-        <v>10.0</v>
-      </c>
+      <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
-      <c r="T55" s="21">
-        <v>57.0</v>
-      </c>
+      <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="21">
-        <v>63.0</v>
-      </c>
+      <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
-      <c r="Z55" s="21">
-        <v>15.0</v>
-      </c>
+      <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
@@ -7961,18 +8148,18 @@
       <c r="AK55" s="21"/>
     </row>
     <row r="56" spans="1:37">
-      <c r="A56" s="4" t="s">
-        <v>121</v>
+      <c r="A56" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="B56" s="20"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
@@ -8003,140 +8190,3260 @@
     </row>
     <row r="57" spans="1:37">
       <c r="A57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+    </row>
+    <row r="58" spans="1:37">
+      <c r="A58" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="20"/>
+      <c r="AI58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AK58" s="20"/>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="A59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="20"/>
+      <c r="AF59" s="20"/>
+      <c r="AG59" s="20"/>
+      <c r="AH59" s="20"/>
+      <c r="AI59" s="20"/>
+      <c r="AJ59" s="20"/>
+      <c r="AK59" s="20"/>
+    </row>
+    <row r="60" spans="1:37">
+      <c r="A60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="20"/>
+      <c r="AG60" s="20"/>
+      <c r="AH60" s="20"/>
+      <c r="AI60" s="20"/>
+      <c r="AJ60" s="20"/>
+      <c r="AK60" s="20"/>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="A61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="20"/>
+      <c r="AG61" s="20"/>
+      <c r="AH61" s="20"/>
+      <c r="AI61" s="20"/>
+      <c r="AJ61" s="20"/>
+      <c r="AK61" s="20"/>
+    </row>
+    <row r="62" spans="1:37">
+      <c r="A62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="20"/>
+      <c r="AG62" s="20"/>
+      <c r="AH62" s="20"/>
+      <c r="AI62" s="20"/>
+      <c r="AJ62" s="20"/>
+      <c r="AK62" s="20"/>
+    </row>
+    <row r="63" spans="1:37">
+      <c r="A63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
+      <c r="AG63" s="20"/>
+      <c r="AH63" s="20"/>
+      <c r="AI63" s="20"/>
+      <c r="AJ63" s="20"/>
+      <c r="AK63" s="20"/>
+    </row>
+    <row r="64" spans="1:37">
+      <c r="A64" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AH64" s="20"/>
+      <c r="AI64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AK64" s="20"/>
+    </row>
+    <row r="65" spans="1:37">
+      <c r="A65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AH65" s="20"/>
+      <c r="AI65" s="20"/>
+      <c r="AJ65" s="20"/>
+      <c r="AK65" s="20"/>
+    </row>
+    <row r="66" spans="1:37">
+      <c r="A66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20"/>
+      <c r="AI66" s="20"/>
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="20"/>
+    </row>
+    <row r="67" spans="1:37">
+      <c r="A67" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
+      <c r="AH67" s="20"/>
+      <c r="AI67" s="20"/>
+      <c r="AJ67" s="20"/>
+      <c r="AK67" s="20"/>
+    </row>
+    <row r="68" spans="1:37">
+      <c r="A68" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
+      <c r="AH68" s="20"/>
+      <c r="AI68" s="20"/>
+      <c r="AJ68" s="20"/>
+      <c r="AK68" s="20"/>
+    </row>
+    <row r="69" spans="1:37">
+      <c r="A69" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="20"/>
+      <c r="AI69" s="20"/>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="20"/>
+    </row>
+    <row r="70" spans="1:37">
+      <c r="A70" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="20"/>
+      <c r="AG70" s="20"/>
+      <c r="AH70" s="20"/>
+      <c r="AI70" s="20"/>
+      <c r="AJ70" s="20"/>
+      <c r="AK70" s="20"/>
+    </row>
+    <row r="71" spans="1:37">
+      <c r="A71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
+      <c r="AH71" s="20"/>
+      <c r="AI71" s="20"/>
+      <c r="AJ71" s="20"/>
+      <c r="AK71" s="20"/>
+    </row>
+    <row r="72" spans="1:37">
+      <c r="A72" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="20"/>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="20"/>
+      <c r="AG72" s="20"/>
+      <c r="AH72" s="20"/>
+      <c r="AI72" s="20"/>
+      <c r="AJ72" s="20"/>
+      <c r="AK72" s="20"/>
+    </row>
+    <row r="73" spans="1:37">
+      <c r="A73" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20">
+        <v>53.0</v>
+      </c>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20">
+        <v>32.0</v>
+      </c>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="20"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="20"/>
+      <c r="AH73" s="20"/>
+      <c r="AI73" s="20"/>
+      <c r="AJ73" s="20"/>
+      <c r="AK73" s="20"/>
+    </row>
+    <row r="74" spans="1:37">
+      <c r="A74" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="20"/>
+      <c r="AD74" s="20"/>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="20"/>
+      <c r="AG74" s="20"/>
+      <c r="AH74" s="20"/>
+      <c r="AI74" s="20"/>
+      <c r="AJ74" s="20"/>
+      <c r="AK74" s="20"/>
+    </row>
+    <row r="75" spans="1:37">
+      <c r="A75" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="20"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="20"/>
+      <c r="AG75" s="20"/>
+      <c r="AH75" s="20"/>
+      <c r="AI75" s="20"/>
+      <c r="AJ75" s="20"/>
+      <c r="AK75" s="20"/>
+    </row>
+    <row r="76" spans="1:37">
+      <c r="A76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="20"/>
+      <c r="AC76" s="20"/>
+      <c r="AD76" s="20"/>
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="20"/>
+      <c r="AG76" s="20"/>
+      <c r="AH76" s="20"/>
+      <c r="AI76" s="20"/>
+      <c r="AJ76" s="20"/>
+      <c r="AK76" s="20"/>
+    </row>
+    <row r="77" spans="1:37">
+      <c r="A77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20"/>
+      <c r="AA77" s="20"/>
+      <c r="AB77" s="20"/>
+      <c r="AC77" s="20"/>
+      <c r="AD77" s="20"/>
+      <c r="AE77" s="20"/>
+      <c r="AF77" s="20"/>
+      <c r="AG77" s="20"/>
+      <c r="AH77" s="20"/>
+      <c r="AI77" s="20"/>
+      <c r="AJ77" s="20"/>
+      <c r="AK77" s="20"/>
+    </row>
+    <row r="78" spans="1:37">
+      <c r="A78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="20"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="20"/>
+      <c r="AE78" s="20"/>
+      <c r="AF78" s="20"/>
+      <c r="AG78" s="20"/>
+      <c r="AH78" s="20"/>
+      <c r="AI78" s="20"/>
+      <c r="AJ78" s="20"/>
+      <c r="AK78" s="20"/>
+    </row>
+    <row r="79" spans="1:37">
+      <c r="A79" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
+      <c r="AE79" s="20"/>
+      <c r="AF79" s="20"/>
+      <c r="AG79" s="20"/>
+      <c r="AH79" s="20"/>
+      <c r="AI79" s="20"/>
+      <c r="AJ79" s="20"/>
+      <c r="AK79" s="20"/>
+    </row>
+    <row r="80" spans="1:37">
+      <c r="A80" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20">
+        <v>20.0</v>
+      </c>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20"/>
+      <c r="AA80" s="20"/>
+      <c r="AB80" s="20"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="20"/>
+      <c r="AE80" s="20"/>
+      <c r="AF80" s="20"/>
+      <c r="AG80" s="20"/>
+      <c r="AH80" s="20"/>
+      <c r="AI80" s="20"/>
+      <c r="AJ80" s="20"/>
+      <c r="AK80" s="20"/>
+    </row>
+    <row r="81" spans="1:37">
+      <c r="A81" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+      <c r="AI81" s="20"/>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="20"/>
+    </row>
+    <row r="82" spans="1:37">
+      <c r="A82" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="20"/>
+      <c r="AG82" s="20"/>
+      <c r="AH82" s="20"/>
+      <c r="AI82" s="20"/>
+      <c r="AJ82" s="20"/>
+      <c r="AK82" s="20"/>
+    </row>
+    <row r="83" spans="1:37">
+      <c r="A83" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="20"/>
+      <c r="AI83" s="20"/>
+      <c r="AJ83" s="20"/>
+      <c r="AK83" s="20"/>
+    </row>
+    <row r="84" spans="1:37">
+      <c r="A84" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="20"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="20"/>
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+    </row>
+    <row r="85" spans="1:37">
+      <c r="A85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="20"/>
+      <c r="AD85" s="20"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="20"/>
+      <c r="AG85" s="20"/>
+      <c r="AH85" s="20"/>
+      <c r="AI85" s="20"/>
+      <c r="AJ85" s="20"/>
+      <c r="AK85" s="20"/>
+    </row>
+    <row r="86" spans="1:37">
+      <c r="A86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="20"/>
+      <c r="AC86" s="20"/>
+      <c r="AD86" s="20"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="20"/>
+      <c r="AG86" s="20"/>
+      <c r="AH86" s="20"/>
+      <c r="AI86" s="20"/>
+      <c r="AJ86" s="20"/>
+      <c r="AK86" s="20"/>
+    </row>
+    <row r="87" spans="1:37">
+      <c r="A87" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22">
+        <v>12.0</v>
+      </c>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22">
+        <v>12.0</v>
+      </c>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22">
+        <v>92.0</v>
+      </c>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22">
+        <v>102.0</v>
+      </c>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="22"/>
+      <c r="AD87" s="22"/>
+      <c r="AE87" s="22"/>
+      <c r="AF87" s="22"/>
+      <c r="AG87" s="22"/>
+      <c r="AH87" s="22"/>
+      <c r="AI87" s="22"/>
+      <c r="AJ87" s="22"/>
+      <c r="AK87" s="22"/>
+    </row>
+    <row r="88" spans="1:37">
+      <c r="A88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
+    </row>
+    <row r="89" spans="1:37">
+      <c r="A89" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19">
+      <c r="B89" s="20"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20">
         <v>200.0</v>
       </c>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="19"/>
-      <c r="AI57" s="19"/>
-      <c r="AJ57" s="19"/>
-      <c r="AK57" s="19"/>
-    </row>
-    <row r="58" spans="1:37">
-      <c r="A58" s="6" t="s">
+      <c r="AA89" s="20"/>
+      <c r="AB89" s="20"/>
+      <c r="AC89" s="20"/>
+      <c r="AD89" s="20"/>
+      <c r="AE89" s="20"/>
+      <c r="AF89" s="20"/>
+      <c r="AG89" s="20"/>
+      <c r="AH89" s="20"/>
+      <c r="AI89" s="20"/>
+      <c r="AJ89" s="20"/>
+      <c r="AK89" s="20"/>
+    </row>
+    <row r="90" spans="1:37">
+      <c r="A90" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21">
+      <c r="B90" s="22"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="22">
         <v>200.0</v>
       </c>
-      <c r="AA58" s="21"/>
-      <c r="AB58" s="21"/>
-      <c r="AC58" s="21"/>
-      <c r="AD58" s="21"/>
-      <c r="AE58" s="21"/>
-      <c r="AF58" s="21"/>
-      <c r="AG58" s="21"/>
-      <c r="AH58" s="21"/>
-      <c r="AI58" s="21"/>
-      <c r="AJ58" s="21"/>
-      <c r="AK58" s="21"/>
-    </row>
-    <row r="59" spans="1:37">
-      <c r="A59" s="7" t="s">
+      <c r="AA90" s="22"/>
+      <c r="AB90" s="22"/>
+      <c r="AC90" s="22"/>
+      <c r="AD90" s="22"/>
+      <c r="AE90" s="22"/>
+      <c r="AF90" s="22"/>
+      <c r="AG90" s="22"/>
+      <c r="AH90" s="22"/>
+      <c r="AI90" s="22"/>
+      <c r="AJ90" s="22"/>
+      <c r="AK90" s="22"/>
+    </row>
+    <row r="91" spans="1:37">
+      <c r="A91" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22">
+      <c r="B91" s="23"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23">
+        <v>92.0</v>
+      </c>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23">
+        <v>102.0</v>
+      </c>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+    </row>
+    <row r="93" spans="1:37">
+      <c r="A93" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="20"/>
+      <c r="X93" s="20"/>
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="20"/>
+      <c r="AA93" s="20"/>
+      <c r="AB93" s="20"/>
+      <c r="AC93" s="20"/>
+      <c r="AD93" s="20"/>
+      <c r="AE93" s="20"/>
+      <c r="AF93" s="20"/>
+      <c r="AG93" s="20"/>
+      <c r="AH93" s="20"/>
+      <c r="AI93" s="20"/>
+      <c r="AJ93" s="20"/>
+      <c r="AK93" s="20"/>
+    </row>
+    <row r="94" spans="1:37">
+      <c r="A94" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="20"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA94" s="20"/>
+      <c r="AB94" s="20"/>
+      <c r="AC94" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD94" s="20"/>
+      <c r="AE94" s="20"/>
+      <c r="AF94" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG94" s="20"/>
+      <c r="AH94" s="20"/>
+      <c r="AI94" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ94" s="20"/>
+      <c r="AK94" s="20"/>
+    </row>
+    <row r="95" spans="1:37">
+      <c r="A95" s="5"/>
+      <c r="B95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="M95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="P95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="S95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="T95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="U95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="V95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="W95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="X95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH95" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI95" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ95" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK95" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37">
+      <c r="A96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="21"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="21"/>
+      <c r="AA96" s="21"/>
+      <c r="AB96" s="21"/>
+      <c r="AC96" s="21"/>
+      <c r="AD96" s="21"/>
+      <c r="AE96" s="21"/>
+      <c r="AF96" s="21"/>
+      <c r="AG96" s="21"/>
+      <c r="AH96" s="21"/>
+      <c r="AI96" s="21"/>
+      <c r="AJ96" s="21"/>
+      <c r="AK96" s="21"/>
+    </row>
+    <row r="97" spans="1:37">
+      <c r="A97" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="20"/>
+      <c r="AA97" s="20"/>
+      <c r="AB97" s="20"/>
+      <c r="AC97" s="20"/>
+      <c r="AD97" s="20"/>
+      <c r="AE97" s="20"/>
+      <c r="AF97" s="20"/>
+      <c r="AG97" s="20"/>
+      <c r="AH97" s="20"/>
+      <c r="AI97" s="20"/>
+      <c r="AJ97" s="20"/>
+      <c r="AK97" s="20"/>
+    </row>
+    <row r="98" spans="1:37">
+      <c r="A98" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="20"/>
+      <c r="W98" s="20"/>
+      <c r="X98" s="20"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="20"/>
+      <c r="AA98" s="20"/>
+      <c r="AB98" s="20"/>
+      <c r="AC98" s="20"/>
+      <c r="AD98" s="20"/>
+      <c r="AE98" s="20"/>
+      <c r="AF98" s="20"/>
+      <c r="AG98" s="20"/>
+      <c r="AH98" s="20"/>
+      <c r="AI98" s="20"/>
+      <c r="AJ98" s="20"/>
+      <c r="AK98" s="20"/>
+    </row>
+    <row r="99" spans="1:37">
+      <c r="A99" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="20"/>
+      <c r="AA99" s="20"/>
+      <c r="AB99" s="20"/>
+      <c r="AC99" s="20"/>
+      <c r="AD99" s="20"/>
+      <c r="AE99" s="20"/>
+      <c r="AF99" s="20"/>
+      <c r="AG99" s="20"/>
+      <c r="AH99" s="20"/>
+      <c r="AI99" s="20"/>
+      <c r="AJ99" s="20"/>
+      <c r="AK99" s="20"/>
+    </row>
+    <row r="100" spans="1:37">
+      <c r="A100" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="20"/>
+      <c r="AA100" s="20"/>
+      <c r="AB100" s="20"/>
+      <c r="AC100" s="20"/>
+      <c r="AD100" s="20"/>
+      <c r="AE100" s="20"/>
+      <c r="AF100" s="20"/>
+      <c r="AG100" s="20"/>
+      <c r="AH100" s="20"/>
+      <c r="AI100" s="20"/>
+      <c r="AJ100" s="20"/>
+      <c r="AK100" s="20"/>
+    </row>
+    <row r="101" spans="1:37">
+      <c r="A101" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="20"/>
+      <c r="W101" s="20"/>
+      <c r="X101" s="20"/>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="AA101" s="20"/>
+      <c r="AB101" s="20"/>
+      <c r="AC101" s="20"/>
+      <c r="AD101" s="20"/>
+      <c r="AE101" s="20"/>
+      <c r="AF101" s="20"/>
+      <c r="AG101" s="20"/>
+      <c r="AH101" s="20"/>
+      <c r="AI101" s="20"/>
+      <c r="AJ101" s="20"/>
+      <c r="AK101" s="20"/>
+    </row>
+    <row r="102" spans="1:37">
+      <c r="A102" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="20"/>
+      <c r="AA102" s="20"/>
+      <c r="AB102" s="20"/>
+      <c r="AC102" s="20"/>
+      <c r="AD102" s="20"/>
+      <c r="AE102" s="20"/>
+      <c r="AF102" s="20"/>
+      <c r="AG102" s="20"/>
+      <c r="AH102" s="20"/>
+      <c r="AI102" s="20"/>
+      <c r="AJ102" s="20"/>
+      <c r="AK102" s="20"/>
+    </row>
+    <row r="103" spans="1:37">
+      <c r="A103" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="20"/>
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="20"/>
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="20"/>
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="20"/>
+      <c r="AI103" s="20"/>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="20"/>
+    </row>
+    <row r="104" spans="1:37">
+      <c r="A104" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="20"/>
+      <c r="W104" s="20"/>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="20"/>
+      <c r="AA104" s="20"/>
+      <c r="AB104" s="20"/>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="20"/>
+      <c r="AE104" s="20"/>
+      <c r="AF104" s="20"/>
+      <c r="AG104" s="20"/>
+      <c r="AH104" s="20"/>
+      <c r="AI104" s="20"/>
+      <c r="AJ104" s="20"/>
+      <c r="AK104" s="20"/>
+    </row>
+    <row r="105" spans="1:37">
+      <c r="A105" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105" s="20"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="20"/>
+      <c r="T105" s="20"/>
+      <c r="U105" s="20"/>
+      <c r="V105" s="20"/>
+      <c r="W105" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="X105" s="20"/>
+      <c r="Y105" s="20"/>
+      <c r="Z105" s="20"/>
+      <c r="AA105" s="20"/>
+      <c r="AB105" s="20"/>
+      <c r="AC105" s="20"/>
+      <c r="AD105" s="20"/>
+      <c r="AE105" s="20"/>
+      <c r="AF105" s="20"/>
+      <c r="AG105" s="20"/>
+      <c r="AH105" s="20"/>
+      <c r="AI105" s="20"/>
+      <c r="AJ105" s="20"/>
+      <c r="AK105" s="20"/>
+    </row>
+    <row r="106" spans="1:37">
+      <c r="A106" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+      <c r="V106" s="20"/>
+      <c r="W106" s="20"/>
+      <c r="X106" s="20"/>
+      <c r="Y106" s="20"/>
+      <c r="Z106" s="20"/>
+      <c r="AA106" s="20"/>
+      <c r="AB106" s="20"/>
+      <c r="AC106" s="20"/>
+      <c r="AD106" s="20"/>
+      <c r="AE106" s="20"/>
+      <c r="AF106" s="20"/>
+      <c r="AG106" s="20"/>
+      <c r="AH106" s="20"/>
+      <c r="AI106" s="20"/>
+      <c r="AJ106" s="20"/>
+      <c r="AK106" s="20"/>
+    </row>
+    <row r="107" spans="1:37">
+      <c r="A107" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
+      <c r="AA107" s="20"/>
+      <c r="AB107" s="20"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="20"/>
+      <c r="AE107" s="20"/>
+      <c r="AF107" s="20"/>
+      <c r="AG107" s="20"/>
+      <c r="AH107" s="20"/>
+      <c r="AI107" s="20"/>
+      <c r="AJ107" s="20"/>
+      <c r="AK107" s="20"/>
+    </row>
+    <row r="108" spans="1:37">
+      <c r="A108" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="20"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="20"/>
+      <c r="AA108" s="20"/>
+      <c r="AB108" s="20"/>
+      <c r="AC108" s="20"/>
+      <c r="AD108" s="20"/>
+      <c r="AE108" s="20"/>
+      <c r="AF108" s="20"/>
+      <c r="AG108" s="20"/>
+      <c r="AH108" s="20"/>
+      <c r="AI108" s="20"/>
+      <c r="AJ108" s="20"/>
+      <c r="AK108" s="20"/>
+    </row>
+    <row r="109" spans="1:37">
+      <c r="A109" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+      <c r="V109" s="20"/>
+      <c r="W109" s="20"/>
+      <c r="X109" s="20"/>
+      <c r="Y109" s="20"/>
+      <c r="Z109" s="20"/>
+      <c r="AA109" s="20"/>
+      <c r="AB109" s="20"/>
+      <c r="AC109" s="20"/>
+      <c r="AD109" s="20"/>
+      <c r="AE109" s="20"/>
+      <c r="AF109" s="20"/>
+      <c r="AG109" s="20"/>
+      <c r="AH109" s="20"/>
+      <c r="AI109" s="20"/>
+      <c r="AJ109" s="20"/>
+      <c r="AK109" s="20"/>
+    </row>
+    <row r="110" spans="1:37">
+      <c r="A110" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="20"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
+      <c r="V110" s="20"/>
+      <c r="W110" s="20"/>
+      <c r="X110" s="20"/>
+      <c r="Y110" s="20"/>
+      <c r="Z110" s="20"/>
+      <c r="AA110" s="20"/>
+      <c r="AB110" s="20"/>
+      <c r="AC110" s="20"/>
+      <c r="AD110" s="20"/>
+      <c r="AE110" s="20"/>
+      <c r="AF110" s="20"/>
+      <c r="AG110" s="20"/>
+      <c r="AH110" s="20"/>
+      <c r="AI110" s="20"/>
+      <c r="AJ110" s="20"/>
+      <c r="AK110" s="20"/>
+    </row>
+    <row r="111" spans="1:37">
+      <c r="A111" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="20"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+      <c r="Q111" s="20"/>
+      <c r="R111" s="20"/>
+      <c r="S111" s="20"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="20"/>
+      <c r="W111" s="20"/>
+      <c r="X111" s="20"/>
+      <c r="Y111" s="20"/>
+      <c r="Z111" s="20"/>
+      <c r="AA111" s="20"/>
+      <c r="AB111" s="20"/>
+      <c r="AC111" s="20"/>
+      <c r="AD111" s="20"/>
+      <c r="AE111" s="20"/>
+      <c r="AF111" s="20"/>
+      <c r="AG111" s="20"/>
+      <c r="AH111" s="20"/>
+      <c r="AI111" s="20"/>
+      <c r="AJ111" s="20"/>
+      <c r="AK111" s="20"/>
+    </row>
+    <row r="112" spans="1:37">
+      <c r="A112" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20">
         <v>6.0</v>
       </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22">
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112" s="20"/>
+      <c r="S112" s="20"/>
+      <c r="T112" s="20">
+        <v>35.0</v>
+      </c>
+      <c r="U112" s="20"/>
+      <c r="V112" s="20"/>
+      <c r="W112" s="20"/>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="20"/>
+      <c r="Z112" s="20"/>
+      <c r="AA112" s="20"/>
+      <c r="AB112" s="20"/>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="20"/>
+      <c r="AF112" s="20"/>
+      <c r="AG112" s="20"/>
+      <c r="AH112" s="20"/>
+      <c r="AI112" s="20"/>
+      <c r="AJ112" s="20"/>
+      <c r="AK112" s="20"/>
+    </row>
+    <row r="113" spans="1:37">
+      <c r="A113" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="20"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="20"/>
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="20"/>
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="20"/>
+      <c r="AA113" s="20"/>
+      <c r="AB113" s="20"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="20"/>
+      <c r="AE113" s="20"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="20"/>
+      <c r="AI113" s="20"/>
+      <c r="AJ113" s="20"/>
+      <c r="AK113" s="20"/>
+    </row>
+    <row r="114" spans="1:37">
+      <c r="A114" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="20"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="20"/>
+      <c r="Q114" s="20">
         <v>10.0</v>
       </c>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22">
+      <c r="R114" s="20"/>
+      <c r="S114" s="20"/>
+      <c r="T114" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="U114" s="20"/>
+      <c r="V114" s="20"/>
+      <c r="W114" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="X114" s="20"/>
+      <c r="Y114" s="20"/>
+      <c r="Z114" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="AA114" s="20"/>
+      <c r="AB114" s="20"/>
+      <c r="AC114" s="20"/>
+      <c r="AD114" s="20"/>
+      <c r="AE114" s="20"/>
+      <c r="AF114" s="20"/>
+      <c r="AG114" s="20"/>
+      <c r="AH114" s="20"/>
+      <c r="AI114" s="20"/>
+      <c r="AJ114" s="20"/>
+      <c r="AK114" s="20"/>
+    </row>
+    <row r="115" spans="1:37">
+      <c r="A115" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="20"/>
+      <c r="Q115" s="20"/>
+      <c r="R115" s="20"/>
+      <c r="S115" s="20"/>
+      <c r="T115" s="20"/>
+      <c r="U115" s="20"/>
+      <c r="V115" s="20"/>
+      <c r="W115" s="20"/>
+      <c r="X115" s="20"/>
+      <c r="Y115" s="20"/>
+      <c r="Z115" s="20"/>
+      <c r="AA115" s="20"/>
+      <c r="AB115" s="20"/>
+      <c r="AC115" s="20"/>
+      <c r="AD115" s="20"/>
+      <c r="AE115" s="20"/>
+      <c r="AF115" s="20"/>
+      <c r="AG115" s="20"/>
+      <c r="AH115" s="20"/>
+      <c r="AI115" s="20"/>
+      <c r="AJ115" s="20"/>
+      <c r="AK115" s="20"/>
+    </row>
+    <row r="116" spans="1:37">
+      <c r="A116" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="20"/>
+      <c r="S116" s="20"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
+      <c r="V116" s="20"/>
+      <c r="W116" s="20"/>
+      <c r="X116" s="20"/>
+      <c r="Y116" s="20"/>
+      <c r="Z116" s="20"/>
+      <c r="AA116" s="20"/>
+      <c r="AB116" s="20"/>
+      <c r="AC116" s="20"/>
+      <c r="AD116" s="20"/>
+      <c r="AE116" s="20"/>
+      <c r="AF116" s="20"/>
+      <c r="AG116" s="20"/>
+      <c r="AH116" s="20"/>
+      <c r="AI116" s="20"/>
+      <c r="AJ116" s="20"/>
+      <c r="AK116" s="20"/>
+    </row>
+    <row r="117" spans="1:37">
+      <c r="A117" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="20"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="20"/>
+      <c r="O117" s="20"/>
+      <c r="P117" s="20"/>
+      <c r="Q117" s="20"/>
+      <c r="R117" s="20"/>
+      <c r="S117" s="20"/>
+      <c r="T117" s="20"/>
+      <c r="U117" s="20"/>
+      <c r="V117" s="20"/>
+      <c r="W117" s="20"/>
+      <c r="X117" s="20"/>
+      <c r="Y117" s="20"/>
+      <c r="Z117" s="20"/>
+      <c r="AA117" s="20"/>
+      <c r="AB117" s="20"/>
+      <c r="AC117" s="20"/>
+      <c r="AD117" s="20"/>
+      <c r="AE117" s="20"/>
+      <c r="AF117" s="20"/>
+      <c r="AG117" s="20"/>
+      <c r="AH117" s="20"/>
+      <c r="AI117" s="20"/>
+      <c r="AJ117" s="20"/>
+      <c r="AK117" s="20"/>
+    </row>
+    <row r="118" spans="1:37">
+      <c r="A118" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="20"/>
+      <c r="O118" s="20"/>
+      <c r="P118" s="20"/>
+      <c r="Q118" s="20"/>
+      <c r="R118" s="20"/>
+      <c r="S118" s="20"/>
+      <c r="T118" s="20"/>
+      <c r="U118" s="20"/>
+      <c r="V118" s="20"/>
+      <c r="W118" s="20"/>
+      <c r="X118" s="20"/>
+      <c r="Y118" s="20"/>
+      <c r="Z118" s="20"/>
+      <c r="AA118" s="20"/>
+      <c r="AB118" s="20"/>
+      <c r="AC118" s="20"/>
+      <c r="AD118" s="20"/>
+      <c r="AE118" s="20"/>
+      <c r="AF118" s="20"/>
+      <c r="AG118" s="20"/>
+      <c r="AH118" s="20"/>
+      <c r="AI118" s="20"/>
+      <c r="AJ118" s="20"/>
+      <c r="AK118" s="20"/>
+    </row>
+    <row r="119" spans="1:37">
+      <c r="A119" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="20"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="20"/>
+      <c r="O119" s="20"/>
+      <c r="P119" s="20"/>
+      <c r="Q119" s="20"/>
+      <c r="R119" s="20"/>
+      <c r="S119" s="20"/>
+      <c r="T119" s="20"/>
+      <c r="U119" s="20"/>
+      <c r="V119" s="20"/>
+      <c r="W119" s="20"/>
+      <c r="X119" s="20"/>
+      <c r="Y119" s="20"/>
+      <c r="Z119" s="20"/>
+      <c r="AA119" s="20"/>
+      <c r="AB119" s="20"/>
+      <c r="AC119" s="20"/>
+      <c r="AD119" s="20"/>
+      <c r="AE119" s="20"/>
+      <c r="AF119" s="20"/>
+      <c r="AG119" s="20"/>
+      <c r="AH119" s="20"/>
+      <c r="AI119" s="20"/>
+      <c r="AJ119" s="20"/>
+      <c r="AK119" s="20"/>
+    </row>
+    <row r="120" spans="1:37">
+      <c r="A120" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="20"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="20"/>
+      <c r="O120" s="20"/>
+      <c r="P120" s="20"/>
+      <c r="Q120" s="20"/>
+      <c r="R120" s="20"/>
+      <c r="S120" s="20"/>
+      <c r="T120" s="20"/>
+      <c r="U120" s="20"/>
+      <c r="V120" s="20"/>
+      <c r="W120" s="20"/>
+      <c r="X120" s="20"/>
+      <c r="Y120" s="20"/>
+      <c r="Z120" s="20"/>
+      <c r="AA120" s="20"/>
+      <c r="AB120" s="20"/>
+      <c r="AC120" s="20"/>
+      <c r="AD120" s="20"/>
+      <c r="AE120" s="20"/>
+      <c r="AF120" s="20"/>
+      <c r="AG120" s="20"/>
+      <c r="AH120" s="20"/>
+      <c r="AI120" s="20"/>
+      <c r="AJ120" s="20"/>
+      <c r="AK120" s="20"/>
+    </row>
+    <row r="121" spans="1:37">
+      <c r="A121" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="20"/>
+      <c r="O121" s="20"/>
+      <c r="P121" s="20"/>
+      <c r="Q121" s="20"/>
+      <c r="R121" s="20"/>
+      <c r="S121" s="20"/>
+      <c r="T121" s="20"/>
+      <c r="U121" s="20"/>
+      <c r="V121" s="20"/>
+      <c r="W121" s="20"/>
+      <c r="X121" s="20"/>
+      <c r="Y121" s="20"/>
+      <c r="Z121" s="20"/>
+      <c r="AA121" s="20"/>
+      <c r="AB121" s="20"/>
+      <c r="AC121" s="20"/>
+      <c r="AD121" s="20"/>
+      <c r="AE121" s="20"/>
+      <c r="AF121" s="20"/>
+      <c r="AG121" s="20"/>
+      <c r="AH121" s="20"/>
+      <c r="AI121" s="20"/>
+      <c r="AJ121" s="20"/>
+      <c r="AK121" s="20"/>
+    </row>
+    <row r="122" spans="1:37">
+      <c r="A122" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="20"/>
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="20"/>
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="20"/>
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="20"/>
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="20"/>
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="20"/>
+      <c r="AI122" s="20"/>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="20"/>
+    </row>
+    <row r="123" spans="1:37">
+      <c r="A123" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="20"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="20"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="20"/>
+      <c r="W123" s="20"/>
+      <c r="X123" s="20"/>
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="20"/>
+      <c r="AA123" s="20"/>
+      <c r="AB123" s="20"/>
+      <c r="AC123" s="20"/>
+      <c r="AD123" s="20"/>
+      <c r="AE123" s="20"/>
+      <c r="AF123" s="20"/>
+      <c r="AG123" s="20"/>
+      <c r="AH123" s="20"/>
+      <c r="AI123" s="20"/>
+      <c r="AJ123" s="20"/>
+      <c r="AK123" s="20"/>
+    </row>
+    <row r="124" spans="1:37">
+      <c r="A124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="20"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="20"/>
+      <c r="O124" s="20"/>
+      <c r="P124" s="20"/>
+      <c r="Q124" s="20"/>
+      <c r="R124" s="20"/>
+      <c r="S124" s="20"/>
+      <c r="T124" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="U124" s="20"/>
+      <c r="V124" s="20"/>
+      <c r="W124" s="20"/>
+      <c r="X124" s="20"/>
+      <c r="Y124" s="20"/>
+      <c r="Z124" s="20"/>
+      <c r="AA124" s="20"/>
+      <c r="AB124" s="20"/>
+      <c r="AC124" s="20"/>
+      <c r="AD124" s="20"/>
+      <c r="AE124" s="20"/>
+      <c r="AF124" s="20"/>
+      <c r="AG124" s="20"/>
+      <c r="AH124" s="20"/>
+      <c r="AI124" s="20"/>
+      <c r="AJ124" s="20"/>
+      <c r="AK124" s="20"/>
+    </row>
+    <row r="125" spans="1:37">
+      <c r="A125" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="20"/>
+      <c r="O125" s="20"/>
+      <c r="P125" s="20"/>
+      <c r="Q125" s="20"/>
+      <c r="R125" s="20"/>
+      <c r="S125" s="20"/>
+      <c r="T125" s="20"/>
+      <c r="U125" s="20"/>
+      <c r="V125" s="20"/>
+      <c r="W125" s="20"/>
+      <c r="X125" s="20"/>
+      <c r="Y125" s="20"/>
+      <c r="Z125" s="20"/>
+      <c r="AA125" s="20"/>
+      <c r="AB125" s="20"/>
+      <c r="AC125" s="20"/>
+      <c r="AD125" s="20"/>
+      <c r="AE125" s="20"/>
+      <c r="AF125" s="20"/>
+      <c r="AG125" s="20"/>
+      <c r="AH125" s="20"/>
+      <c r="AI125" s="20"/>
+      <c r="AJ125" s="20"/>
+      <c r="AK125" s="20"/>
+    </row>
+    <row r="126" spans="1:37">
+      <c r="A126" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="20"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="20"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="20"/>
+      <c r="AA126" s="20"/>
+      <c r="AB126" s="20"/>
+      <c r="AC126" s="20"/>
+      <c r="AD126" s="20"/>
+      <c r="AE126" s="20"/>
+      <c r="AF126" s="20"/>
+      <c r="AG126" s="20"/>
+      <c r="AH126" s="20"/>
+      <c r="AI126" s="20"/>
+      <c r="AJ126" s="20"/>
+      <c r="AK126" s="20"/>
+    </row>
+    <row r="127" spans="1:37">
+      <c r="A127" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="20"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="20"/>
+      <c r="R127" s="20"/>
+      <c r="S127" s="20"/>
+      <c r="T127" s="20"/>
+      <c r="U127" s="20"/>
+      <c r="V127" s="20"/>
+      <c r="W127" s="20"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="20"/>
+      <c r="Z127" s="20"/>
+      <c r="AA127" s="20"/>
+      <c r="AB127" s="20"/>
+      <c r="AC127" s="20"/>
+      <c r="AD127" s="20"/>
+      <c r="AE127" s="20"/>
+      <c r="AF127" s="20"/>
+      <c r="AG127" s="20"/>
+      <c r="AH127" s="20"/>
+      <c r="AI127" s="20"/>
+      <c r="AJ127" s="20"/>
+      <c r="AK127" s="20"/>
+    </row>
+    <row r="128" spans="1:37">
+      <c r="A128" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="R128" s="22"/>
+      <c r="S128" s="22"/>
+      <c r="T128" s="22">
         <v>57.0</v>
       </c>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22">
+      <c r="U128" s="22"/>
+      <c r="V128" s="22"/>
+      <c r="W128" s="22">
         <v>63.0</v>
       </c>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22">
+      <c r="X128" s="22"/>
+      <c r="Y128" s="22"/>
+      <c r="Z128" s="22">
+        <v>15.0</v>
+      </c>
+      <c r="AA128" s="22"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="22"/>
+      <c r="AD128" s="22"/>
+      <c r="AE128" s="22"/>
+      <c r="AF128" s="22"/>
+      <c r="AG128" s="22"/>
+      <c r="AH128" s="22"/>
+      <c r="AI128" s="22"/>
+      <c r="AJ128" s="22"/>
+      <c r="AK128" s="22"/>
+    </row>
+    <row r="129" spans="1:37">
+      <c r="A129" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B129" s="21"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="21"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="21"/>
+      <c r="O129" s="21"/>
+      <c r="P129" s="21"/>
+      <c r="Q129" s="21"/>
+      <c r="R129" s="21"/>
+      <c r="S129" s="21"/>
+      <c r="T129" s="21"/>
+      <c r="U129" s="21"/>
+      <c r="V129" s="21"/>
+      <c r="W129" s="21"/>
+      <c r="X129" s="21"/>
+      <c r="Y129" s="21"/>
+      <c r="Z129" s="21"/>
+      <c r="AA129" s="21"/>
+      <c r="AB129" s="21"/>
+      <c r="AC129" s="21"/>
+      <c r="AD129" s="21"/>
+      <c r="AE129" s="21"/>
+      <c r="AF129" s="21"/>
+      <c r="AG129" s="21"/>
+      <c r="AH129" s="21"/>
+      <c r="AI129" s="21"/>
+      <c r="AJ129" s="21"/>
+      <c r="AK129" s="21"/>
+    </row>
+    <row r="130" spans="1:37">
+      <c r="A130" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="20"/>
+      <c r="O130" s="20"/>
+      <c r="P130" s="20"/>
+      <c r="Q130" s="20"/>
+      <c r="R130" s="20"/>
+      <c r="S130" s="20"/>
+      <c r="T130" s="20"/>
+      <c r="U130" s="20"/>
+      <c r="V130" s="20"/>
+      <c r="W130" s="20"/>
+      <c r="X130" s="20"/>
+      <c r="Y130" s="20"/>
+      <c r="Z130" s="20">
+        <v>200.0</v>
+      </c>
+      <c r="AA130" s="20"/>
+      <c r="AB130" s="20"/>
+      <c r="AC130" s="20"/>
+      <c r="AD130" s="20"/>
+      <c r="AE130" s="20"/>
+      <c r="AF130" s="20"/>
+      <c r="AG130" s="20"/>
+      <c r="AH130" s="20"/>
+      <c r="AI130" s="20"/>
+      <c r="AJ130" s="20"/>
+      <c r="AK130" s="20"/>
+    </row>
+    <row r="131" spans="1:37">
+      <c r="A131" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B131" s="22"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="22"/>
+      <c r="P131" s="22"/>
+      <c r="Q131" s="22"/>
+      <c r="R131" s="22"/>
+      <c r="S131" s="22"/>
+      <c r="T131" s="22"/>
+      <c r="U131" s="22"/>
+      <c r="V131" s="22"/>
+      <c r="W131" s="22"/>
+      <c r="X131" s="22"/>
+      <c r="Y131" s="22"/>
+      <c r="Z131" s="22">
+        <v>200.0</v>
+      </c>
+      <c r="AA131" s="22"/>
+      <c r="AB131" s="22"/>
+      <c r="AC131" s="22"/>
+      <c r="AD131" s="22"/>
+      <c r="AE131" s="22"/>
+      <c r="AF131" s="22"/>
+      <c r="AG131" s="22"/>
+      <c r="AH131" s="22"/>
+      <c r="AI131" s="22"/>
+      <c r="AJ131" s="22"/>
+      <c r="AK131" s="22"/>
+    </row>
+    <row r="132" spans="1:37">
+      <c r="A132" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="O132" s="23"/>
+      <c r="P132" s="23"/>
+      <c r="Q132" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="R132" s="23"/>
+      <c r="S132" s="23"/>
+      <c r="T132" s="23">
+        <v>57.0</v>
+      </c>
+      <c r="U132" s="23"/>
+      <c r="V132" s="23"/>
+      <c r="W132" s="23">
+        <v>63.0</v>
+      </c>
+      <c r="X132" s="23"/>
+      <c r="Y132" s="23"/>
+      <c r="Z132" s="23">
         <v>215.0</v>
       </c>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
+      <c r="AA132" s="23"/>
+      <c r="AB132" s="23"/>
+      <c r="AC132" s="23"/>
+      <c r="AD132" s="23"/>
+      <c r="AE132" s="23"/>
+      <c r="AF132" s="23"/>
+      <c r="AG132" s="23"/>
+      <c r="AH132" s="23"/>
+      <c r="AI132" s="23"/>
+      <c r="AJ132" s="23"/>
+      <c r="AK132" s="23"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -8153,32 +11460,32 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="A30:AK30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AI31:AK31"/>
-    <mergeCell ref="A46:AK46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="A52:AK52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AC53:AE53"/>
+    <mergeCell ref="AF53:AH53"/>
+    <mergeCell ref="AI53:AK53"/>
+    <mergeCell ref="A93:AK93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T94:V94"/>
+    <mergeCell ref="W94:Y94"/>
+    <mergeCell ref="Z94:AB94"/>
+    <mergeCell ref="AC94:AE94"/>
+    <mergeCell ref="AF94:AH94"/>
+    <mergeCell ref="AI94:AK94"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
